--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0CA69B-FADA-451F-A145-C0B6D5CAC159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC3593-511D-4359-BB21-4B4133BC60F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="-21825" windowWidth="22110" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14550" yWindow="-24000" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1101,11 +1101,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1125,42 +1125,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,8 +1134,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1200,29 +1203,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3590,8 +3590,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH75" sqref="AH75"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,86 +3632,86 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="196" t="s">
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="196" t="s">
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
+      <c r="AN2" s="186"/>
+      <c r="AO2" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="197"/>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="197"/>
-      <c r="BC2" s="197"/>
-      <c r="BD2" s="197"/>
-      <c r="BE2" s="197"/>
-      <c r="BF2" s="197"/>
-      <c r="BG2" s="197"/>
-      <c r="BH2" s="198"/>
-      <c r="BI2" s="196" t="s">
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="185"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="185"/>
+      <c r="AX2" s="185"/>
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="185"/>
+      <c r="BA2" s="185"/>
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="185"/>
+      <c r="BE2" s="185"/>
+      <c r="BF2" s="185"/>
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="186"/>
+      <c r="BI2" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="197"/>
-      <c r="BK2" s="197"/>
-      <c r="BL2" s="198"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="185"/>
+      <c r="BL2" s="186"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="207" t="s">
+      <c r="C3" s="205"/>
+      <c r="D3" s="208" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="178" t="s">
@@ -3806,9 +3806,9 @@
       <c r="BL3" s="180"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="208"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="181"/>
       <c r="F4" s="182"/>
       <c r="G4" s="182"/>
@@ -3871,7 +3871,7 @@
       <c r="BL4" s="183"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="195" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -4013,7 +4013,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="193" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4087,7 +4087,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="177"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="193" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4242,7 +4242,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="177"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="193" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4396,7 +4396,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="193"/>
+      <c r="B12" s="200"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="195" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4610,7 +4610,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="193" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4686,7 +4686,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="177"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="193" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4836,7 +4836,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="177"/>
+      <c r="B18" s="194"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="193" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4984,7 +4984,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="177"/>
+      <c r="B20" s="194"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="193" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5130,7 +5130,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="177"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5202,7 +5202,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="193" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5276,7 +5276,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="193"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="194" t="s">
+      <c r="B25" s="195" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5422,7 +5422,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="195"/>
+      <c r="B26" s="196"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="194" t="s">
+      <c r="B27" s="195" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5636,7 +5636,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="193" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5712,13 +5712,13 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="177"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="69"/>
@@ -5732,8 +5732,12 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="69"/>
+      <c r="Q30" s="146">
+        <v>2</v>
+      </c>
+      <c r="R30" s="140">
+        <v>1</v>
+      </c>
       <c r="S30" s="69"/>
       <c r="T30" s="70"/>
       <c r="U30" s="32"/>
@@ -5782,7 +5786,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="193" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5858,13 +5862,13 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="177"/>
+      <c r="B32" s="194"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="71"/>
       <c r="F32" s="69"/>
@@ -5879,9 +5883,15 @@
       <c r="O32" s="24"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="71"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="70"/>
+      <c r="R32" s="140">
+        <v>1</v>
+      </c>
+      <c r="S32" s="140">
+        <v>2</v>
+      </c>
+      <c r="T32" s="163">
+        <v>1</v>
+      </c>
       <c r="U32" s="32"/>
       <c r="V32" s="91"/>
       <c r="W32" s="16"/>
@@ -5928,7 +5938,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="193" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6004,7 +6014,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="177"/>
+      <c r="B34" s="194"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6074,7 +6084,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="193" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6148,7 +6158,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="177"/>
+      <c r="B36" s="194"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6218,7 +6228,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="193" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6292,7 +6302,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="177"/>
+      <c r="B38" s="194"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6362,7 +6372,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="193" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6442,7 +6452,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="177"/>
+      <c r="B40" s="194"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6512,7 +6522,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="193" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6592,7 +6602,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="177"/>
+      <c r="B42" s="194"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6662,7 +6672,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="193" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6742,7 +6752,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="177"/>
+      <c r="B44" s="194"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6812,7 +6822,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="193" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6888,7 +6898,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="177"/>
+      <c r="B46" s="194"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6958,7 +6968,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="193" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7038,7 +7048,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="177"/>
+      <c r="B48" s="194"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7118,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="194" t="s">
+      <c r="B49" s="195" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7184,7 +7194,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="195"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7254,7 +7264,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="194" t="s">
+      <c r="B51" s="195" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7330,7 +7340,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="195"/>
+      <c r="B52" s="196"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7400,7 +7410,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="194" t="s">
+      <c r="B53" s="195" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7476,7 +7486,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="195"/>
+      <c r="B54" s="196"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7546,7 +7556,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="194" t="s">
+      <c r="B55" s="195" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7644,13 +7654,13 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="195"/>
+      <c r="B56" s="196"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7673,7 +7683,9 @@
       <c r="Q56" s="53"/>
       <c r="R56" s="35"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="19"/>
+      <c r="T56" s="164">
+        <v>1</v>
+      </c>
       <c r="U56" s="53"/>
       <c r="V56" s="35"/>
       <c r="W56" s="18"/>
@@ -7720,7 +7732,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="215" t="s">
+      <c r="B57" s="197" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7787,7 +7799,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="216"/>
+      <c r="B58" s="198"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7852,11 +7864,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="210"/>
-      <c r="D59" s="211"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="189"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7919,9 +7931,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="212"/>
-      <c r="C60" s="213"/>
-      <c r="D60" s="214"/>
+      <c r="B60" s="190"/>
+      <c r="C60" s="191"/>
+      <c r="D60" s="192"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -7984,11 +7996,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="209" t="s">
+      <c r="B61" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="210"/>
-      <c r="D61" s="211"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="189"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8051,9 +8063,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="212"/>
-      <c r="C62" s="213"/>
-      <c r="D62" s="214"/>
+      <c r="B62" s="190"/>
+      <c r="C62" s="191"/>
+      <c r="D62" s="192"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8116,11 +8128,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="209" t="s">
+      <c r="B63" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="210"/>
-      <c r="D63" s="211"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="189"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8183,9 +8195,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="212"/>
-      <c r="C64" s="213"/>
-      <c r="D64" s="214"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="192"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8248,11 +8260,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="209" t="s">
+      <c r="B65" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="210"/>
-      <c r="D65" s="211"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="189"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8315,9 +8327,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="212"/>
-      <c r="C66" s="213"/>
-      <c r="D66" s="214"/>
+      <c r="B66" s="190"/>
+      <c r="C66" s="191"/>
+      <c r="D66" s="192"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8380,11 +8392,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="210"/>
-      <c r="D67" s="211"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="189"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8447,9 +8459,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="212"/>
-      <c r="C68" s="213"/>
-      <c r="D68" s="214"/>
+      <c r="B68" s="190"/>
+      <c r="C68" s="191"/>
+      <c r="D68" s="192"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8512,11 +8524,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="209" t="s">
+      <c r="B69" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="210"/>
-      <c r="D69" s="211"/>
+      <c r="C69" s="188"/>
+      <c r="D69" s="189"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8579,9 +8591,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="212"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="214"/>
+      <c r="B70" s="190"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="192"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8644,11 +8656,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="209" t="s">
+      <c r="B71" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="210"/>
-      <c r="D71" s="211"/>
+      <c r="C71" s="188"/>
+      <c r="D71" s="189"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8711,9 +8723,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="212"/>
-      <c r="C72" s="213"/>
-      <c r="D72" s="214"/>
+      <c r="B72" s="190"/>
+      <c r="C72" s="191"/>
+      <c r="D72" s="192"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8794,55 +8806,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="189" t="s">
+      <c r="E74" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="190"/>
-      <c r="G74" s="190"/>
+      <c r="F74" s="214"/>
+      <c r="G74" s="214"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="189" t="s">
+      <c r="I74" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="190"/>
-      <c r="K74" s="190"/>
+      <c r="J74" s="214"/>
+      <c r="K74" s="214"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="191" t="s">
+      <c r="M74" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="192"/>
-      <c r="O74" s="192"/>
+      <c r="N74" s="216"/>
+      <c r="O74" s="216"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="184" t="s">
+      <c r="Q74" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="185"/>
-      <c r="S74" s="185"/>
-      <c r="T74" s="185"/>
+      <c r="R74" s="211"/>
+      <c r="S74" s="211"/>
+      <c r="T74" s="211"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="185" t="s">
+      <c r="W74" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="185"/>
-      <c r="Y74" s="185"/>
+      <c r="X74" s="211"/>
+      <c r="Y74" s="211"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="186" t="s">
+      <c r="AA74" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="AB74" s="187"/>
-      <c r="AC74" s="187"/>
-      <c r="AD74" s="187"/>
-      <c r="AE74" s="187"/>
-      <c r="AF74" s="187"/>
-      <c r="AG74" s="188"/>
-      <c r="AH74" s="186" t="s">
+      <c r="AB74" s="177"/>
+      <c r="AC74" s="177"/>
+      <c r="AD74" s="177"/>
+      <c r="AE74" s="177"/>
+      <c r="AF74" s="177"/>
+      <c r="AG74" s="212"/>
+      <c r="AH74" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="AI74" s="187"/>
-      <c r="AJ74" s="187"/>
-      <c r="AK74" s="187"/>
-      <c r="AL74" s="187"/>
-      <c r="AM74" s="187"/>
+      <c r="AI74" s="177"/>
+      <c r="AJ74" s="177"/>
+      <c r="AK74" s="177"/>
+      <c r="AL74" s="177"/>
+      <c r="AM74" s="177"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8871,37 +8883,22 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="BA3:BD4"/>
+    <mergeCell ref="AA74:AG74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -8918,22 +8915,37 @@
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AS3:AV4"/>
     <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="BA3:BD4"/>
-    <mergeCell ref="AA74:AG74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9241,21 +9253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9369,10 +9366,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9393,17 +9413,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC3593-511D-4359-BB21-4B4133BC60F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECC240-9DEA-4496-A80B-954750B9DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14550" yWindow="-24000" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8085" yWindow="-18150" windowWidth="22110" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1101,11 +1101,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1125,6 +1125,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,47 +1170,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,27 +1200,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3590,8 +3592,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,7 +3612,7 @@
     <col min="17" max="19" width="4.28515625" customWidth="1"/>
     <col min="20" max="20" width="5" customWidth="1"/>
     <col min="21" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="4.28515625" customWidth="1"/>
     <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="4.28515625" customWidth="1"/>
@@ -3632,86 +3634,86 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="184" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="184" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="185"/>
-      <c r="AN2" s="186"/>
-      <c r="AO2" s="184" t="s">
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="197"/>
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="185"/>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="185"/>
-      <c r="AS2" s="185"/>
-      <c r="AT2" s="185"/>
-      <c r="AU2" s="185"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="185"/>
-      <c r="BA2" s="185"/>
-      <c r="BB2" s="185"/>
-      <c r="BC2" s="185"/>
-      <c r="BD2" s="185"/>
-      <c r="BE2" s="185"/>
-      <c r="BF2" s="185"/>
-      <c r="BG2" s="185"/>
-      <c r="BH2" s="186"/>
-      <c r="BI2" s="184" t="s">
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="197"/>
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="197"/>
+      <c r="BC2" s="197"/>
+      <c r="BD2" s="197"/>
+      <c r="BE2" s="197"/>
+      <c r="BF2" s="197"/>
+      <c r="BG2" s="197"/>
+      <c r="BH2" s="198"/>
+      <c r="BI2" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="185"/>
-      <c r="BK2" s="185"/>
-      <c r="BL2" s="186"/>
+      <c r="BJ2" s="197"/>
+      <c r="BK2" s="197"/>
+      <c r="BL2" s="198"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="208" t="s">
+      <c r="C3" s="204"/>
+      <c r="D3" s="207" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="178" t="s">
@@ -3806,9 +3808,9 @@
       <c r="BL3" s="180"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="209"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="181"/>
       <c r="F4" s="182"/>
       <c r="G4" s="182"/>
@@ -3871,7 +3873,7 @@
       <c r="BL4" s="183"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="194" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -4013,7 +4015,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="176" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4087,7 +4089,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="194"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4168,7 +4170,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="176" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4242,7 +4244,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="194"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4322,7 +4324,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="176" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4396,7 +4398,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="200"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4468,7 +4470,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="194" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4610,7 +4612,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="176" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4686,7 +4688,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="194"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4760,7 +4762,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="176" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4836,7 +4838,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="194"/>
+      <c r="B18" s="177"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4910,7 +4912,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="193" t="s">
+      <c r="B19" s="176" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4984,7 +4986,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="194"/>
+      <c r="B20" s="177"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5058,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="176" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5130,7 +5132,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="194"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5202,7 +5204,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="176" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5276,7 +5278,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="200"/>
+      <c r="B24" s="193"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5348,7 +5350,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="195" t="s">
+      <c r="B25" s="194" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5422,7 +5424,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="196"/>
+      <c r="B26" s="195"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5494,7 +5496,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="195" t="s">
+      <c r="B27" s="194" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5572,7 +5574,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>7</v>
+        <v>14.25</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5636,7 +5638,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="176" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5712,7 +5714,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="194"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5788,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="193" t="s">
+      <c r="B31" s="176" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5862,7 +5864,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="194"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5938,7 +5940,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="176" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6014,13 +6016,13 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="194"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E34" s="71"/>
       <c r="F34" s="69"/>
@@ -6038,10 +6040,18 @@
       <c r="R34" s="69"/>
       <c r="S34" s="69"/>
       <c r="T34" s="70"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="17"/>
+      <c r="U34" s="146">
+        <v>2</v>
+      </c>
+      <c r="V34" s="217">
+        <v>1</v>
+      </c>
+      <c r="W34" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="X34" s="163">
+        <v>0.75</v>
+      </c>
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
       <c r="AA34" s="16"/>
@@ -6084,7 +6094,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="176" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6158,13 +6168,13 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="194"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="71"/>
       <c r="F36" s="69"/>
@@ -6183,8 +6193,12 @@
       <c r="S36" s="69"/>
       <c r="T36" s="70"/>
       <c r="U36" s="32"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="16"/>
+      <c r="V36" s="217">
+        <v>1</v>
+      </c>
+      <c r="W36" s="140">
+        <v>1.5</v>
+      </c>
       <c r="X36" s="17"/>
       <c r="Y36" s="32"/>
       <c r="Z36" s="16"/>
@@ -6228,7 +6242,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="176" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6302,13 +6316,13 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="194"/>
+      <c r="B38" s="177"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="71"/>
       <c r="F38" s="69"/>
@@ -6329,7 +6343,9 @@
       <c r="U38" s="32"/>
       <c r="V38" s="91"/>
       <c r="W38" s="16"/>
-      <c r="X38" s="17"/>
+      <c r="X38" s="163">
+        <v>0.5</v>
+      </c>
       <c r="Y38" s="32"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
@@ -6372,7 +6388,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="193" t="s">
+      <c r="B39" s="176" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6452,7 +6468,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="194"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6522,7 +6538,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="193" t="s">
+      <c r="B41" s="176" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6602,7 +6618,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="194"/>
+      <c r="B42" s="177"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6672,7 +6688,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="176" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6752,7 +6768,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="194"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6822,7 +6838,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="176" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6898,7 +6914,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="194"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6968,7 +6984,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="176" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7048,7 +7064,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="194"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7118,7 +7134,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="195" t="s">
+      <c r="B49" s="194" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7194,7 +7210,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="196"/>
+      <c r="B50" s="195"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7264,7 +7280,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="195" t="s">
+      <c r="B51" s="194" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7340,7 +7356,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="196"/>
+      <c r="B52" s="195"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7410,7 +7426,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="195" t="s">
+      <c r="B53" s="194" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7486,7 +7502,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="196"/>
+      <c r="B54" s="195"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7556,7 +7572,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="195" t="s">
+      <c r="B55" s="194" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7654,13 +7670,13 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="196"/>
+      <c r="B56" s="195"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7689,7 +7705,9 @@
       <c r="U56" s="53"/>
       <c r="V56" s="35"/>
       <c r="W56" s="18"/>
-      <c r="X56" s="19"/>
+      <c r="X56" s="164">
+        <v>1.25</v>
+      </c>
       <c r="Y56" s="107"/>
       <c r="Z56" s="107"/>
       <c r="AA56" s="107"/>
@@ -7732,7 +7750,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="197" t="s">
+      <c r="B57" s="215" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7799,7 +7817,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="198"/>
+      <c r="B58" s="216"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7864,11 +7882,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="187" t="s">
+      <c r="B59" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="188"/>
-      <c r="D59" s="189"/>
+      <c r="C59" s="210"/>
+      <c r="D59" s="211"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7931,9 +7949,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="190"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="192"/>
+      <c r="B60" s="212"/>
+      <c r="C60" s="213"/>
+      <c r="D60" s="214"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -7996,11 +8014,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="187" t="s">
+      <c r="B61" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="188"/>
-      <c r="D61" s="189"/>
+      <c r="C61" s="210"/>
+      <c r="D61" s="211"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8063,9 +8081,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="190"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="192"/>
+      <c r="B62" s="212"/>
+      <c r="C62" s="213"/>
+      <c r="D62" s="214"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8128,11 +8146,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="187" t="s">
+      <c r="B63" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="188"/>
-      <c r="D63" s="189"/>
+      <c r="C63" s="210"/>
+      <c r="D63" s="211"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8195,9 +8213,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="190"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="192"/>
+      <c r="B64" s="212"/>
+      <c r="C64" s="213"/>
+      <c r="D64" s="214"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8260,11 +8278,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="187" t="s">
+      <c r="B65" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="188"/>
-      <c r="D65" s="189"/>
+      <c r="C65" s="210"/>
+      <c r="D65" s="211"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8327,9 +8345,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="190"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="192"/>
+      <c r="B66" s="212"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="214"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8342,12 +8360,12 @@
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
       <c r="P66" s="31"/>
-      <c r="Q66" s="74"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="35"/>
+      <c r="Q66" s="137"/>
+      <c r="R66" s="218"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="164"/>
+      <c r="U66" s="137"/>
+      <c r="V66" s="218"/>
       <c r="W66" s="18"/>
       <c r="X66" s="19"/>
       <c r="Y66" s="35"/>
@@ -8392,11 +8410,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="187" t="s">
+      <c r="B67" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="188"/>
-      <c r="D67" s="189"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="211"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8459,9 +8477,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="190"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="192"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="213"/>
+      <c r="D68" s="214"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8524,11 +8542,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="187" t="s">
+      <c r="B69" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="188"/>
-      <c r="D69" s="189"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="211"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8591,9 +8609,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="190"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="192"/>
+      <c r="B70" s="212"/>
+      <c r="C70" s="213"/>
+      <c r="D70" s="214"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8656,11 +8674,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="187" t="s">
+      <c r="B71" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="188"/>
-      <c r="D71" s="189"/>
+      <c r="C71" s="210"/>
+      <c r="D71" s="211"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8723,9 +8741,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="190"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="192"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="213"/>
+      <c r="D72" s="214"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8806,55 +8824,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="213" t="s">
+      <c r="E74" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="214"/>
-      <c r="G74" s="214"/>
+      <c r="F74" s="190"/>
+      <c r="G74" s="190"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="213" t="s">
+      <c r="I74" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="214"/>
-      <c r="K74" s="214"/>
+      <c r="J74" s="190"/>
+      <c r="K74" s="190"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="215" t="s">
+      <c r="M74" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="216"/>
-      <c r="O74" s="216"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="192"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="210" t="s">
+      <c r="Q74" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="211"/>
-      <c r="S74" s="211"/>
-      <c r="T74" s="211"/>
+      <c r="R74" s="185"/>
+      <c r="S74" s="185"/>
+      <c r="T74" s="185"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="211" t="s">
+      <c r="W74" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="211"/>
-      <c r="Y74" s="211"/>
+      <c r="X74" s="185"/>
+      <c r="Y74" s="185"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="176" t="s">
+      <c r="AA74" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="AB74" s="177"/>
-      <c r="AC74" s="177"/>
-      <c r="AD74" s="177"/>
-      <c r="AE74" s="177"/>
-      <c r="AF74" s="177"/>
-      <c r="AG74" s="212"/>
-      <c r="AH74" s="176" t="s">
+      <c r="AB74" s="187"/>
+      <c r="AC74" s="187"/>
+      <c r="AD74" s="187"/>
+      <c r="AE74" s="187"/>
+      <c r="AF74" s="187"/>
+      <c r="AG74" s="188"/>
+      <c r="AH74" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="AI74" s="177"/>
-      <c r="AJ74" s="177"/>
-      <c r="AK74" s="177"/>
-      <c r="AL74" s="177"/>
-      <c r="AM74" s="177"/>
+      <c r="AI74" s="187"/>
+      <c r="AJ74" s="187"/>
+      <c r="AK74" s="187"/>
+      <c r="AL74" s="187"/>
+      <c r="AM74" s="187"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8883,6 +8901,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="BI3:BL4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="E2:T2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="U3:X4"/>
@@ -8899,53 +8964,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="BI3:BL4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9253,6 +9271,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9366,33 +9399,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9413,9 +9423,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECC240-9DEA-4496-A80B-954750B9DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC86949C-0136-4781-A888-331CCCBF31B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8085" yWindow="-18150" windowWidth="22110" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,11 +1101,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1125,42 +1127,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,8 +1136,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1200,32 +1205,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3592,8 +3592,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,246 +3634,246 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="196" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="196" t="s">
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="187"/>
+      <c r="AH2" s="187"/>
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="187"/>
+      <c r="AK2" s="187"/>
+      <c r="AL2" s="187"/>
+      <c r="AM2" s="187"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="197"/>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="197"/>
-      <c r="BC2" s="197"/>
-      <c r="BD2" s="197"/>
-      <c r="BE2" s="197"/>
-      <c r="BF2" s="197"/>
-      <c r="BG2" s="197"/>
-      <c r="BH2" s="198"/>
-      <c r="BI2" s="196" t="s">
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="187"/>
+      <c r="AR2" s="187"/>
+      <c r="AS2" s="187"/>
+      <c r="AT2" s="187"/>
+      <c r="AU2" s="187"/>
+      <c r="AV2" s="187"/>
+      <c r="AW2" s="187"/>
+      <c r="AX2" s="187"/>
+      <c r="AY2" s="187"/>
+      <c r="AZ2" s="187"/>
+      <c r="BA2" s="187"/>
+      <c r="BB2" s="187"/>
+      <c r="BC2" s="187"/>
+      <c r="BD2" s="187"/>
+      <c r="BE2" s="187"/>
+      <c r="BF2" s="187"/>
+      <c r="BG2" s="187"/>
+      <c r="BH2" s="188"/>
+      <c r="BI2" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="197"/>
-      <c r="BK2" s="197"/>
-      <c r="BL2" s="198"/>
+      <c r="BJ2" s="187"/>
+      <c r="BK2" s="187"/>
+      <c r="BL2" s="188"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="207" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="178" t="s">
+      <c r="E3" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="178" t="s">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="178" t="s">
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="178" t="s">
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="178" t="s">
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="178" t="s">
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="178" t="s">
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="178" t="s">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="178" t="s">
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="AL3" s="179"/>
-      <c r="AM3" s="179"/>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="178" t="s">
+      <c r="AL3" s="181"/>
+      <c r="AM3" s="181"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="179"/>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="180"/>
-      <c r="AS3" s="178" t="s">
+      <c r="AP3" s="181"/>
+      <c r="AQ3" s="181"/>
+      <c r="AR3" s="182"/>
+      <c r="AS3" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="179"/>
-      <c r="AU3" s="179"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="178" t="s">
+      <c r="AT3" s="181"/>
+      <c r="AU3" s="181"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="179"/>
-      <c r="AY3" s="179"/>
-      <c r="AZ3" s="180"/>
-      <c r="BA3" s="178" t="s">
+      <c r="AX3" s="181"/>
+      <c r="AY3" s="181"/>
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="BB3" s="179"/>
-      <c r="BC3" s="179"/>
-      <c r="BD3" s="180"/>
-      <c r="BE3" s="178" t="s">
+      <c r="BB3" s="181"/>
+      <c r="BC3" s="181"/>
+      <c r="BD3" s="182"/>
+      <c r="BE3" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" s="179"/>
-      <c r="BG3" s="179"/>
-      <c r="BH3" s="180"/>
-      <c r="BI3" s="178" t="s">
+      <c r="BF3" s="181"/>
+      <c r="BG3" s="181"/>
+      <c r="BH3" s="182"/>
+      <c r="BI3" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="179"/>
-      <c r="BK3" s="179"/>
-      <c r="BL3" s="180"/>
+      <c r="BJ3" s="181"/>
+      <c r="BK3" s="181"/>
+      <c r="BL3" s="182"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="182"/>
-      <c r="AA4" s="182"/>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="182"/>
-      <c r="AE4" s="182"/>
-      <c r="AF4" s="183"/>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="182"/>
-      <c r="AJ4" s="183"/>
-      <c r="AK4" s="181"/>
-      <c r="AL4" s="182"/>
-      <c r="AM4" s="182"/>
-      <c r="AN4" s="183"/>
-      <c r="AO4" s="181"/>
-      <c r="AP4" s="182"/>
-      <c r="AQ4" s="182"/>
-      <c r="AR4" s="183"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="182"/>
-      <c r="AU4" s="182"/>
-      <c r="AV4" s="183"/>
-      <c r="AW4" s="181"/>
-      <c r="AX4" s="182"/>
-      <c r="AY4" s="182"/>
-      <c r="AZ4" s="183"/>
-      <c r="BA4" s="181"/>
-      <c r="BB4" s="182"/>
-      <c r="BC4" s="182"/>
-      <c r="BD4" s="183"/>
-      <c r="BE4" s="181"/>
-      <c r="BF4" s="182"/>
-      <c r="BG4" s="182"/>
-      <c r="BH4" s="183"/>
-      <c r="BI4" s="181"/>
-      <c r="BJ4" s="182"/>
-      <c r="BK4" s="182"/>
-      <c r="BL4" s="183"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="185"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="183"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="185"/>
+      <c r="AK4" s="183"/>
+      <c r="AL4" s="184"/>
+      <c r="AM4" s="184"/>
+      <c r="AN4" s="185"/>
+      <c r="AO4" s="183"/>
+      <c r="AP4" s="184"/>
+      <c r="AQ4" s="184"/>
+      <c r="AR4" s="185"/>
+      <c r="AS4" s="183"/>
+      <c r="AT4" s="184"/>
+      <c r="AU4" s="184"/>
+      <c r="AV4" s="185"/>
+      <c r="AW4" s="183"/>
+      <c r="AX4" s="184"/>
+      <c r="AY4" s="184"/>
+      <c r="AZ4" s="185"/>
+      <c r="BA4" s="183"/>
+      <c r="BB4" s="184"/>
+      <c r="BC4" s="184"/>
+      <c r="BD4" s="185"/>
+      <c r="BE4" s="183"/>
+      <c r="BF4" s="184"/>
+      <c r="BG4" s="184"/>
+      <c r="BH4" s="185"/>
+      <c r="BI4" s="183"/>
+      <c r="BJ4" s="184"/>
+      <c r="BK4" s="184"/>
+      <c r="BL4" s="185"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3945,7 +3945,7 @@
       <c r="BL5" s="22"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="199"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="195" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4089,7 +4089,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="177"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="195" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4244,7 +4244,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="177"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="195" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4398,7 +4398,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="193"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="197" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4542,7 +4542,7 @@
       <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B14" s="199"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="195" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4688,7 +4688,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="177"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="195" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4838,7 +4838,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="177"/>
+      <c r="B18" s="196"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="195" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4986,7 +4986,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="177"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5058,7 +5058,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="195" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5132,7 +5132,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="177"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="195" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5278,7 +5278,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="193"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="194" t="s">
+      <c r="B25" s="197" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5424,7 +5424,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="195"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="194" t="s">
+      <c r="B27" s="197" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5568,13 +5568,13 @@
       <c r="BL27" s="22"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B28" s="199"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>14.25</v>
+        <v>17.25</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5638,7 +5638,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="195" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5714,7 +5714,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="177"/>
+      <c r="B30" s="196"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="195" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5864,7 +5864,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="177"/>
+      <c r="B32" s="196"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="195" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6016,7 +6016,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="177"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6043,7 +6043,7 @@
       <c r="U34" s="146">
         <v>2</v>
       </c>
-      <c r="V34" s="217">
+      <c r="V34" s="176">
         <v>1</v>
       </c>
       <c r="W34" s="140">
@@ -6094,7 +6094,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="195" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6168,7 +6168,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="177"/>
+      <c r="B36" s="196"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="S36" s="69"/>
       <c r="T36" s="70"/>
       <c r="U36" s="32"/>
-      <c r="V36" s="217">
+      <c r="V36" s="176">
         <v>1</v>
       </c>
       <c r="W36" s="140">
@@ -6242,7 +6242,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="195" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6316,7 +6316,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="177"/>
+      <c r="B38" s="196"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="195" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6468,13 +6468,13 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="71"/>
       <c r="F40" s="69"/>
@@ -6496,8 +6496,12 @@
       <c r="V40" s="91"/>
       <c r="W40" s="16"/>
       <c r="X40" s="17"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="16"/>
+      <c r="Y40" s="32">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>1</v>
+      </c>
       <c r="AA40" s="16"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="85"/>
@@ -6538,7 +6542,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="195" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6618,7 +6622,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="177"/>
+      <c r="B42" s="196"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6688,7 +6692,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="195" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6768,7 +6772,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="177"/>
+      <c r="B44" s="196"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6838,7 +6842,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="195" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6914,7 +6918,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="177"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6984,7 +6988,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="195" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7064,7 +7068,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="177"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7134,7 +7138,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="194" t="s">
+      <c r="B49" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7210,7 +7214,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="195"/>
+      <c r="B50" s="198"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7280,7 +7284,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="194" t="s">
+      <c r="B51" s="197" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7356,7 +7360,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="195"/>
+      <c r="B52" s="198"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7426,7 +7430,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="194" t="s">
+      <c r="B53" s="197" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7502,7 +7506,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="195"/>
+      <c r="B54" s="198"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7576,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="194" t="s">
+      <c r="B55" s="197" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7670,7 +7674,7 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="195"/>
+      <c r="B56" s="198"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
@@ -7750,7 +7754,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="215" t="s">
+      <c r="B57" s="199" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7817,7 +7821,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="216"/>
+      <c r="B58" s="200"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7882,11 +7886,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="210"/>
-      <c r="D59" s="211"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="191"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7949,9 +7953,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="212"/>
-      <c r="C60" s="213"/>
-      <c r="D60" s="214"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="193"/>
+      <c r="D60" s="194"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -8014,11 +8018,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="209" t="s">
+      <c r="B61" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="210"/>
-      <c r="D61" s="211"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="191"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8081,9 +8085,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="212"/>
-      <c r="C62" s="213"/>
-      <c r="D62" s="214"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="194"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8146,11 +8150,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="209" t="s">
+      <c r="B63" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="210"/>
-      <c r="D63" s="211"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="191"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8213,9 +8217,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="212"/>
-      <c r="C64" s="213"/>
-      <c r="D64" s="214"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="193"/>
+      <c r="D64" s="194"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8278,11 +8282,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="209" t="s">
+      <c r="B65" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="210"/>
-      <c r="D65" s="211"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="191"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8345,9 +8349,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="212"/>
-      <c r="C66" s="213"/>
-      <c r="D66" s="214"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="193"/>
+      <c r="D66" s="194"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8361,11 +8365,11 @@
       <c r="O66" s="30"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="137"/>
-      <c r="R66" s="218"/>
+      <c r="R66" s="177"/>
       <c r="S66" s="142"/>
       <c r="T66" s="164"/>
       <c r="U66" s="137"/>
-      <c r="V66" s="218"/>
+      <c r="V66" s="177"/>
       <c r="W66" s="18"/>
       <c r="X66" s="19"/>
       <c r="Y66" s="35"/>
@@ -8410,11 +8414,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="210"/>
-      <c r="D67" s="211"/>
+      <c r="C67" s="190"/>
+      <c r="D67" s="191"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8477,9 +8481,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="212"/>
-      <c r="C68" s="213"/>
-      <c r="D68" s="214"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="193"/>
+      <c r="D68" s="194"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8542,11 +8546,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="209" t="s">
+      <c r="B69" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="210"/>
-      <c r="D69" s="211"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8609,9 +8613,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="212"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="214"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="193"/>
+      <c r="D70" s="194"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8674,11 +8678,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="209" t="s">
+      <c r="B71" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="210"/>
-      <c r="D71" s="211"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="191"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8741,9 +8745,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="212"/>
-      <c r="C72" s="213"/>
-      <c r="D72" s="214"/>
+      <c r="B72" s="192"/>
+      <c r="C72" s="193"/>
+      <c r="D72" s="194"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8824,55 +8828,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="189" t="s">
+      <c r="E74" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="190"/>
-      <c r="G74" s="190"/>
+      <c r="F74" s="216"/>
+      <c r="G74" s="216"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="189" t="s">
+      <c r="I74" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="190"/>
-      <c r="K74" s="190"/>
+      <c r="J74" s="216"/>
+      <c r="K74" s="216"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="191" t="s">
+      <c r="M74" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="192"/>
-      <c r="O74" s="192"/>
+      <c r="N74" s="218"/>
+      <c r="O74" s="218"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="184" t="s">
+      <c r="Q74" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="185"/>
-      <c r="S74" s="185"/>
-      <c r="T74" s="185"/>
+      <c r="R74" s="213"/>
+      <c r="S74" s="213"/>
+      <c r="T74" s="213"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="185" t="s">
+      <c r="W74" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="185"/>
-      <c r="Y74" s="185"/>
+      <c r="X74" s="213"/>
+      <c r="Y74" s="213"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="186" t="s">
+      <c r="AA74" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="AB74" s="187"/>
-      <c r="AC74" s="187"/>
-      <c r="AD74" s="187"/>
-      <c r="AE74" s="187"/>
-      <c r="AF74" s="187"/>
-      <c r="AG74" s="188"/>
-      <c r="AH74" s="186" t="s">
+      <c r="AB74" s="179"/>
+      <c r="AC74" s="179"/>
+      <c r="AD74" s="179"/>
+      <c r="AE74" s="179"/>
+      <c r="AF74" s="179"/>
+      <c r="AG74" s="214"/>
+      <c r="AH74" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="AI74" s="187"/>
-      <c r="AJ74" s="187"/>
-      <c r="AK74" s="187"/>
-      <c r="AL74" s="187"/>
-      <c r="AM74" s="187"/>
+      <c r="AI74" s="179"/>
+      <c r="AJ74" s="179"/>
+      <c r="AK74" s="179"/>
+      <c r="AL74" s="179"/>
+      <c r="AM74" s="179"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8901,37 +8905,22 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="BA3:BD4"/>
+    <mergeCell ref="AA74:AG74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -8948,22 +8937,37 @@
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AS3:AV4"/>
     <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="BA3:BD4"/>
-    <mergeCell ref="AA74:AG74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9271,21 +9275,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9399,10 +9388,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9423,17 +9435,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC86949C-0136-4781-A888-331CCCBF31B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11845905-5043-4DF5-BDCB-52569C8BD00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8085" yWindow="-18150" windowWidth="22110" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3592,8 +3592,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>17.25</v>
+        <v>21.75</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -6496,10 +6496,10 @@
       <c r="V40" s="91"/>
       <c r="W40" s="16"/>
       <c r="X40" s="17"/>
-      <c r="Y40" s="32">
+      <c r="Y40" s="146">
         <v>2</v>
       </c>
-      <c r="Z40" s="16">
+      <c r="Z40" s="140">
         <v>1</v>
       </c>
       <c r="AA40" s="16"/>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="D42" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E42" s="71"/>
       <c r="F42" s="69"/>
@@ -6651,9 +6651,15 @@
       <c r="W42" s="16"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="32"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="17"/>
+      <c r="Z42" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="AA42" s="140">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="163">
+        <v>2</v>
+      </c>
       <c r="AC42" s="85"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="16"/>
@@ -7680,7 +7686,7 @@
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7713,7 +7719,9 @@
         <v>1.25</v>
       </c>
       <c r="Y56" s="107"/>
-      <c r="Z56" s="107"/>
+      <c r="Z56" s="107">
+        <v>0.5</v>
+      </c>
       <c r="AA56" s="107"/>
       <c r="AB56" s="19"/>
       <c r="AC56" s="29"/>

--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11845905-5043-4DF5-BDCB-52569C8BD00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F99636-2DAF-46CE-A176-9F20F5E54115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8085" yWindow="-18150" windowWidth="22110" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1103,11 +1103,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1127,6 +1127,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,47 +1172,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1205,27 +1202,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3592,8 +3593,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE42" sqref="AE42:AF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,86 +3635,86 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="186" t="s">
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="186" t="s">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="187"/>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="187"/>
-      <c r="AK2" s="187"/>
-      <c r="AL2" s="187"/>
-      <c r="AM2" s="187"/>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="186" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="199"/>
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="200"/>
+      <c r="AO2" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="187"/>
-      <c r="AQ2" s="187"/>
-      <c r="AR2" s="187"/>
-      <c r="AS2" s="187"/>
-      <c r="AT2" s="187"/>
-      <c r="AU2" s="187"/>
-      <c r="AV2" s="187"/>
-      <c r="AW2" s="187"/>
-      <c r="AX2" s="187"/>
-      <c r="AY2" s="187"/>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="187"/>
-      <c r="BH2" s="188"/>
-      <c r="BI2" s="186" t="s">
+      <c r="AP2" s="199"/>
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="199"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="199"/>
+      <c r="BB2" s="199"/>
+      <c r="BC2" s="199"/>
+      <c r="BD2" s="199"/>
+      <c r="BE2" s="199"/>
+      <c r="BF2" s="199"/>
+      <c r="BG2" s="199"/>
+      <c r="BH2" s="200"/>
+      <c r="BI2" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="187"/>
-      <c r="BK2" s="187"/>
-      <c r="BL2" s="188"/>
+      <c r="BJ2" s="199"/>
+      <c r="BK2" s="199"/>
+      <c r="BL2" s="200"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="210" t="s">
+      <c r="C3" s="206"/>
+      <c r="D3" s="209" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="180" t="s">
@@ -3808,9 +3809,9 @@
       <c r="BL3" s="182"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="211"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="183"/>
       <c r="F4" s="184"/>
       <c r="G4" s="184"/>
@@ -3873,7 +3874,7 @@
       <c r="BL4" s="185"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="196" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -4015,7 +4016,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="178" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4089,7 +4090,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="196"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4171,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="178" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4244,7 +4245,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="196"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4324,7 +4325,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="178" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4398,7 +4399,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="202"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4471,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="196" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4612,7 +4613,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="178" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4688,7 +4689,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="196"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4763,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="178" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4838,7 +4839,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="196"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4912,7 +4913,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="178" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4986,7 +4987,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="196"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5058,7 +5059,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="178" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5132,7 +5133,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="196"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5204,7 +5205,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="178" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5278,7 +5279,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="202"/>
+      <c r="B24" s="195"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="196" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5424,7 +5425,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="198"/>
+      <c r="B26" s="197"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5496,7 +5497,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="197" t="s">
+      <c r="B27" s="196" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5574,7 +5575,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>21.75</v>
+        <v>25.25</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5638,7 +5639,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="178" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5714,7 +5715,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="196"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5788,7 +5789,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="195" t="s">
+      <c r="B31" s="178" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5864,7 +5865,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="196"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +5941,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="195" t="s">
+      <c r="B33" s="178" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6016,7 +6017,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="196"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6094,7 +6095,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="178" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6168,7 +6169,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="196"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6242,7 +6243,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="178" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6316,7 +6317,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="196"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6388,7 +6389,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="195" t="s">
+      <c r="B39" s="178" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6468,7 +6469,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="196"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6542,7 +6543,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="178" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6622,13 +6623,13 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="196"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="88">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E42" s="71"/>
       <c r="F42" s="69"/>
@@ -6662,8 +6663,12 @@
       </c>
       <c r="AC42" s="85"/>
       <c r="AD42" s="24"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="17"/>
+      <c r="AE42" s="140">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="163">
+        <v>1.5</v>
+      </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
@@ -6698,7 +6703,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="178" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6778,7 +6783,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="196"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6848,7 +6853,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="195" t="s">
+      <c r="B45" s="178" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6924,7 +6929,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="196"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6994,7 +6999,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="195" t="s">
+      <c r="B47" s="178" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7074,7 +7079,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="196"/>
+      <c r="B48" s="179"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7144,7 +7149,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="197" t="s">
+      <c r="B49" s="196" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7220,7 +7225,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="198"/>
+      <c r="B50" s="197"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7290,7 +7295,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="197" t="s">
+      <c r="B51" s="196" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7366,7 +7371,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="198"/>
+      <c r="B52" s="197"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7436,7 +7441,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="197" t="s">
+      <c r="B53" s="196" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7512,7 +7517,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="198"/>
+      <c r="B54" s="197"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7582,7 +7587,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="197" t="s">
+      <c r="B55" s="196" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7680,13 +7685,13 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="198"/>
+      <c r="B56" s="197"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7719,7 +7724,7 @@
         <v>1.25</v>
       </c>
       <c r="Y56" s="107"/>
-      <c r="Z56" s="107">
+      <c r="Z56" s="219">
         <v>0.5</v>
       </c>
       <c r="AA56" s="107"/>
@@ -7727,7 +7732,9 @@
       <c r="AC56" s="29"/>
       <c r="AD56" s="30"/>
       <c r="AE56" s="107"/>
-      <c r="AF56" s="19"/>
+      <c r="AF56" s="164">
+        <v>0.5</v>
+      </c>
       <c r="AG56" s="26"/>
       <c r="AH56" s="27"/>
       <c r="AI56" s="27"/>
@@ -7762,7 +7769,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="199" t="s">
+      <c r="B57" s="217" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7829,7 +7836,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="200"/>
+      <c r="B58" s="218"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7894,11 +7901,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="189" t="s">
+      <c r="B59" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="190"/>
-      <c r="D59" s="191"/>
+      <c r="C59" s="212"/>
+      <c r="D59" s="213"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7961,9 +7968,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="192"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="194"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="216"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -8026,11 +8033,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="189" t="s">
+      <c r="B61" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="190"/>
-      <c r="D61" s="191"/>
+      <c r="C61" s="212"/>
+      <c r="D61" s="213"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8093,9 +8100,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="192"/>
-      <c r="C62" s="193"/>
-      <c r="D62" s="194"/>
+      <c r="B62" s="214"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="216"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8158,11 +8165,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="189" t="s">
+      <c r="B63" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="190"/>
-      <c r="D63" s="191"/>
+      <c r="C63" s="212"/>
+      <c r="D63" s="213"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8225,9 +8232,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="192"/>
-      <c r="C64" s="193"/>
-      <c r="D64" s="194"/>
+      <c r="B64" s="214"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="216"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8290,11 +8297,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="189" t="s">
+      <c r="B65" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="190"/>
-      <c r="D65" s="191"/>
+      <c r="C65" s="212"/>
+      <c r="D65" s="213"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8357,9 +8364,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="192"/>
-      <c r="C66" s="193"/>
-      <c r="D66" s="194"/>
+      <c r="B66" s="214"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="216"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8422,11 +8429,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="189" t="s">
+      <c r="B67" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="190"/>
-      <c r="D67" s="191"/>
+      <c r="C67" s="212"/>
+      <c r="D67" s="213"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8489,9 +8496,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="192"/>
-      <c r="C68" s="193"/>
-      <c r="D68" s="194"/>
+      <c r="B68" s="214"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="216"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8554,11 +8561,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="189" t="s">
+      <c r="B69" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="190"/>
-      <c r="D69" s="191"/>
+      <c r="C69" s="212"/>
+      <c r="D69" s="213"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8621,9 +8628,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="192"/>
-      <c r="C70" s="193"/>
-      <c r="D70" s="194"/>
+      <c r="B70" s="214"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="216"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8686,11 +8693,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="189" t="s">
+      <c r="B71" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="190"/>
-      <c r="D71" s="191"/>
+      <c r="C71" s="212"/>
+      <c r="D71" s="213"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8753,9 +8760,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="192"/>
-      <c r="C72" s="193"/>
-      <c r="D72" s="194"/>
+      <c r="B72" s="214"/>
+      <c r="C72" s="215"/>
+      <c r="D72" s="216"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8836,55 +8843,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="215" t="s">
+      <c r="E74" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="216"/>
-      <c r="G74" s="216"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="192"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="215" t="s">
+      <c r="I74" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="216"/>
-      <c r="K74" s="216"/>
+      <c r="J74" s="192"/>
+      <c r="K74" s="192"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="217" t="s">
+      <c r="M74" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="218"/>
-      <c r="O74" s="218"/>
+      <c r="N74" s="194"/>
+      <c r="O74" s="194"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="212" t="s">
+      <c r="Q74" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="213"/>
-      <c r="S74" s="213"/>
-      <c r="T74" s="213"/>
+      <c r="R74" s="187"/>
+      <c r="S74" s="187"/>
+      <c r="T74" s="187"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="213" t="s">
+      <c r="W74" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="213"/>
-      <c r="Y74" s="213"/>
+      <c r="X74" s="187"/>
+      <c r="Y74" s="187"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="178" t="s">
+      <c r="AA74" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="AB74" s="179"/>
-      <c r="AC74" s="179"/>
-      <c r="AD74" s="179"/>
-      <c r="AE74" s="179"/>
-      <c r="AF74" s="179"/>
-      <c r="AG74" s="214"/>
-      <c r="AH74" s="178" t="s">
+      <c r="AB74" s="189"/>
+      <c r="AC74" s="189"/>
+      <c r="AD74" s="189"/>
+      <c r="AE74" s="189"/>
+      <c r="AF74" s="189"/>
+      <c r="AG74" s="190"/>
+      <c r="AH74" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="AI74" s="179"/>
-      <c r="AJ74" s="179"/>
-      <c r="AK74" s="179"/>
-      <c r="AL74" s="179"/>
-      <c r="AM74" s="179"/>
+      <c r="AI74" s="189"/>
+      <c r="AJ74" s="189"/>
+      <c r="AK74" s="189"/>
+      <c r="AL74" s="189"/>
+      <c r="AM74" s="189"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8913,6 +8920,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="BI3:BL4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="E2:T2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="U3:X4"/>
@@ -8929,53 +8983,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="BI3:BL4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9283,6 +9290,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9396,33 +9418,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9443,9 +9442,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F99636-2DAF-46CE-A176-9F20F5E54115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3431FF01-515C-4468-927C-FD2C34C9F764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,11 +1103,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1127,42 +1128,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,8 +1137,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1202,31 +1206,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3594,7 +3594,7 @@
   <dimension ref="B1:BV74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE42" sqref="AE42:AF42"/>
+      <selection activeCell="AM44" sqref="AM44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,246 +3635,246 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="198" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="198" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="200"/>
-      <c r="AO2" s="198" t="s">
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="189"/>
+      <c r="AO2" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="199"/>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="199"/>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="199"/>
-      <c r="BB2" s="199"/>
-      <c r="BC2" s="199"/>
-      <c r="BD2" s="199"/>
-      <c r="BE2" s="199"/>
-      <c r="BF2" s="199"/>
-      <c r="BG2" s="199"/>
-      <c r="BH2" s="200"/>
-      <c r="BI2" s="198" t="s">
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="188"/>
+      <c r="BA2" s="188"/>
+      <c r="BB2" s="188"/>
+      <c r="BC2" s="188"/>
+      <c r="BD2" s="188"/>
+      <c r="BE2" s="188"/>
+      <c r="BF2" s="188"/>
+      <c r="BG2" s="188"/>
+      <c r="BH2" s="189"/>
+      <c r="BI2" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="199"/>
-      <c r="BK2" s="199"/>
-      <c r="BL2" s="200"/>
+      <c r="BJ2" s="188"/>
+      <c r="BK2" s="188"/>
+      <c r="BL2" s="189"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="209" t="s">
+      <c r="C3" s="208"/>
+      <c r="D3" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="180" t="s">
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="180" t="s">
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="180" t="s">
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="180" t="s">
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="180" t="s">
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="180" t="s">
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="180" t="s">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="180" t="s">
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="182"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="181"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="180" t="s">
+      <c r="AL3" s="182"/>
+      <c r="AM3" s="182"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="181"/>
-      <c r="AQ3" s="181"/>
-      <c r="AR3" s="182"/>
-      <c r="AS3" s="180" t="s">
+      <c r="AP3" s="182"/>
+      <c r="AQ3" s="182"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="181"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="180" t="s">
+      <c r="AT3" s="182"/>
+      <c r="AU3" s="182"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="182"/>
-      <c r="BA3" s="180" t="s">
+      <c r="AX3" s="182"/>
+      <c r="AY3" s="182"/>
+      <c r="AZ3" s="183"/>
+      <c r="BA3" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="BB3" s="181"/>
-      <c r="BC3" s="181"/>
-      <c r="BD3" s="182"/>
-      <c r="BE3" s="180" t="s">
+      <c r="BB3" s="182"/>
+      <c r="BC3" s="182"/>
+      <c r="BD3" s="183"/>
+      <c r="BE3" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" s="181"/>
-      <c r="BG3" s="181"/>
-      <c r="BH3" s="182"/>
-      <c r="BI3" s="180" t="s">
+      <c r="BF3" s="182"/>
+      <c r="BG3" s="182"/>
+      <c r="BH3" s="183"/>
+      <c r="BI3" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="181"/>
-      <c r="BK3" s="181"/>
-      <c r="BL3" s="182"/>
+      <c r="BJ3" s="182"/>
+      <c r="BK3" s="182"/>
+      <c r="BL3" s="183"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="184"/>
-      <c r="X4" s="185"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="185"/>
-      <c r="AC4" s="183"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="184"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="183"/>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="183"/>
-      <c r="AL4" s="184"/>
-      <c r="AM4" s="184"/>
-      <c r="AN4" s="185"/>
-      <c r="AO4" s="183"/>
-      <c r="AP4" s="184"/>
-      <c r="AQ4" s="184"/>
-      <c r="AR4" s="185"/>
-      <c r="AS4" s="183"/>
-      <c r="AT4" s="184"/>
-      <c r="AU4" s="184"/>
-      <c r="AV4" s="185"/>
-      <c r="AW4" s="183"/>
-      <c r="AX4" s="184"/>
-      <c r="AY4" s="184"/>
-      <c r="AZ4" s="185"/>
-      <c r="BA4" s="183"/>
-      <c r="BB4" s="184"/>
-      <c r="BC4" s="184"/>
-      <c r="BD4" s="185"/>
-      <c r="BE4" s="183"/>
-      <c r="BF4" s="184"/>
-      <c r="BG4" s="184"/>
-      <c r="BH4" s="185"/>
-      <c r="BI4" s="183"/>
-      <c r="BJ4" s="184"/>
-      <c r="BK4" s="184"/>
-      <c r="BL4" s="185"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="184"/>
+      <c r="AH4" s="185"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="184"/>
+      <c r="AL4" s="185"/>
+      <c r="AM4" s="185"/>
+      <c r="AN4" s="186"/>
+      <c r="AO4" s="184"/>
+      <c r="AP4" s="185"/>
+      <c r="AQ4" s="185"/>
+      <c r="AR4" s="186"/>
+      <c r="AS4" s="184"/>
+      <c r="AT4" s="185"/>
+      <c r="AU4" s="185"/>
+      <c r="AV4" s="186"/>
+      <c r="AW4" s="184"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="185"/>
+      <c r="AZ4" s="186"/>
+      <c r="BA4" s="184"/>
+      <c r="BB4" s="185"/>
+      <c r="BC4" s="185"/>
+      <c r="BD4" s="186"/>
+      <c r="BE4" s="184"/>
+      <c r="BF4" s="185"/>
+      <c r="BG4" s="185"/>
+      <c r="BH4" s="186"/>
+      <c r="BI4" s="184"/>
+      <c r="BJ4" s="185"/>
+      <c r="BK4" s="185"/>
+      <c r="BL4" s="186"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="198" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3946,7 +3946,7 @@
       <c r="BL5" s="22"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="201"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="196" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4090,7 +4090,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="179"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="196" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4245,7 +4245,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="179"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4325,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="196" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4399,7 +4399,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="195"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="198" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4543,7 +4543,7 @@
       <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B14" s="201"/>
+      <c r="B14" s="202"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="196" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4689,7 +4689,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="179"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="196" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4839,7 +4839,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="179"/>
+      <c r="B18" s="197"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="196" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4987,7 +4987,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="179"/>
+      <c r="B20" s="197"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="196" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5133,7 +5133,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="179"/>
+      <c r="B22" s="197"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="196" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5279,7 +5279,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="195"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="196" t="s">
+      <c r="B25" s="198" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5425,7 +5425,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="197"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="196" t="s">
+      <c r="B27" s="198" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5569,13 +5569,13 @@
       <c r="BL27" s="22"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B28" s="201"/>
+      <c r="B28" s="202"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>25.25</v>
+        <v>29.25</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5639,7 +5639,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="196" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5715,7 +5715,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="179"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="196" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5865,7 +5865,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="179"/>
+      <c r="B32" s="197"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="196" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6017,7 +6017,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="179"/>
+      <c r="B34" s="197"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="196" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6169,7 +6169,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="179"/>
+      <c r="B36" s="197"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="178" t="s">
+      <c r="B37" s="196" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6317,7 +6317,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="179"/>
+      <c r="B38" s="197"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="196" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6469,7 +6469,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="179"/>
+      <c r="B40" s="197"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="196" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6623,13 +6623,13 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="179"/>
+      <c r="B42" s="197"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="88">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="E42" s="71"/>
       <c r="F42" s="69"/>
@@ -6673,8 +6673,12 @@
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
       <c r="AJ42" s="25"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="69"/>
+      <c r="AK42" s="71">
+        <v>2</v>
+      </c>
+      <c r="AL42" s="69">
+        <v>0.5</v>
+      </c>
       <c r="AM42" s="69"/>
       <c r="AN42" s="70"/>
       <c r="AO42" s="32"/>
@@ -6703,7 +6707,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="196" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6783,13 +6787,13 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="179"/>
+      <c r="B44" s="197"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="71"/>
       <c r="F44" s="69"/>
@@ -6824,7 +6828,9 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="25"/>
       <c r="AK44" s="71"/>
-      <c r="AL44" s="69"/>
+      <c r="AL44" s="69">
+        <v>1.5</v>
+      </c>
       <c r="AM44" s="69"/>
       <c r="AN44" s="70"/>
       <c r="AO44" s="32"/>
@@ -6853,7 +6859,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="196" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6929,7 +6935,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="179"/>
+      <c r="B46" s="197"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6999,7 +7005,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="178" t="s">
+      <c r="B47" s="196" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7079,7 +7085,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="179"/>
+      <c r="B48" s="197"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7149,7 +7155,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="198" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7225,7 +7231,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="197"/>
+      <c r="B50" s="199"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7295,7 +7301,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="196" t="s">
+      <c r="B51" s="198" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7371,7 +7377,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="197"/>
+      <c r="B52" s="199"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7441,7 +7447,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="196" t="s">
+      <c r="B53" s="198" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7517,7 +7523,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="197"/>
+      <c r="B54" s="199"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7587,7 +7593,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="196" t="s">
+      <c r="B55" s="198" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7685,7 +7691,7 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="197"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>1.25</v>
       </c>
       <c r="Y56" s="107"/>
-      <c r="Z56" s="219">
+      <c r="Z56" s="178">
         <v>0.5</v>
       </c>
       <c r="AA56" s="107"/>
@@ -7769,7 +7775,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="217" t="s">
+      <c r="B57" s="200" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7836,7 +7842,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="218"/>
+      <c r="B58" s="201"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7901,11 +7907,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="211" t="s">
+      <c r="B59" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="212"/>
-      <c r="D59" s="213"/>
+      <c r="C59" s="191"/>
+      <c r="D59" s="192"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7968,9 +7974,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="214"/>
-      <c r="C60" s="215"/>
-      <c r="D60" s="216"/>
+      <c r="B60" s="193"/>
+      <c r="C60" s="194"/>
+      <c r="D60" s="195"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -8033,11 +8039,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="211" t="s">
+      <c r="B61" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="212"/>
-      <c r="D61" s="213"/>
+      <c r="C61" s="191"/>
+      <c r="D61" s="192"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8100,9 +8106,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="214"/>
-      <c r="C62" s="215"/>
-      <c r="D62" s="216"/>
+      <c r="B62" s="193"/>
+      <c r="C62" s="194"/>
+      <c r="D62" s="195"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8165,11 +8171,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="211" t="s">
+      <c r="B63" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="212"/>
-      <c r="D63" s="213"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="192"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8232,9 +8238,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="214"/>
-      <c r="C64" s="215"/>
-      <c r="D64" s="216"/>
+      <c r="B64" s="193"/>
+      <c r="C64" s="194"/>
+      <c r="D64" s="195"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8297,11 +8303,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="211" t="s">
+      <c r="B65" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="212"/>
-      <c r="D65" s="213"/>
+      <c r="C65" s="191"/>
+      <c r="D65" s="192"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8364,9 +8370,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="214"/>
-      <c r="C66" s="215"/>
-      <c r="D66" s="216"/>
+      <c r="B66" s="193"/>
+      <c r="C66" s="194"/>
+      <c r="D66" s="195"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8429,11 +8435,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="211" t="s">
+      <c r="B67" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="212"/>
-      <c r="D67" s="213"/>
+      <c r="C67" s="191"/>
+      <c r="D67" s="192"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8496,9 +8502,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="214"/>
-      <c r="C68" s="215"/>
-      <c r="D68" s="216"/>
+      <c r="B68" s="193"/>
+      <c r="C68" s="194"/>
+      <c r="D68" s="195"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8561,11 +8567,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="212"/>
-      <c r="D69" s="213"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="192"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8628,9 +8634,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="214"/>
-      <c r="C70" s="215"/>
-      <c r="D70" s="216"/>
+      <c r="B70" s="193"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="195"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8693,11 +8699,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="211" t="s">
+      <c r="B71" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="212"/>
-      <c r="D71" s="213"/>
+      <c r="C71" s="191"/>
+      <c r="D71" s="192"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8760,9 +8766,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="214"/>
-      <c r="C72" s="215"/>
-      <c r="D72" s="216"/>
+      <c r="B72" s="193"/>
+      <c r="C72" s="194"/>
+      <c r="D72" s="195"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8843,55 +8849,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="191" t="s">
+      <c r="E74" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="192"/>
-      <c r="G74" s="192"/>
+      <c r="F74" s="217"/>
+      <c r="G74" s="217"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="191" t="s">
+      <c r="I74" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="192"/>
-      <c r="K74" s="192"/>
+      <c r="J74" s="217"/>
+      <c r="K74" s="217"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="193" t="s">
+      <c r="M74" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="194"/>
-      <c r="O74" s="194"/>
+      <c r="N74" s="219"/>
+      <c r="O74" s="219"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="186" t="s">
+      <c r="Q74" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="187"/>
-      <c r="S74" s="187"/>
-      <c r="T74" s="187"/>
+      <c r="R74" s="214"/>
+      <c r="S74" s="214"/>
+      <c r="T74" s="214"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="187" t="s">
+      <c r="W74" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="187"/>
-      <c r="Y74" s="187"/>
+      <c r="X74" s="214"/>
+      <c r="Y74" s="214"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="188" t="s">
+      <c r="AA74" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="AB74" s="189"/>
-      <c r="AC74" s="189"/>
-      <c r="AD74" s="189"/>
-      <c r="AE74" s="189"/>
-      <c r="AF74" s="189"/>
-      <c r="AG74" s="190"/>
-      <c r="AH74" s="188" t="s">
+      <c r="AB74" s="180"/>
+      <c r="AC74" s="180"/>
+      <c r="AD74" s="180"/>
+      <c r="AE74" s="180"/>
+      <c r="AF74" s="180"/>
+      <c r="AG74" s="215"/>
+      <c r="AH74" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="AI74" s="189"/>
-      <c r="AJ74" s="189"/>
-      <c r="AK74" s="189"/>
-      <c r="AL74" s="189"/>
-      <c r="AM74" s="189"/>
+      <c r="AI74" s="180"/>
+      <c r="AJ74" s="180"/>
+      <c r="AK74" s="180"/>
+      <c r="AL74" s="180"/>
+      <c r="AM74" s="180"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8920,37 +8926,22 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="BA3:BD4"/>
+    <mergeCell ref="AA74:AG74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -8967,22 +8958,37 @@
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AS3:AV4"/>
     <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="BA3:BD4"/>
-    <mergeCell ref="AA74:AG74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9290,21 +9296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9418,10 +9409,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9442,17 +9456,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3431FF01-515C-4468-927C-FD2C34C9F764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201A763-D4DD-4E98-BCED-EE37F34133B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Fehlerbehandlung</t>
   </si>
   <si>
-    <t>Dienstag (04.03.2025)</t>
-  </si>
-  <si>
     <t>Mittwoch (05.03.2025)</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>1 Arbeitstag = 8,3h</t>
+  </si>
+  <si>
+    <t>Dienstag   (04.03.2025)</t>
   </si>
 </sst>
 </file>
@@ -3593,8 +3593,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM44" sqref="AM44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR21" sqref="BR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3615,7 @@
     <col min="21" max="23" width="4.28515625" customWidth="1"/>
     <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="4.28515625" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="4.28515625" customWidth="1"/>
     <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="4.28515625" customWidth="1"/>
@@ -3641,7 +3641,7 @@
       <c r="C2" s="205"/>
       <c r="D2" s="206"/>
       <c r="E2" s="187" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="188"/>
       <c r="G2" s="188"/>
@@ -3659,7 +3659,7 @@
       <c r="S2" s="188"/>
       <c r="T2" s="189"/>
       <c r="U2" s="187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" s="188"/>
       <c r="W2" s="188"/>
@@ -3681,7 +3681,7 @@
       <c r="AM2" s="188"/>
       <c r="AN2" s="189"/>
       <c r="AO2" s="187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP2" s="188"/>
       <c r="AQ2" s="188"/>
@@ -3703,7 +3703,7 @@
       <c r="BG2" s="188"/>
       <c r="BH2" s="189"/>
       <c r="BI2" s="187" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BJ2" s="188"/>
       <c r="BK2" s="188"/>
@@ -3718,91 +3718,91 @@
         <v>17</v>
       </c>
       <c r="E3" s="181" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F3" s="182"/>
       <c r="G3" s="182"/>
       <c r="H3" s="183"/>
       <c r="I3" s="181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="182"/>
       <c r="K3" s="182"/>
       <c r="L3" s="183"/>
       <c r="M3" s="181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="182"/>
       <c r="O3" s="182"/>
       <c r="P3" s="183"/>
       <c r="Q3" s="181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R3" s="182"/>
       <c r="S3" s="182"/>
       <c r="T3" s="183"/>
       <c r="U3" s="181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" s="182"/>
       <c r="W3" s="182"/>
       <c r="X3" s="183"/>
       <c r="Y3" s="181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z3" s="182"/>
       <c r="AA3" s="182"/>
       <c r="AB3" s="183"/>
       <c r="AC3" s="181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD3" s="182"/>
       <c r="AE3" s="182"/>
       <c r="AF3" s="183"/>
       <c r="AG3" s="181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH3" s="182"/>
       <c r="AI3" s="182"/>
       <c r="AJ3" s="183"/>
       <c r="AK3" s="181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL3" s="182"/>
       <c r="AM3" s="182"/>
       <c r="AN3" s="183"/>
       <c r="AO3" s="181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP3" s="182"/>
       <c r="AQ3" s="182"/>
       <c r="AR3" s="183"/>
       <c r="AS3" s="181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AT3" s="182"/>
       <c r="AU3" s="182"/>
       <c r="AV3" s="183"/>
       <c r="AW3" s="181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AX3" s="182"/>
       <c r="AY3" s="182"/>
       <c r="AZ3" s="183"/>
       <c r="BA3" s="181" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB3" s="182"/>
       <c r="BC3" s="182"/>
       <c r="BD3" s="183"/>
       <c r="BE3" s="181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BF3" s="182"/>
       <c r="BG3" s="182"/>
       <c r="BH3" s="183"/>
       <c r="BI3" s="181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BJ3" s="182"/>
       <c r="BK3" s="182"/>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>29.25</v>
+        <v>33.25</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -6673,10 +6673,10 @@
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
       <c r="AJ42" s="25"/>
-      <c r="AK42" s="71">
+      <c r="AK42" s="146">
         <v>2</v>
       </c>
-      <c r="AL42" s="69">
+      <c r="AL42" s="140">
         <v>0.5</v>
       </c>
       <c r="AM42" s="69"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D44" s="88">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="E44" s="71"/>
       <c r="F44" s="69"/>
@@ -6828,11 +6828,15 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="25"/>
       <c r="AK44" s="71"/>
-      <c r="AL44" s="69">
+      <c r="AL44" s="140">
         <v>1.5</v>
       </c>
-      <c r="AM44" s="69"/>
-      <c r="AN44" s="70"/>
+      <c r="AM44" s="140">
+        <v>2</v>
+      </c>
+      <c r="AN44" s="163">
+        <v>2</v>
+      </c>
       <c r="AO44" s="32"/>
       <c r="AP44" s="91"/>
       <c r="AQ44" s="16"/>
@@ -6860,7 +6864,7 @@
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B45" s="196" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -7161,7 +7165,7 @@
       <c r="C49" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="88">
+      <c r="D49" s="87">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -7697,7 +7701,7 @@
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7734,7 +7738,9 @@
         <v>0.5</v>
       </c>
       <c r="AA56" s="107"/>
-      <c r="AB56" s="19"/>
+      <c r="AB56" s="164">
+        <v>0.25</v>
+      </c>
       <c r="AC56" s="29"/>
       <c r="AD56" s="30"/>
       <c r="AE56" s="107"/>
@@ -8882,7 +8888,7 @@
       <c r="Y74" s="214"/>
       <c r="Z74" s="68"/>
       <c r="AA74" s="179" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB74" s="180"/>
       <c r="AC74" s="180"/>
@@ -8891,7 +8897,7 @@
       <c r="AF74" s="180"/>
       <c r="AG74" s="215"/>
       <c r="AH74" s="179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI74" s="180"/>
       <c r="AJ74" s="180"/>

--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201A763-D4DD-4E98-BCED-EE37F34133B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950BC8C-CDB0-4456-8AB1-6828CE8E30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3593,8 +3593,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BR21" sqref="BR21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN56" sqref="AN56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7754,7 +7754,9 @@
       <c r="AK56" s="53"/>
       <c r="AL56" s="35"/>
       <c r="AM56" s="18"/>
-      <c r="AN56" s="19"/>
+      <c r="AN56" s="164">
+        <v>0.25</v>
+      </c>
       <c r="AO56" s="109"/>
       <c r="AP56" s="131"/>
       <c r="AQ56" s="107"/>

--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950BC8C-CDB0-4456-8AB1-6828CE8E30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D5194-0BB3-4DE6-B55B-D6D18E867191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,11 +1104,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1128,6 +1128,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,47 +1173,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1206,26 +1203,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3594,7 +3594,7 @@
   <dimension ref="B1:BV74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN56" sqref="AN56"/>
+      <selection activeCell="AQ46" sqref="AQ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,86 +3635,86 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="187" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="187" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="188"/>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="188"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="188"/>
-      <c r="AN2" s="189"/>
-      <c r="AO2" s="187" t="s">
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="200"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="200"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
-      <c r="AR2" s="188"/>
-      <c r="AS2" s="188"/>
-      <c r="AT2" s="188"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="188"/>
-      <c r="BA2" s="188"/>
-      <c r="BB2" s="188"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="188"/>
-      <c r="BE2" s="188"/>
-      <c r="BF2" s="188"/>
-      <c r="BG2" s="188"/>
-      <c r="BH2" s="189"/>
-      <c r="BI2" s="187" t="s">
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="200"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="200"/>
+      <c r="AV2" s="200"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="200"/>
+      <c r="AZ2" s="200"/>
+      <c r="BA2" s="200"/>
+      <c r="BB2" s="200"/>
+      <c r="BC2" s="200"/>
+      <c r="BD2" s="200"/>
+      <c r="BE2" s="200"/>
+      <c r="BF2" s="200"/>
+      <c r="BG2" s="200"/>
+      <c r="BH2" s="201"/>
+      <c r="BI2" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="BJ2" s="188"/>
-      <c r="BK2" s="188"/>
-      <c r="BL2" s="189"/>
+      <c r="BJ2" s="200"/>
+      <c r="BK2" s="200"/>
+      <c r="BL2" s="201"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="211" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="210" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="181" t="s">
@@ -3809,9 +3809,9 @@
       <c r="BL3" s="183"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="209"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="212"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="184"/>
       <c r="F4" s="185"/>
       <c r="G4" s="185"/>
@@ -3874,7 +3874,7 @@
       <c r="BL4" s="186"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -4016,7 +4016,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="179" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4090,7 +4090,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="197"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="179" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4245,7 +4245,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="197"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4325,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="179" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4399,7 +4399,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="203"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="197" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4613,7 +4613,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="179" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4689,7 +4689,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="197"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="179" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4839,7 +4839,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="197"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="179" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4987,7 +4987,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="197"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="179" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5133,7 +5133,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="196" t="s">
+      <c r="B23" s="179" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5279,7 +5279,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="203"/>
+      <c r="B24" s="196"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="197" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5425,7 +5425,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="199"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="198" t="s">
+      <c r="B27" s="197" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>33.25</v>
+        <v>36.75</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5639,7 +5639,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="196" t="s">
+      <c r="B29" s="179" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5715,7 +5715,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="197"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="196" t="s">
+      <c r="B31" s="179" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5865,7 +5865,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="197"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="179" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6017,7 +6017,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="197"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="179" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6169,7 +6169,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="197"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="179" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6317,7 +6317,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="197"/>
+      <c r="B38" s="180"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="179" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6469,7 +6469,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="197"/>
+      <c r="B40" s="180"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="196" t="s">
+      <c r="B41" s="179" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6623,7 +6623,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="197"/>
+      <c r="B42" s="180"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="196" t="s">
+      <c r="B43" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6787,13 +6787,13 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="197"/>
+      <c r="B44" s="180"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="88">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="E44" s="71"/>
       <c r="F44" s="69"/>
@@ -6837,8 +6837,12 @@
       <c r="AN44" s="163">
         <v>2</v>
       </c>
-      <c r="AO44" s="32"/>
-      <c r="AP44" s="91"/>
+      <c r="AO44" s="32">
+        <v>2</v>
+      </c>
+      <c r="AP44" s="91">
+        <v>1.5</v>
+      </c>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="17"/>
       <c r="AS44" s="71"/>
@@ -6863,7 +6867,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="196" t="s">
+      <c r="B45" s="179" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6939,13 +6943,13 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="197"/>
+      <c r="B46" s="180"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="71"/>
       <c r="F46" s="69"/>
@@ -6985,8 +6989,12 @@
       <c r="AN46" s="70"/>
       <c r="AO46" s="32"/>
       <c r="AP46" s="91"/>
-      <c r="AQ46" s="16"/>
-      <c r="AR46" s="17"/>
+      <c r="AQ46" s="16">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="17">
+        <v>3</v>
+      </c>
       <c r="AS46" s="71"/>
       <c r="AT46" s="69"/>
       <c r="AU46" s="69"/>
@@ -7009,7 +7017,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="196" t="s">
+      <c r="B47" s="179" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7089,7 +7097,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="197"/>
+      <c r="B48" s="180"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7159,7 +7167,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="198" t="s">
+      <c r="B49" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7235,7 +7243,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="199"/>
+      <c r="B50" s="198"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7305,7 +7313,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="198" t="s">
+      <c r="B51" s="197" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7381,7 +7389,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="199"/>
+      <c r="B52" s="198"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7451,7 +7459,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="198" t="s">
+      <c r="B53" s="197" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7527,7 +7535,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="199"/>
+      <c r="B54" s="198"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7597,7 +7605,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="197" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7695,13 +7703,13 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="199"/>
+      <c r="B56" s="198"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7758,7 +7766,9 @@
         <v>0.25</v>
       </c>
       <c r="AO56" s="109"/>
-      <c r="AP56" s="131"/>
+      <c r="AP56" s="131">
+        <v>0.5</v>
+      </c>
       <c r="AQ56" s="107"/>
       <c r="AR56" s="19"/>
       <c r="AS56" s="109"/>
@@ -7783,7 +7793,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="200" t="s">
+      <c r="B57" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7850,7 +7860,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="201"/>
+      <c r="B58" s="219"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7915,11 +7925,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="190" t="s">
+      <c r="B59" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="191"/>
-      <c r="D59" s="192"/>
+      <c r="C59" s="213"/>
+      <c r="D59" s="214"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7982,9 +7992,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="193"/>
-      <c r="C60" s="194"/>
-      <c r="D60" s="195"/>
+      <c r="B60" s="215"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="217"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -8047,11 +8057,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="190" t="s">
+      <c r="B61" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="191"/>
-      <c r="D61" s="192"/>
+      <c r="C61" s="213"/>
+      <c r="D61" s="214"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8114,9 +8124,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="193"/>
-      <c r="C62" s="194"/>
-      <c r="D62" s="195"/>
+      <c r="B62" s="215"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="217"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8179,11 +8189,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="190" t="s">
+      <c r="B63" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="191"/>
-      <c r="D63" s="192"/>
+      <c r="C63" s="213"/>
+      <c r="D63" s="214"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8246,9 +8256,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="193"/>
-      <c r="C64" s="194"/>
-      <c r="D64" s="195"/>
+      <c r="B64" s="215"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="217"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8311,11 +8321,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="190" t="s">
+      <c r="B65" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="191"/>
-      <c r="D65" s="192"/>
+      <c r="C65" s="213"/>
+      <c r="D65" s="214"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8378,9 +8388,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="193"/>
-      <c r="C66" s="194"/>
-      <c r="D66" s="195"/>
+      <c r="B66" s="215"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="217"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8443,11 +8453,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="190" t="s">
+      <c r="B67" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="191"/>
-      <c r="D67" s="192"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="214"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8510,9 +8520,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="193"/>
-      <c r="C68" s="194"/>
-      <c r="D68" s="195"/>
+      <c r="B68" s="215"/>
+      <c r="C68" s="216"/>
+      <c r="D68" s="217"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8575,11 +8585,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="190" t="s">
+      <c r="B69" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="191"/>
-      <c r="D69" s="192"/>
+      <c r="C69" s="213"/>
+      <c r="D69" s="214"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8642,9 +8652,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="193"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="195"/>
+      <c r="B70" s="215"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="217"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8707,11 +8717,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="190" t="s">
+      <c r="B71" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="191"/>
-      <c r="D71" s="192"/>
+      <c r="C71" s="213"/>
+      <c r="D71" s="214"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8774,9 +8784,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="193"/>
-      <c r="C72" s="194"/>
-      <c r="D72" s="195"/>
+      <c r="B72" s="215"/>
+      <c r="C72" s="216"/>
+      <c r="D72" s="217"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8857,55 +8867,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="216" t="s">
+      <c r="E74" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="217"/>
-      <c r="G74" s="217"/>
+      <c r="F74" s="193"/>
+      <c r="G74" s="193"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="216" t="s">
+      <c r="I74" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="217"/>
-      <c r="K74" s="217"/>
+      <c r="J74" s="193"/>
+      <c r="K74" s="193"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="218" t="s">
+      <c r="M74" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="219"/>
-      <c r="O74" s="219"/>
+      <c r="N74" s="195"/>
+      <c r="O74" s="195"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="213" t="s">
+      <c r="Q74" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="214"/>
-      <c r="S74" s="214"/>
-      <c r="T74" s="214"/>
+      <c r="R74" s="188"/>
+      <c r="S74" s="188"/>
+      <c r="T74" s="188"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="214" t="s">
+      <c r="W74" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="214"/>
-      <c r="Y74" s="214"/>
+      <c r="X74" s="188"/>
+      <c r="Y74" s="188"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="179" t="s">
+      <c r="AA74" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="AB74" s="180"/>
-      <c r="AC74" s="180"/>
-      <c r="AD74" s="180"/>
-      <c r="AE74" s="180"/>
-      <c r="AF74" s="180"/>
-      <c r="AG74" s="215"/>
-      <c r="AH74" s="179" t="s">
+      <c r="AB74" s="190"/>
+      <c r="AC74" s="190"/>
+      <c r="AD74" s="190"/>
+      <c r="AE74" s="190"/>
+      <c r="AF74" s="190"/>
+      <c r="AG74" s="191"/>
+      <c r="AH74" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="AI74" s="180"/>
-      <c r="AJ74" s="180"/>
-      <c r="AK74" s="180"/>
-      <c r="AL74" s="180"/>
-      <c r="AM74" s="180"/>
+      <c r="AI74" s="190"/>
+      <c r="AJ74" s="190"/>
+      <c r="AK74" s="190"/>
+      <c r="AL74" s="190"/>
+      <c r="AM74" s="190"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8934,6 +8944,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="BI3:BL4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="E2:T2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="U3:X4"/>
@@ -8950,53 +9007,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="BI3:BL4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9304,6 +9314,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9417,33 +9442,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9464,9 +9466,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D5194-0BB3-4DE6-B55B-D6D18E867191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1ED87E-69E0-43CA-9BAE-43C3B774FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1227,6 +1227,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3593,8 +3594,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ46" sqref="AQ46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR46" sqref="AQ46:AR46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3624,7 @@
     <col min="37" max="39" width="4.28515625" customWidth="1"/>
     <col min="40" max="40" width="5.28515625" customWidth="1"/>
     <col min="41" max="43" width="4.28515625" customWidth="1"/>
-    <col min="44" max="44" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="47" width="4.28515625" customWidth="1"/>
     <col min="48" max="48" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="51" width="4.28515625" customWidth="1"/>
@@ -6837,10 +6838,10 @@
       <c r="AN44" s="163">
         <v>2</v>
       </c>
-      <c r="AO44" s="32">
+      <c r="AO44" s="146">
         <v>2</v>
       </c>
-      <c r="AP44" s="91">
+      <c r="AP44" s="176">
         <v>1.5</v>
       </c>
       <c r="AQ44" s="16"/>
@@ -6949,7 +6950,7 @@
       </c>
       <c r="D46" s="88">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E46" s="71"/>
       <c r="F46" s="69"/>
@@ -6989,11 +6990,11 @@
       <c r="AN46" s="70"/>
       <c r="AO46" s="32"/>
       <c r="AP46" s="91"/>
-      <c r="AQ46" s="16">
-        <v>1</v>
-      </c>
-      <c r="AR46" s="17">
-        <v>3</v>
+      <c r="AQ46" s="140">
+        <v>2</v>
+      </c>
+      <c r="AR46" s="163">
+        <v>2.25</v>
       </c>
       <c r="AS46" s="71"/>
       <c r="AT46" s="69"/>
@@ -7709,7 +7710,7 @@
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>6.25</v>
+        <v>6.95</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7766,11 +7767,13 @@
         <v>0.25</v>
       </c>
       <c r="AO56" s="109"/>
-      <c r="AP56" s="131">
+      <c r="AP56" s="220">
         <v>0.5</v>
       </c>
       <c r="AQ56" s="107"/>
-      <c r="AR56" s="19"/>
+      <c r="AR56" s="164">
+        <v>0.7</v>
+      </c>
       <c r="AS56" s="109"/>
       <c r="AT56" s="107"/>
       <c r="AU56" s="107"/>

--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1ED87E-69E0-43CA-9BAE-43C3B774FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6315F315-4826-4F62-B20E-BAF53E2A6E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1104,11 +1104,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1128,42 +1129,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,8 +1138,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,31 +1207,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3594,8 +3595,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR46" sqref="AQ46:AR46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,246 +3637,246 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="199" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="200"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="200"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="199" t="s">
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="189"/>
+      <c r="AK2" s="189"/>
+      <c r="AL2" s="189"/>
+      <c r="AM2" s="189"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="200"/>
-      <c r="AR2" s="200"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="200"/>
-      <c r="AV2" s="200"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="200"/>
-      <c r="AZ2" s="200"/>
-      <c r="BA2" s="200"/>
-      <c r="BB2" s="200"/>
-      <c r="BC2" s="200"/>
-      <c r="BD2" s="200"/>
-      <c r="BE2" s="200"/>
-      <c r="BF2" s="200"/>
-      <c r="BG2" s="200"/>
-      <c r="BH2" s="201"/>
-      <c r="BI2" s="199" t="s">
+      <c r="AP2" s="189"/>
+      <c r="AQ2" s="189"/>
+      <c r="AR2" s="189"/>
+      <c r="AS2" s="189"/>
+      <c r="AT2" s="189"/>
+      <c r="AU2" s="189"/>
+      <c r="AV2" s="189"/>
+      <c r="AW2" s="189"/>
+      <c r="AX2" s="189"/>
+      <c r="AY2" s="189"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="189"/>
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="189"/>
+      <c r="BG2" s="189"/>
+      <c r="BH2" s="190"/>
+      <c r="BI2" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="BJ2" s="200"/>
-      <c r="BK2" s="200"/>
-      <c r="BL2" s="201"/>
+      <c r="BJ2" s="189"/>
+      <c r="BK2" s="189"/>
+      <c r="BL2" s="190"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="210" t="s">
+      <c r="C3" s="209"/>
+      <c r="D3" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="181" t="s">
+      <c r="E3" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="181" t="s">
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="181" t="s">
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="181" t="s">
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="181" t="s">
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="181" t="s">
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="181" t="s">
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="181" t="s">
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="182"/>
-      <c r="AJ3" s="183"/>
-      <c r="AK3" s="181" t="s">
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="184"/>
+      <c r="AK3" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="181" t="s">
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="184"/>
+      <c r="AO3" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="182"/>
-      <c r="AQ3" s="182"/>
-      <c r="AR3" s="183"/>
-      <c r="AS3" s="181" t="s">
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="184"/>
+      <c r="AS3" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="AT3" s="182"/>
-      <c r="AU3" s="182"/>
-      <c r="AV3" s="183"/>
-      <c r="AW3" s="181" t="s">
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="184"/>
+      <c r="AW3" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="182"/>
-      <c r="AY3" s="182"/>
-      <c r="AZ3" s="183"/>
-      <c r="BA3" s="181" t="s">
+      <c r="AX3" s="183"/>
+      <c r="AY3" s="183"/>
+      <c r="AZ3" s="184"/>
+      <c r="BA3" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="BB3" s="182"/>
-      <c r="BC3" s="182"/>
-      <c r="BD3" s="183"/>
-      <c r="BE3" s="181" t="s">
+      <c r="BB3" s="183"/>
+      <c r="BC3" s="183"/>
+      <c r="BD3" s="184"/>
+      <c r="BE3" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="BF3" s="182"/>
-      <c r="BG3" s="182"/>
-      <c r="BH3" s="183"/>
-      <c r="BI3" s="181" t="s">
+      <c r="BF3" s="183"/>
+      <c r="BG3" s="183"/>
+      <c r="BH3" s="184"/>
+      <c r="BI3" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="BJ3" s="182"/>
-      <c r="BK3" s="182"/>
-      <c r="BL3" s="183"/>
+      <c r="BJ3" s="183"/>
+      <c r="BK3" s="183"/>
+      <c r="BL3" s="184"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="186"/>
-      <c r="U4" s="184"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="185"/>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="185"/>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="184"/>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="184"/>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="185"/>
-      <c r="AN4" s="186"/>
-      <c r="AO4" s="184"/>
-      <c r="AP4" s="185"/>
-      <c r="AQ4" s="185"/>
-      <c r="AR4" s="186"/>
-      <c r="AS4" s="184"/>
-      <c r="AT4" s="185"/>
-      <c r="AU4" s="185"/>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="184"/>
-      <c r="AX4" s="185"/>
-      <c r="AY4" s="185"/>
-      <c r="AZ4" s="186"/>
-      <c r="BA4" s="184"/>
-      <c r="BB4" s="185"/>
-      <c r="BC4" s="185"/>
-      <c r="BD4" s="186"/>
-      <c r="BE4" s="184"/>
-      <c r="BF4" s="185"/>
-      <c r="BG4" s="185"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="184"/>
-      <c r="BJ4" s="185"/>
-      <c r="BK4" s="185"/>
-      <c r="BL4" s="186"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="187"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="186"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="186"/>
+      <c r="AI4" s="186"/>
+      <c r="AJ4" s="187"/>
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="186"/>
+      <c r="AM4" s="186"/>
+      <c r="AN4" s="187"/>
+      <c r="AO4" s="185"/>
+      <c r="AP4" s="186"/>
+      <c r="AQ4" s="186"/>
+      <c r="AR4" s="187"/>
+      <c r="AS4" s="185"/>
+      <c r="AT4" s="186"/>
+      <c r="AU4" s="186"/>
+      <c r="AV4" s="187"/>
+      <c r="AW4" s="185"/>
+      <c r="AX4" s="186"/>
+      <c r="AY4" s="186"/>
+      <c r="AZ4" s="187"/>
+      <c r="BA4" s="185"/>
+      <c r="BB4" s="186"/>
+      <c r="BC4" s="186"/>
+      <c r="BD4" s="187"/>
+      <c r="BE4" s="185"/>
+      <c r="BF4" s="186"/>
+      <c r="BG4" s="186"/>
+      <c r="BH4" s="187"/>
+      <c r="BI4" s="185"/>
+      <c r="BJ4" s="186"/>
+      <c r="BK4" s="186"/>
+      <c r="BL4" s="187"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3947,7 +3948,7 @@
       <c r="BL5" s="22"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="202"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4017,7 +4018,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="197" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4091,7 +4092,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="180"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4172,7 +4173,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="197" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4246,7 +4247,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="180"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4326,7 +4327,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="197" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4400,7 +4401,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="196"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4472,7 +4473,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="199" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4544,7 +4545,7 @@
       <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B14" s="202"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4614,7 +4615,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="197" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4690,7 +4691,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="180"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4764,7 +4765,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="197" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4840,7 +4841,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="180"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4914,7 +4915,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="197" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4988,7 +4989,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="180"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5060,7 +5061,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="197" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5134,7 +5135,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5206,7 +5207,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="197" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5280,7 +5281,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="196"/>
+      <c r="B24" s="204"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5353,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="199" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5426,7 +5427,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="198"/>
+      <c r="B26" s="200"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5498,7 +5499,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="197" t="s">
+      <c r="B27" s="199" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5570,13 +5571,13 @@
       <c r="BL27" s="22"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B28" s="202"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>36.75</v>
+        <v>38.75</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -5640,7 +5641,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="197" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5716,7 +5717,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="180"/>
+      <c r="B30" s="198"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5790,7 +5791,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="197" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5866,7 +5867,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="180"/>
+      <c r="B32" s="198"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5942,7 +5943,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="197" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6018,7 +6019,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6096,7 +6097,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="197" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6170,7 +6171,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="180"/>
+      <c r="B36" s="198"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6244,7 +6245,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="197" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6318,7 +6319,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
+      <c r="B38" s="198"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6390,7 +6391,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="197" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6470,7 +6471,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
+      <c r="B40" s="198"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6544,7 +6545,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="197" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6624,7 +6625,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
+      <c r="B42" s="198"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6708,7 +6709,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="197" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6788,7 +6789,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="180"/>
+      <c r="B44" s="198"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6868,7 +6869,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="179" t="s">
+      <c r="B45" s="197" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6944,7 +6945,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="180"/>
+      <c r="B46" s="198"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -7018,7 +7019,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="197" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7098,13 +7099,13 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="180"/>
+      <c r="B48" s="198"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="71"/>
       <c r="F48" s="69"/>
@@ -7146,7 +7147,9 @@
       <c r="AP48" s="91"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="17"/>
-      <c r="AS48" s="71"/>
+      <c r="AS48" s="146">
+        <v>2</v>
+      </c>
       <c r="AT48" s="69"/>
       <c r="AU48" s="69"/>
       <c r="AV48" s="70"/>
@@ -7168,7 +7171,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="197" t="s">
+      <c r="B49" s="199" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7244,7 +7247,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="198"/>
+      <c r="B50" s="200"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7314,7 +7317,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="197" t="s">
+      <c r="B51" s="199" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7390,7 +7393,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="198"/>
+      <c r="B52" s="200"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7460,7 +7463,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="197" t="s">
+      <c r="B53" s="199" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7536,7 +7539,7 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="198"/>
+      <c r="B54" s="200"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7609,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="197" t="s">
+      <c r="B55" s="199" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7704,7 +7707,7 @@
       <c r="BL55" s="110"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="198"/>
+      <c r="B56" s="200"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
@@ -7767,7 +7770,7 @@
         <v>0.25</v>
       </c>
       <c r="AO56" s="109"/>
-      <c r="AP56" s="220">
+      <c r="AP56" s="179">
         <v>0.5</v>
       </c>
       <c r="AQ56" s="107"/>
@@ -7796,7 +7799,7 @@
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="218" t="s">
+      <c r="B57" s="201" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7863,7 +7866,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="219"/>
+      <c r="B58" s="202"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7928,11 +7931,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="212" t="s">
+      <c r="B59" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="213"/>
-      <c r="D59" s="214"/>
+      <c r="C59" s="192"/>
+      <c r="D59" s="193"/>
       <c r="E59" s="144"/>
       <c r="F59" s="145"/>
       <c r="G59" s="172"/>
@@ -7995,9 +7998,9 @@
       <c r="BL59" s="112"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="215"/>
-      <c r="C60" s="216"/>
-      <c r="D60" s="217"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="196"/>
       <c r="E60" s="137"/>
       <c r="F60" s="142"/>
       <c r="G60" s="173"/>
@@ -8060,11 +8063,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="212" t="s">
+      <c r="B61" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="213"/>
-      <c r="D61" s="214"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="193"/>
       <c r="E61" s="80"/>
       <c r="F61" s="145"/>
       <c r="G61" s="145"/>
@@ -8127,9 +8130,9 @@
       <c r="BL61" s="113"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="215"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="217"/>
+      <c r="B62" s="194"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="196"/>
       <c r="E62" s="74"/>
       <c r="F62" s="142"/>
       <c r="G62" s="142"/>
@@ -8192,11 +8195,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="212" t="s">
+      <c r="B63" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="213"/>
-      <c r="D63" s="214"/>
+      <c r="C63" s="192"/>
+      <c r="D63" s="193"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8259,9 +8262,9 @@
       <c r="BL63" s="113"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="215"/>
-      <c r="C64" s="216"/>
-      <c r="D64" s="217"/>
+      <c r="B64" s="194"/>
+      <c r="C64" s="195"/>
+      <c r="D64" s="196"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8324,11 +8327,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="212" t="s">
+      <c r="B65" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="213"/>
-      <c r="D65" s="214"/>
+      <c r="C65" s="192"/>
+      <c r="D65" s="193"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8391,9 +8394,9 @@
       <c r="BL65" s="113"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="215"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="217"/>
+      <c r="B66" s="194"/>
+      <c r="C66" s="195"/>
+      <c r="D66" s="196"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8412,29 +8415,29 @@
       <c r="T66" s="164"/>
       <c r="U66" s="137"/>
       <c r="V66" s="177"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
-      <c r="AB66" s="36"/>
+      <c r="W66" s="142"/>
+      <c r="X66" s="164"/>
+      <c r="Y66" s="177"/>
+      <c r="Z66" s="142"/>
+      <c r="AA66" s="142"/>
+      <c r="AB66" s="221"/>
       <c r="AC66" s="29"/>
       <c r="AD66" s="30"/>
-      <c r="AE66" s="18"/>
-      <c r="AF66" s="19"/>
+      <c r="AE66" s="142"/>
+      <c r="AF66" s="164"/>
       <c r="AG66" s="29"/>
       <c r="AH66" s="30"/>
       <c r="AI66" s="30"/>
       <c r="AJ66" s="31"/>
-      <c r="AK66" s="53"/>
-      <c r="AL66" s="35"/>
-      <c r="AM66" s="18"/>
-      <c r="AN66" s="19"/>
-      <c r="AO66" s="53"/>
-      <c r="AP66" s="35"/>
-      <c r="AQ66" s="18"/>
-      <c r="AR66" s="19"/>
-      <c r="AS66" s="53"/>
+      <c r="AK66" s="137"/>
+      <c r="AL66" s="177"/>
+      <c r="AM66" s="142"/>
+      <c r="AN66" s="164"/>
+      <c r="AO66" s="137"/>
+      <c r="AP66" s="177"/>
+      <c r="AQ66" s="142"/>
+      <c r="AR66" s="164"/>
+      <c r="AS66" s="137"/>
       <c r="AT66" s="18"/>
       <c r="AU66" s="18"/>
       <c r="AV66" s="19"/>
@@ -8456,11 +8459,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="212" t="s">
+      <c r="B67" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="213"/>
-      <c r="D67" s="214"/>
+      <c r="C67" s="192"/>
+      <c r="D67" s="193"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8523,9 +8526,9 @@
       <c r="BL67" s="113"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="215"/>
-      <c r="C68" s="216"/>
-      <c r="D68" s="217"/>
+      <c r="B68" s="194"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="196"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8588,11 +8591,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="212" t="s">
+      <c r="B69" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="213"/>
-      <c r="D69" s="214"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="193"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8655,9 +8658,9 @@
       <c r="BL69" s="113"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="215"/>
-      <c r="C70" s="216"/>
-      <c r="D70" s="217"/>
+      <c r="B70" s="194"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="196"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8720,11 +8723,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="212" t="s">
+      <c r="B71" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="213"/>
-      <c r="D71" s="214"/>
+      <c r="C71" s="192"/>
+      <c r="D71" s="193"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8787,9 +8790,9 @@
       <c r="BL71" s="113"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="215"/>
-      <c r="C72" s="216"/>
-      <c r="D72" s="217"/>
+      <c r="B72" s="194"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="196"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8870,55 +8873,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="192" t="s">
+      <c r="E74" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="193"/>
-      <c r="G74" s="193"/>
+      <c r="F74" s="218"/>
+      <c r="G74" s="218"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="192" t="s">
+      <c r="I74" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="193"/>
-      <c r="K74" s="193"/>
+      <c r="J74" s="218"/>
+      <c r="K74" s="218"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="194" t="s">
+      <c r="M74" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="195"/>
-      <c r="O74" s="195"/>
+      <c r="N74" s="220"/>
+      <c r="O74" s="220"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="187" t="s">
+      <c r="Q74" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="188"/>
-      <c r="S74" s="188"/>
-      <c r="T74" s="188"/>
+      <c r="R74" s="215"/>
+      <c r="S74" s="215"/>
+      <c r="T74" s="215"/>
       <c r="U74" s="67"/>
       <c r="V74" s="135"/>
-      <c r="W74" s="188" t="s">
+      <c r="W74" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="188"/>
-      <c r="Y74" s="188"/>
+      <c r="X74" s="215"/>
+      <c r="Y74" s="215"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="189" t="s">
+      <c r="AA74" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="AB74" s="190"/>
-      <c r="AC74" s="190"/>
-      <c r="AD74" s="190"/>
-      <c r="AE74" s="190"/>
-      <c r="AF74" s="190"/>
-      <c r="AG74" s="191"/>
-      <c r="AH74" s="189" t="s">
+      <c r="AB74" s="181"/>
+      <c r="AC74" s="181"/>
+      <c r="AD74" s="181"/>
+      <c r="AE74" s="181"/>
+      <c r="AF74" s="181"/>
+      <c r="AG74" s="216"/>
+      <c r="AH74" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="AI74" s="190"/>
-      <c r="AJ74" s="190"/>
-      <c r="AK74" s="190"/>
-      <c r="AL74" s="190"/>
-      <c r="AM74" s="190"/>
+      <c r="AI74" s="181"/>
+      <c r="AJ74" s="181"/>
+      <c r="AK74" s="181"/>
+      <c r="AL74" s="181"/>
+      <c r="AM74" s="181"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8947,37 +8950,22 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="BA3:BD4"/>
+    <mergeCell ref="AA74:AG74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -8994,22 +8982,37 @@
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AS3:AV4"/>
     <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="BA3:BD4"/>
-    <mergeCell ref="AA74:AG74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9317,21 +9320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9445,10 +9433,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9469,17 +9480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6315F315-4826-4F62-B20E-BAF53E2A6E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6D63D-4632-40C9-94F4-C4777265C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3595,8 +3595,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR43" sqref="AR43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AV66" sqref="AV66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,8 +3626,10 @@
     <col min="40" max="40" width="5.28515625" customWidth="1"/>
     <col min="41" max="43" width="4.28515625" customWidth="1"/>
     <col min="44" max="44" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="4.28515625" customWidth="1"/>
-    <col min="48" max="48" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.28515625" customWidth="1"/>
+    <col min="46" max="46" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.28515625" customWidth="1"/>
+    <col min="48" max="48" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="51" width="4.28515625" customWidth="1"/>
     <col min="52" max="52" width="5" customWidth="1"/>
     <col min="53" max="59" width="4.28515625" customWidth="1"/>
@@ -5577,7 +5579,7 @@
       </c>
       <c r="D28" s="88">
         <f>SUM(D30,D32,D34,D36,D38,D40,D42,D44,D48)</f>
-        <v>38.75</v>
+        <v>42</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
@@ -7105,7 +7107,7 @@
       </c>
       <c r="D48" s="88">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="E48" s="71"/>
       <c r="F48" s="69"/>
@@ -7150,9 +7152,15 @@
       <c r="AS48" s="146">
         <v>2</v>
       </c>
-      <c r="AT48" s="69"/>
-      <c r="AU48" s="69"/>
-      <c r="AV48" s="70"/>
+      <c r="AT48" s="140">
+        <v>0.25</v>
+      </c>
+      <c r="AU48" s="140">
+        <v>2</v>
+      </c>
+      <c r="AV48" s="163">
+        <v>1</v>
+      </c>
       <c r="AW48" s="85"/>
       <c r="AX48" s="24"/>
       <c r="AY48" s="16"/>
@@ -7253,7 +7261,7 @@
       </c>
       <c r="D50" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" s="74"/>
       <c r="F50" s="73"/>
@@ -7298,7 +7306,9 @@
       <c r="AS50" s="106"/>
       <c r="AT50" s="101"/>
       <c r="AU50" s="101"/>
-      <c r="AV50" s="102"/>
+      <c r="AV50" s="174">
+        <v>2</v>
+      </c>
       <c r="AW50" s="29"/>
       <c r="AX50" s="30"/>
       <c r="AY50" s="18"/>
@@ -7713,7 +7723,7 @@
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>6.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E56" s="137">
         <v>1.5</v>
@@ -7778,9 +7788,13 @@
         <v>0.7</v>
       </c>
       <c r="AS56" s="109"/>
-      <c r="AT56" s="107"/>
+      <c r="AT56" s="178">
+        <v>0.75</v>
+      </c>
       <c r="AU56" s="107"/>
-      <c r="AV56" s="107"/>
+      <c r="AV56" s="178">
+        <v>1.25</v>
+      </c>
       <c r="AW56" s="29"/>
       <c r="AX56" s="30"/>
       <c r="AY56" s="107"/>
@@ -8438,9 +8452,9 @@
       <c r="AQ66" s="142"/>
       <c r="AR66" s="164"/>
       <c r="AS66" s="137"/>
-      <c r="AT66" s="18"/>
-      <c r="AU66" s="18"/>
-      <c r="AV66" s="19"/>
+      <c r="AT66" s="142"/>
+      <c r="AU66" s="142"/>
+      <c r="AV66" s="175"/>
       <c r="AW66" s="29"/>
       <c r="AX66" s="30"/>
       <c r="AY66" s="18"/>

--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6D63D-4632-40C9-94F4-C4777265C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212557A3-9101-476F-B572-CE6DC4B8C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14250" yWindow="-24000" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1027,7 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1105,11 +1104,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1129,6 +1129,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,47 +1174,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1207,28 +1204,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3595,8 +3594,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AV66" sqref="AV66"/>
+    <sheetView tabSelected="1" topLeftCell="S30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AQ44" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,7 +3630,7 @@
     <col min="47" max="47" width="4.28515625" customWidth="1"/>
     <col min="48" max="48" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="51" width="4.28515625" customWidth="1"/>
-    <col min="52" max="52" width="5" customWidth="1"/>
+    <col min="52" max="52" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="59" width="4.28515625" customWidth="1"/>
     <col min="60" max="60" width="5.5703125" customWidth="1"/>
     <col min="61" max="64" width="4.7109375" customWidth="1"/>
@@ -3639,86 +3638,86 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="188" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="188" t="s">
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="189"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="188" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="202"/>
+      <c r="AO2" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="189"/>
-      <c r="AQ2" s="189"/>
-      <c r="AR2" s="189"/>
-      <c r="AS2" s="189"/>
-      <c r="AT2" s="189"/>
-      <c r="AU2" s="189"/>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="189"/>
-      <c r="AY2" s="189"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="189"/>
-      <c r="BC2" s="189"/>
-      <c r="BD2" s="189"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="189"/>
-      <c r="BG2" s="189"/>
-      <c r="BH2" s="190"/>
-      <c r="BI2" s="188" t="s">
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="201"/>
+      <c r="BC2" s="201"/>
+      <c r="BD2" s="201"/>
+      <c r="BE2" s="201"/>
+      <c r="BF2" s="201"/>
+      <c r="BG2" s="201"/>
+      <c r="BH2" s="202"/>
+      <c r="BI2" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="BJ2" s="189"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="190"/>
+      <c r="BJ2" s="201"/>
+      <c r="BK2" s="201"/>
+      <c r="BL2" s="202"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="212" t="s">
+      <c r="C3" s="208"/>
+      <c r="D3" s="211" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="182" t="s">
@@ -3813,9 +3812,9 @@
       <c r="BL3" s="184"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="210"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="213"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="185"/>
       <c r="F4" s="186"/>
       <c r="G4" s="186"/>
@@ -3878,7 +3877,7 @@
       <c r="BL4" s="187"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="198" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3905,7 +3904,7 @@
       <c r="S5" s="76"/>
       <c r="T5" s="77"/>
       <c r="U5" s="81"/>
-      <c r="V5" s="123"/>
+      <c r="V5" s="122"/>
       <c r="W5" s="76"/>
       <c r="X5" s="77"/>
       <c r="Y5" s="3"/>
@@ -3925,7 +3924,7 @@
       <c r="AM5" s="76"/>
       <c r="AN5" s="77"/>
       <c r="AO5" s="81"/>
-      <c r="AP5" s="123"/>
+      <c r="AP5" s="122"/>
       <c r="AQ5" s="76"/>
       <c r="AR5" s="77"/>
       <c r="AS5" s="81"/>
@@ -3937,15 +3936,15 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="20"/>
-      <c r="BB5" s="118"/>
+      <c r="BB5" s="117"/>
       <c r="BC5" s="21"/>
       <c r="BD5" s="22"/>
       <c r="BE5" s="3"/>
-      <c r="BF5" s="129"/>
+      <c r="BF5" s="128"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="81"/>
-      <c r="BJ5" s="123"/>
+      <c r="BJ5" s="122"/>
       <c r="BK5" s="21"/>
       <c r="BL5" s="22"/>
     </row>
@@ -4007,11 +4006,11 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="5"/>
       <c r="BA6" s="23"/>
-      <c r="BB6" s="121"/>
+      <c r="BB6" s="120"/>
       <c r="BC6" s="24"/>
       <c r="BD6" s="25"/>
       <c r="BE6" s="6"/>
-      <c r="BF6" s="130"/>
+      <c r="BF6" s="129"/>
       <c r="BG6" s="69"/>
       <c r="BH6" s="70"/>
       <c r="BI6" s="71"/>
@@ -4020,7 +4019,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="180" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4031,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="138">
+      <c r="F7" s="137">
         <v>1</v>
       </c>
       <c r="G7" s="16"/>
@@ -4081,11 +4080,11 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="5"/>
       <c r="BA7" s="23"/>
-      <c r="BB7" s="121"/>
+      <c r="BB7" s="120"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
       <c r="BE7" s="6"/>
-      <c r="BF7" s="130"/>
+      <c r="BF7" s="129"/>
       <c r="BG7" s="16"/>
       <c r="BH7" s="17"/>
       <c r="BI7" s="71"/>
@@ -4094,7 +4093,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="198"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="32"/>
-      <c r="F8" s="140">
+      <c r="F8" s="139">
         <v>1</v>
       </c>
       <c r="G8" s="16"/>
@@ -4153,11 +4152,11 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="23"/>
-      <c r="BB8" s="121"/>
+      <c r="BB8" s="120"/>
       <c r="BC8" s="24"/>
       <c r="BD8" s="25"/>
       <c r="BE8" s="6"/>
-      <c r="BF8" s="130"/>
+      <c r="BF8" s="129"/>
       <c r="BG8" s="16"/>
       <c r="BH8" s="17"/>
       <c r="BI8" s="71"/>
@@ -4175,7 +4174,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="180" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4186,10 +4185,10 @@
         <v>0.25</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="138">
+      <c r="F9" s="137">
         <v>0.25</v>
       </c>
-      <c r="G9" s="103"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="17"/>
       <c r="I9" s="85"/>
       <c r="J9" s="24"/>
@@ -4236,11 +4235,11 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="23"/>
-      <c r="BB9" s="121"/>
+      <c r="BB9" s="120"/>
       <c r="BC9" s="24"/>
       <c r="BD9" s="25"/>
       <c r="BE9" s="6"/>
-      <c r="BF9" s="130"/>
+      <c r="BF9" s="129"/>
       <c r="BG9" s="16"/>
       <c r="BH9" s="17"/>
       <c r="BI9" s="71"/>
@@ -4249,7 +4248,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="198"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4256,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E10" s="146">
+      <c r="E10" s="145">
         <v>0.5</v>
       </c>
       <c r="F10" s="16"/>
@@ -4308,11 +4307,11 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="5"/>
       <c r="BA10" s="23"/>
-      <c r="BB10" s="121"/>
+      <c r="BB10" s="120"/>
       <c r="BC10" s="24"/>
       <c r="BD10" s="25"/>
       <c r="BE10" s="6"/>
-      <c r="BF10" s="130"/>
+      <c r="BF10" s="129"/>
       <c r="BG10" s="16"/>
       <c r="BH10" s="17"/>
       <c r="BI10" s="71"/>
@@ -4329,7 +4328,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="180" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4340,14 +4339,14 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="32"/>
-      <c r="F11" s="138">
+      <c r="F11" s="137">
         <v>0.5</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="85"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="143"/>
+      <c r="K11" s="142"/>
       <c r="L11" s="70"/>
       <c r="M11" s="23"/>
       <c r="N11" s="24"/>
@@ -4390,11 +4389,11 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="23"/>
-      <c r="BB11" s="121"/>
+      <c r="BB11" s="120"/>
       <c r="BC11" s="24"/>
       <c r="BD11" s="25"/>
       <c r="BE11" s="6"/>
-      <c r="BF11" s="130"/>
+      <c r="BF11" s="129"/>
       <c r="BG11" s="16"/>
       <c r="BH11" s="17"/>
       <c r="BI11" s="71"/>
@@ -4403,7 +4402,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="204"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="142">
+      <c r="F12" s="141">
         <v>0.5</v>
       </c>
       <c r="G12" s="18"/>
@@ -4430,7 +4429,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="19"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="124"/>
+      <c r="V12" s="123"/>
       <c r="W12" s="73"/>
       <c r="X12" s="75"/>
       <c r="Y12" s="74"/>
@@ -4450,7 +4449,7 @@
       <c r="AM12" s="18"/>
       <c r="AN12" s="19"/>
       <c r="AO12" s="74"/>
-      <c r="AP12" s="124"/>
+      <c r="AP12" s="123"/>
       <c r="AQ12" s="73"/>
       <c r="AR12" s="75"/>
       <c r="AS12" s="53"/>
@@ -4462,20 +4461,20 @@
       <c r="AY12" s="18"/>
       <c r="AZ12" s="8"/>
       <c r="BA12" s="29"/>
-      <c r="BB12" s="119"/>
+      <c r="BB12" s="118"/>
       <c r="BC12" s="30"/>
       <c r="BD12" s="31"/>
       <c r="BE12" s="9"/>
-      <c r="BF12" s="132"/>
+      <c r="BF12" s="131"/>
       <c r="BG12" s="18"/>
       <c r="BH12" s="19"/>
       <c r="BI12" s="74"/>
-      <c r="BJ12" s="124"/>
+      <c r="BJ12" s="123"/>
       <c r="BK12" s="30"/>
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="198" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4502,7 +4501,7 @@
       <c r="S13" s="45"/>
       <c r="T13" s="48"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="125"/>
+      <c r="V13" s="124"/>
       <c r="W13" s="78"/>
       <c r="X13" s="79"/>
       <c r="Y13" s="80"/>
@@ -4522,7 +4521,7 @@
       <c r="AM13" s="45"/>
       <c r="AN13" s="48"/>
       <c r="AO13" s="80"/>
-      <c r="AP13" s="125"/>
+      <c r="AP13" s="124"/>
       <c r="AQ13" s="78"/>
       <c r="AR13" s="79"/>
       <c r="AS13" s="49"/>
@@ -4534,15 +4533,15 @@
       <c r="AY13" s="45"/>
       <c r="AZ13" s="44"/>
       <c r="BA13" s="39"/>
-      <c r="BB13" s="120"/>
+      <c r="BB13" s="119"/>
       <c r="BC13" s="40"/>
       <c r="BD13" s="52"/>
       <c r="BE13" s="42"/>
-      <c r="BF13" s="133"/>
+      <c r="BF13" s="132"/>
       <c r="BG13" s="45"/>
       <c r="BH13" s="48"/>
       <c r="BI13" s="80"/>
-      <c r="BJ13" s="125"/>
+      <c r="BJ13" s="124"/>
       <c r="BK13" s="40"/>
       <c r="BL13" s="52"/>
     </row>
@@ -4604,11 +4603,11 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="23"/>
-      <c r="BB14" s="121"/>
+      <c r="BB14" s="120"/>
       <c r="BC14" s="24"/>
       <c r="BD14" s="25"/>
       <c r="BE14" s="6"/>
-      <c r="BF14" s="130"/>
+      <c r="BF14" s="129"/>
       <c r="BG14" s="16"/>
       <c r="BH14" s="17"/>
       <c r="BI14" s="71"/>
@@ -4617,7 +4616,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="180" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4628,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="141">
+      <c r="F15" s="140">
         <v>0.5</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="137">
         <v>0.5</v>
       </c>
       <c r="H15" s="17"/>
@@ -4680,11 +4679,11 @@
       <c r="AY15" s="16"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="23"/>
-      <c r="BB15" s="121"/>
+      <c r="BB15" s="120"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
       <c r="BE15" s="6"/>
-      <c r="BF15" s="130"/>
+      <c r="BF15" s="129"/>
       <c r="BG15" s="16"/>
       <c r="BH15" s="17"/>
       <c r="BI15" s="71"/>
@@ -4693,7 +4692,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="198"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4702,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="140">
+      <c r="F16" s="139">
         <v>0.5</v>
       </c>
-      <c r="G16" s="140">
+      <c r="G16" s="139">
         <v>0.5</v>
       </c>
       <c r="H16" s="17"/>
@@ -4754,11 +4753,11 @@
       <c r="AY16" s="16"/>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="23"/>
-      <c r="BB16" s="121"/>
+      <c r="BB16" s="120"/>
       <c r="BC16" s="24"/>
       <c r="BD16" s="25"/>
       <c r="BE16" s="6"/>
-      <c r="BF16" s="130"/>
+      <c r="BF16" s="129"/>
       <c r="BG16" s="16"/>
       <c r="BH16" s="17"/>
       <c r="BI16" s="71"/>
@@ -4767,7 +4766,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="180" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4779,10 +4778,10 @@
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="138">
+      <c r="G17" s="137">
         <v>1</v>
       </c>
-      <c r="H17" s="139">
+      <c r="H17" s="138">
         <v>0.5</v>
       </c>
       <c r="I17" s="85"/>
@@ -4830,11 +4829,11 @@
       <c r="AY17" s="16"/>
       <c r="AZ17" s="5"/>
       <c r="BA17" s="23"/>
-      <c r="BB17" s="121"/>
+      <c r="BB17" s="120"/>
       <c r="BC17" s="24"/>
       <c r="BD17" s="25"/>
       <c r="BE17" s="6"/>
-      <c r="BF17" s="130"/>
+      <c r="BF17" s="129"/>
       <c r="BG17" s="16"/>
       <c r="BH17" s="17"/>
       <c r="BI17" s="71"/>
@@ -4843,7 +4842,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="198"/>
+      <c r="B18" s="181"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4853,10 +4852,10 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="140">
+      <c r="G18" s="139">
         <v>1</v>
       </c>
-      <c r="H18" s="163">
+      <c r="H18" s="162">
         <v>0.25</v>
       </c>
       <c r="I18" s="85"/>
@@ -4904,11 +4903,11 @@
       <c r="AY18" s="16"/>
       <c r="AZ18" s="5"/>
       <c r="BA18" s="23"/>
-      <c r="BB18" s="121"/>
+      <c r="BB18" s="120"/>
       <c r="BC18" s="24"/>
       <c r="BD18" s="25"/>
       <c r="BE18" s="6"/>
-      <c r="BF18" s="130"/>
+      <c r="BF18" s="129"/>
       <c r="BG18" s="16"/>
       <c r="BH18" s="17"/>
       <c r="BI18" s="71"/>
@@ -4917,7 +4916,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="180" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4929,10 +4928,10 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="138">
+      <c r="G19" s="137">
         <v>0.5</v>
       </c>
-      <c r="H19" s="105"/>
+      <c r="H19" s="104"/>
       <c r="I19" s="85"/>
       <c r="J19" s="24"/>
       <c r="K19" s="1"/>
@@ -4944,7 +4943,7 @@
       <c r="Q19" s="32"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="105"/>
+      <c r="T19" s="104"/>
       <c r="U19" s="71"/>
       <c r="V19" s="72"/>
       <c r="W19" s="69"/>
@@ -4964,7 +4963,7 @@
       <c r="AK19" s="32"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
-      <c r="AN19" s="105"/>
+      <c r="AN19" s="104"/>
       <c r="AO19" s="71"/>
       <c r="AP19" s="72"/>
       <c r="AQ19" s="69"/>
@@ -4972,26 +4971,26 @@
       <c r="AS19" s="32"/>
       <c r="AT19" s="16"/>
       <c r="AU19" s="16"/>
-      <c r="AV19" s="105"/>
+      <c r="AV19" s="104"/>
       <c r="AW19" s="85"/>
       <c r="AX19" s="24"/>
       <c r="AY19" s="16"/>
       <c r="AZ19" s="5"/>
       <c r="BA19" s="23"/>
-      <c r="BB19" s="121"/>
+      <c r="BB19" s="120"/>
       <c r="BC19" s="24"/>
       <c r="BD19" s="25"/>
       <c r="BE19" s="6"/>
-      <c r="BF19" s="130"/>
+      <c r="BF19" s="129"/>
       <c r="BG19" s="16"/>
-      <c r="BH19" s="105"/>
+      <c r="BH19" s="104"/>
       <c r="BI19" s="71"/>
       <c r="BJ19" s="72"/>
       <c r="BK19" s="24"/>
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="198"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5001,7 +5000,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="140">
+      <c r="G20" s="139">
         <v>0.75</v>
       </c>
       <c r="H20" s="17"/>
@@ -5050,11 +5049,11 @@
       <c r="AY20" s="16"/>
       <c r="AZ20" s="5"/>
       <c r="BA20" s="23"/>
-      <c r="BB20" s="121"/>
+      <c r="BB20" s="120"/>
       <c r="BC20" s="24"/>
       <c r="BD20" s="25"/>
       <c r="BE20" s="6"/>
-      <c r="BF20" s="130"/>
+      <c r="BF20" s="129"/>
       <c r="BG20" s="16"/>
       <c r="BH20" s="17"/>
       <c r="BI20" s="71"/>
@@ -5063,7 +5062,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="180" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5076,7 +5075,7 @@
       <c r="E21" s="71"/>
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
-      <c r="H21" s="139">
+      <c r="H21" s="138">
         <v>1.5</v>
       </c>
       <c r="I21" s="85"/>
@@ -5124,11 +5123,11 @@
       <c r="AY21" s="16"/>
       <c r="AZ21" s="5"/>
       <c r="BA21" s="23"/>
-      <c r="BB21" s="121"/>
+      <c r="BB21" s="120"/>
       <c r="BC21" s="24"/>
       <c r="BD21" s="25"/>
       <c r="BE21" s="6"/>
-      <c r="BF21" s="130"/>
+      <c r="BF21" s="129"/>
       <c r="BG21" s="69"/>
       <c r="BH21" s="70"/>
       <c r="BI21" s="71"/>
@@ -5137,7 +5136,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="198"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5148,7 +5147,7 @@
       <c r="E22" s="71"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="163">
+      <c r="H22" s="162">
         <v>1.5</v>
       </c>
       <c r="I22" s="85"/>
@@ -5196,11 +5195,11 @@
       <c r="AY22" s="16"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="23"/>
-      <c r="BB22" s="121"/>
+      <c r="BB22" s="120"/>
       <c r="BC22" s="24"/>
       <c r="BD22" s="25"/>
       <c r="BE22" s="6"/>
-      <c r="BF22" s="130"/>
+      <c r="BF22" s="129"/>
       <c r="BG22" s="69"/>
       <c r="BH22" s="70"/>
       <c r="BI22" s="71"/>
@@ -5209,7 +5208,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="197" t="s">
+      <c r="B23" s="180" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5225,7 +5224,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="85"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="138">
+      <c r="K23" s="137">
         <v>2</v>
       </c>
       <c r="L23" s="17"/>
@@ -5270,11 +5269,11 @@
       <c r="AY23" s="16"/>
       <c r="AZ23" s="5"/>
       <c r="BA23" s="23"/>
-      <c r="BB23" s="121"/>
+      <c r="BB23" s="120"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
       <c r="BE23" s="6"/>
-      <c r="BF23" s="130"/>
+      <c r="BF23" s="129"/>
       <c r="BG23" s="69"/>
       <c r="BH23" s="70"/>
       <c r="BI23" s="71"/>
@@ -5283,7 +5282,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="204"/>
+      <c r="B24" s="197"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5297,7 +5296,7 @@
       <c r="H24" s="75"/>
       <c r="I24" s="29"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="142">
+      <c r="K24" s="141">
         <v>2</v>
       </c>
       <c r="L24" s="19"/>
@@ -5330,7 +5329,7 @@
       <c r="AM24" s="73"/>
       <c r="AN24" s="75"/>
       <c r="AO24" s="74"/>
-      <c r="AP24" s="124"/>
+      <c r="AP24" s="123"/>
       <c r="AQ24" s="73"/>
       <c r="AR24" s="75"/>
       <c r="AS24" s="74"/>
@@ -5342,11 +5341,11 @@
       <c r="AY24" s="18"/>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="29"/>
-      <c r="BB24" s="119"/>
+      <c r="BB24" s="118"/>
       <c r="BC24" s="30"/>
       <c r="BD24" s="31"/>
       <c r="BE24" s="9"/>
-      <c r="BF24" s="132"/>
+      <c r="BF24" s="131"/>
       <c r="BG24" s="73"/>
       <c r="BH24" s="75"/>
       <c r="BI24" s="74"/>
@@ -5355,7 +5354,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="198" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5372,7 +5371,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
       <c r="K25" s="45"/>
-      <c r="L25" s="147">
+      <c r="L25" s="146">
         <v>2</v>
       </c>
       <c r="M25" s="39"/>
@@ -5404,7 +5403,7 @@
       <c r="AM25" s="78"/>
       <c r="AN25" s="79"/>
       <c r="AO25" s="80"/>
-      <c r="AP25" s="125"/>
+      <c r="AP25" s="124"/>
       <c r="AQ25" s="78"/>
       <c r="AR25" s="79"/>
       <c r="AS25" s="80"/>
@@ -5416,11 +5415,11 @@
       <c r="AY25" s="45"/>
       <c r="AZ25" s="44"/>
       <c r="BA25" s="39"/>
-      <c r="BB25" s="120"/>
+      <c r="BB25" s="119"/>
       <c r="BC25" s="40"/>
       <c r="BD25" s="52"/>
       <c r="BE25" s="42"/>
-      <c r="BF25" s="133"/>
+      <c r="BF25" s="132"/>
       <c r="BG25" s="78"/>
       <c r="BH25" s="79"/>
       <c r="BI25" s="80"/>
@@ -5429,7 +5428,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="200"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5444,7 +5443,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="30"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="174">
+      <c r="L26" s="173">
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
@@ -5476,7 +5475,7 @@
       <c r="AM26" s="73"/>
       <c r="AN26" s="75"/>
       <c r="AO26" s="74"/>
-      <c r="AP26" s="124"/>
+      <c r="AP26" s="123"/>
       <c r="AQ26" s="73"/>
       <c r="AR26" s="75"/>
       <c r="AS26" s="74"/>
@@ -5488,11 +5487,11 @@
       <c r="AY26" s="18"/>
       <c r="AZ26" s="75"/>
       <c r="BA26" s="29"/>
-      <c r="BB26" s="119"/>
+      <c r="BB26" s="118"/>
       <c r="BC26" s="30"/>
       <c r="BD26" s="31"/>
       <c r="BE26" s="74"/>
-      <c r="BF26" s="124"/>
+      <c r="BF26" s="123"/>
       <c r="BG26" s="73"/>
       <c r="BH26" s="75"/>
       <c r="BI26" s="74"/>
@@ -5501,7 +5500,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="199" t="s">
+      <c r="B27" s="198" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5528,7 +5527,7 @@
       <c r="S27" s="76"/>
       <c r="T27" s="77"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="127"/>
+      <c r="V27" s="126"/>
       <c r="W27" s="14"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="33"/>
@@ -5548,7 +5547,7 @@
       <c r="AM27" s="76"/>
       <c r="AN27" s="77"/>
       <c r="AO27" s="81"/>
-      <c r="AP27" s="123"/>
+      <c r="AP27" s="122"/>
       <c r="AQ27" s="76"/>
       <c r="AR27" s="77"/>
       <c r="AS27" s="81"/>
@@ -5560,15 +5559,15 @@
       <c r="AY27" s="14"/>
       <c r="AZ27" s="77"/>
       <c r="BA27" s="20"/>
-      <c r="BB27" s="118"/>
+      <c r="BB27" s="117"/>
       <c r="BC27" s="21"/>
       <c r="BD27" s="22"/>
       <c r="BE27" s="81"/>
-      <c r="BF27" s="123"/>
+      <c r="BF27" s="122"/>
       <c r="BG27" s="76"/>
       <c r="BH27" s="77"/>
       <c r="BI27" s="81"/>
-      <c r="BJ27" s="127"/>
+      <c r="BJ27" s="126"/>
       <c r="BK27" s="21"/>
       <c r="BL27" s="22"/>
     </row>
@@ -5630,7 +5629,7 @@
       <c r="AY28" s="16"/>
       <c r="AZ28" s="69"/>
       <c r="BA28" s="23"/>
-      <c r="BB28" s="121"/>
+      <c r="BB28" s="120"/>
       <c r="BC28" s="24"/>
       <c r="BD28" s="25"/>
       <c r="BE28" s="72"/>
@@ -5643,7 +5642,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="197" t="s">
+      <c r="B29" s="180" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5665,10 +5664,10 @@
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="148">
+      <c r="Q29" s="147">
         <v>2</v>
       </c>
-      <c r="R29" s="138">
+      <c r="R29" s="137">
         <v>2</v>
       </c>
       <c r="S29" s="69"/>
@@ -5706,7 +5705,7 @@
       <c r="AY29" s="16"/>
       <c r="AZ29" s="93"/>
       <c r="BA29" s="23"/>
-      <c r="BB29" s="121"/>
+      <c r="BB29" s="120"/>
       <c r="BC29" s="24"/>
       <c r="BD29" s="25"/>
       <c r="BE29" s="72"/>
@@ -5719,7 +5718,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="198"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5739,10 +5738,10 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="146">
+      <c r="Q30" s="145">
         <v>2</v>
       </c>
-      <c r="R30" s="140">
+      <c r="R30" s="139">
         <v>1</v>
       </c>
       <c r="S30" s="69"/>
@@ -5780,7 +5779,7 @@
       <c r="AY30" s="16"/>
       <c r="AZ30" s="93"/>
       <c r="BA30" s="23"/>
-      <c r="BB30" s="121"/>
+      <c r="BB30" s="120"/>
       <c r="BC30" s="24"/>
       <c r="BD30" s="25"/>
       <c r="BE30" s="72"/>
@@ -5793,7 +5792,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="197" t="s">
+      <c r="B31" s="180" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5817,10 +5816,10 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="71"/>
       <c r="R31" s="69"/>
-      <c r="S31" s="138">
+      <c r="S31" s="137">
         <v>2</v>
       </c>
-      <c r="T31" s="139">
+      <c r="T31" s="138">
         <v>2</v>
       </c>
       <c r="U31" s="32"/>
@@ -5856,7 +5855,7 @@
       <c r="AY31" s="16"/>
       <c r="AZ31" s="93"/>
       <c r="BA31" s="23"/>
-      <c r="BB31" s="121"/>
+      <c r="BB31" s="120"/>
       <c r="BC31" s="24"/>
       <c r="BD31" s="25"/>
       <c r="BE31" s="72"/>
@@ -5869,7 +5868,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="198"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5890,13 +5889,13 @@
       <c r="O32" s="24"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="71"/>
-      <c r="R32" s="140">
+      <c r="R32" s="139">
         <v>1</v>
       </c>
-      <c r="S32" s="140">
+      <c r="S32" s="139">
         <v>2</v>
       </c>
-      <c r="T32" s="163">
+      <c r="T32" s="162">
         <v>1</v>
       </c>
       <c r="U32" s="32"/>
@@ -5932,7 +5931,7 @@
       <c r="AY32" s="16"/>
       <c r="AZ32" s="93"/>
       <c r="BA32" s="23"/>
-      <c r="BB32" s="121"/>
+      <c r="BB32" s="120"/>
       <c r="BC32" s="24"/>
       <c r="BD32" s="25"/>
       <c r="BE32" s="72"/>
@@ -5945,7 +5944,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="197" t="s">
+      <c r="B33" s="180" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5971,17 +5970,17 @@
       <c r="R33" s="69"/>
       <c r="S33" s="69"/>
       <c r="T33" s="70"/>
-      <c r="U33" s="148">
+      <c r="U33" s="147">
         <v>2</v>
       </c>
-      <c r="V33" s="149">
+      <c r="V33" s="148">
         <v>2</v>
       </c>
       <c r="W33" s="16"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
-      <c r="AA33" s="103"/>
+      <c r="AA33" s="102"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="85"/>
       <c r="AD33" s="24"/>
@@ -6008,7 +6007,7 @@
       <c r="AY33" s="16"/>
       <c r="AZ33" s="70"/>
       <c r="BA33" s="23"/>
-      <c r="BB33" s="121"/>
+      <c r="BB33" s="120"/>
       <c r="BC33" s="24"/>
       <c r="BD33" s="25"/>
       <c r="BE33" s="71"/>
@@ -6021,7 +6020,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="198"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6045,16 +6044,16 @@
       <c r="R34" s="69"/>
       <c r="S34" s="69"/>
       <c r="T34" s="70"/>
-      <c r="U34" s="146">
+      <c r="U34" s="145">
         <v>2</v>
       </c>
-      <c r="V34" s="176">
+      <c r="V34" s="175">
         <v>1</v>
       </c>
-      <c r="W34" s="140">
+      <c r="W34" s="139">
         <v>0.5</v>
       </c>
-      <c r="X34" s="163">
+      <c r="X34" s="162">
         <v>0.75</v>
       </c>
       <c r="Y34" s="16"/>
@@ -6086,7 +6085,7 @@
       <c r="AY34" s="16"/>
       <c r="AZ34" s="69"/>
       <c r="BA34" s="23"/>
-      <c r="BB34" s="121"/>
+      <c r="BB34" s="120"/>
       <c r="BC34" s="24"/>
       <c r="BD34" s="25"/>
       <c r="BE34" s="72"/>
@@ -6099,7 +6098,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="180" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6127,7 +6126,7 @@
       <c r="T35" s="70"/>
       <c r="U35" s="32"/>
       <c r="V35" s="91"/>
-      <c r="W35" s="138">
+      <c r="W35" s="137">
         <v>2</v>
       </c>
       <c r="X35" s="17"/>
@@ -6160,7 +6159,7 @@
       <c r="AY35" s="16"/>
       <c r="AZ35" s="70"/>
       <c r="BA35" s="23"/>
-      <c r="BB35" s="121"/>
+      <c r="BB35" s="120"/>
       <c r="BC35" s="24"/>
       <c r="BD35" s="25"/>
       <c r="BE35" s="32"/>
@@ -6173,7 +6172,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="198"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6198,10 +6197,10 @@
       <c r="S36" s="69"/>
       <c r="T36" s="70"/>
       <c r="U36" s="32"/>
-      <c r="V36" s="176">
+      <c r="V36" s="175">
         <v>1</v>
       </c>
-      <c r="W36" s="140">
+      <c r="W36" s="139">
         <v>1.5</v>
       </c>
       <c r="X36" s="17"/>
@@ -6234,7 +6233,7 @@
       <c r="AY36" s="16"/>
       <c r="AZ36" s="70"/>
       <c r="BA36" s="23"/>
-      <c r="BB36" s="121"/>
+      <c r="BB36" s="120"/>
       <c r="BC36" s="24"/>
       <c r="BD36" s="25"/>
       <c r="BE36" s="71"/>
@@ -6247,7 +6246,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="197" t="s">
+      <c r="B37" s="180" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6276,7 +6275,7 @@
       <c r="U37" s="32"/>
       <c r="V37" s="91"/>
       <c r="W37" s="16"/>
-      <c r="X37" s="139">
+      <c r="X37" s="138">
         <v>2</v>
       </c>
       <c r="Y37" s="32"/>
@@ -6308,7 +6307,7 @@
       <c r="AY37" s="16"/>
       <c r="AZ37" s="70"/>
       <c r="BA37" s="23"/>
-      <c r="BB37" s="121"/>
+      <c r="BB37" s="120"/>
       <c r="BC37" s="24"/>
       <c r="BD37" s="25"/>
       <c r="BE37" s="72"/>
@@ -6321,7 +6320,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="198"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6348,7 +6347,7 @@
       <c r="U38" s="32"/>
       <c r="V38" s="91"/>
       <c r="W38" s="16"/>
-      <c r="X38" s="163">
+      <c r="X38" s="162">
         <v>0.5</v>
       </c>
       <c r="Y38" s="32"/>
@@ -6380,7 +6379,7 @@
       <c r="AY38" s="16"/>
       <c r="AZ38" s="70"/>
       <c r="BA38" s="23"/>
-      <c r="BB38" s="121"/>
+      <c r="BB38" s="120"/>
       <c r="BC38" s="24"/>
       <c r="BD38" s="25"/>
       <c r="BE38" s="72"/>
@@ -6393,7 +6392,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="197" t="s">
+      <c r="B39" s="180" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6423,16 +6422,16 @@
       <c r="V39" s="91"/>
       <c r="W39" s="16"/>
       <c r="X39" s="17"/>
-      <c r="Y39" s="148">
+      <c r="Y39" s="147">
         <v>2</v>
       </c>
-      <c r="Z39" s="138">
+      <c r="Z39" s="137">
         <v>2</v>
       </c>
-      <c r="AA39" s="138">
+      <c r="AA39" s="137">
         <v>2</v>
       </c>
-      <c r="AB39" s="139">
+      <c r="AB39" s="138">
         <v>2</v>
       </c>
       <c r="AC39" s="85"/>
@@ -6460,7 +6459,7 @@
       <c r="AY39" s="16"/>
       <c r="AZ39" s="17"/>
       <c r="BA39" s="23"/>
-      <c r="BB39" s="121"/>
+      <c r="BB39" s="120"/>
       <c r="BC39" s="24"/>
       <c r="BD39" s="25"/>
       <c r="BE39" s="72"/>
@@ -6473,7 +6472,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="198"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6501,10 +6500,10 @@
       <c r="V40" s="91"/>
       <c r="W40" s="16"/>
       <c r="X40" s="17"/>
-      <c r="Y40" s="146">
+      <c r="Y40" s="145">
         <v>2</v>
       </c>
-      <c r="Z40" s="140">
+      <c r="Z40" s="139">
         <v>1</v>
       </c>
       <c r="AA40" s="16"/>
@@ -6534,7 +6533,7 @@
       <c r="AY40" s="16"/>
       <c r="AZ40" s="17"/>
       <c r="BA40" s="23"/>
-      <c r="BB40" s="121"/>
+      <c r="BB40" s="120"/>
       <c r="BC40" s="24"/>
       <c r="BD40" s="25"/>
       <c r="BE40" s="72"/>
@@ -6547,7 +6546,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="197" t="s">
+      <c r="B41" s="180" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6583,27 +6582,27 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="85"/>
       <c r="AD41" s="24"/>
-      <c r="AE41" s="138">
+      <c r="AE41" s="137">
         <v>2</v>
       </c>
-      <c r="AF41" s="139">
+      <c r="AF41" s="138">
         <v>2</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="148">
+      <c r="AK41" s="147">
         <v>2</v>
       </c>
-      <c r="AL41" s="138">
+      <c r="AL41" s="137">
         <v>2</v>
       </c>
       <c r="AM41" s="69"/>
       <c r="AN41" s="70"/>
       <c r="AO41" s="16"/>
       <c r="AP41" s="16"/>
-      <c r="AQ41" s="103"/>
+      <c r="AQ41" s="102"/>
       <c r="AR41" s="17"/>
       <c r="AS41" s="71"/>
       <c r="AT41" s="69"/>
@@ -6614,7 +6613,7 @@
       <c r="AY41" s="16"/>
       <c r="AZ41" s="17"/>
       <c r="BA41" s="23"/>
-      <c r="BB41" s="121"/>
+      <c r="BB41" s="120"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
       <c r="BE41" s="72"/>
@@ -6627,7 +6626,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="198"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6656,31 +6655,31 @@
       <c r="W42" s="16"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="32"/>
-      <c r="Z42" s="140">
+      <c r="Z42" s="139">
         <v>0.5</v>
       </c>
-      <c r="AA42" s="140">
+      <c r="AA42" s="139">
         <v>2</v>
       </c>
-      <c r="AB42" s="163">
+      <c r="AB42" s="162">
         <v>2</v>
       </c>
       <c r="AC42" s="85"/>
       <c r="AD42" s="24"/>
-      <c r="AE42" s="140">
+      <c r="AE42" s="139">
         <v>2</v>
       </c>
-      <c r="AF42" s="163">
+      <c r="AF42" s="162">
         <v>1.5</v>
       </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
       <c r="AJ42" s="25"/>
-      <c r="AK42" s="146">
+      <c r="AK42" s="145">
         <v>2</v>
       </c>
-      <c r="AL42" s="140">
+      <c r="AL42" s="139">
         <v>0.5</v>
       </c>
       <c r="AM42" s="69"/>
@@ -6698,7 +6697,7 @@
       <c r="AY42" s="16"/>
       <c r="AZ42" s="17"/>
       <c r="BA42" s="23"/>
-      <c r="BB42" s="121"/>
+      <c r="BB42" s="120"/>
       <c r="BC42" s="24"/>
       <c r="BD42" s="25"/>
       <c r="BE42" s="72"/>
@@ -6711,7 +6710,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="197" t="s">
+      <c r="B43" s="180" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6755,16 +6754,16 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="71"/>
       <c r="AL43" s="69"/>
-      <c r="AM43" s="138">
+      <c r="AM43" s="137">
         <v>2</v>
       </c>
-      <c r="AN43" s="139">
+      <c r="AN43" s="138">
         <v>2</v>
       </c>
-      <c r="AO43" s="148">
+      <c r="AO43" s="147">
         <v>2</v>
       </c>
-      <c r="AP43" s="149">
+      <c r="AP43" s="148">
         <v>2</v>
       </c>
       <c r="AQ43" s="16"/>
@@ -6778,7 +6777,7 @@
       <c r="AY43" s="16"/>
       <c r="AZ43" s="17"/>
       <c r="BA43" s="23"/>
-      <c r="BB43" s="121"/>
+      <c r="BB43" s="120"/>
       <c r="BC43" s="24"/>
       <c r="BD43" s="25"/>
       <c r="BE43" s="72"/>
@@ -6791,7 +6790,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="198"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6832,19 +6831,19 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="25"/>
       <c r="AK44" s="71"/>
-      <c r="AL44" s="140">
+      <c r="AL44" s="139">
         <v>1.5</v>
       </c>
-      <c r="AM44" s="140">
+      <c r="AM44" s="139">
         <v>2</v>
       </c>
-      <c r="AN44" s="163">
+      <c r="AN44" s="162">
         <v>2</v>
       </c>
-      <c r="AO44" s="146">
+      <c r="AO44" s="145">
         <v>2</v>
       </c>
-      <c r="AP44" s="176">
+      <c r="AP44" s="175">
         <v>1.5</v>
       </c>
       <c r="AQ44" s="16"/>
@@ -6858,7 +6857,7 @@
       <c r="AY44" s="16"/>
       <c r="AZ44" s="17"/>
       <c r="BA44" s="23"/>
-      <c r="BB44" s="121"/>
+      <c r="BB44" s="120"/>
       <c r="BC44" s="24"/>
       <c r="BD44" s="25"/>
       <c r="BE44" s="72"/>
@@ -6871,7 +6870,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="197" t="s">
+      <c r="B45" s="180" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6919,10 +6918,10 @@
       <c r="AN45" s="70"/>
       <c r="AO45" s="32"/>
       <c r="AP45" s="91"/>
-      <c r="AQ45" s="138">
+      <c r="AQ45" s="137">
         <v>2</v>
       </c>
-      <c r="AR45" s="139">
+      <c r="AR45" s="138">
         <v>2</v>
       </c>
       <c r="AS45" s="71"/>
@@ -6934,7 +6933,7 @@
       <c r="AY45" s="16"/>
       <c r="AZ45" s="17"/>
       <c r="BA45" s="23"/>
-      <c r="BB45" s="121"/>
+      <c r="BB45" s="120"/>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
       <c r="BE45" s="72"/>
@@ -6947,7 +6946,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="198"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6993,10 +6992,10 @@
       <c r="AN46" s="70"/>
       <c r="AO46" s="32"/>
       <c r="AP46" s="91"/>
-      <c r="AQ46" s="140">
+      <c r="AQ46" s="139">
         <v>2</v>
       </c>
-      <c r="AR46" s="163">
+      <c r="AR46" s="162">
         <v>2.25</v>
       </c>
       <c r="AS46" s="71"/>
@@ -7008,7 +7007,7 @@
       <c r="AY46" s="16"/>
       <c r="AZ46" s="17"/>
       <c r="BA46" s="23"/>
-      <c r="BB46" s="121"/>
+      <c r="BB46" s="120"/>
       <c r="BC46" s="24"/>
       <c r="BD46" s="25"/>
       <c r="BE46" s="72"/>
@@ -7021,7 +7020,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="197" t="s">
+      <c r="B47" s="180" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7069,18 +7068,18 @@
       <c r="AN47" s="70"/>
       <c r="AO47" s="32"/>
       <c r="AP47" s="91"/>
-      <c r="AQ47" s="103"/>
+      <c r="AQ47" s="102"/>
       <c r="AR47" s="17"/>
-      <c r="AS47" s="148">
+      <c r="AS47" s="147">
         <v>2</v>
       </c>
-      <c r="AT47" s="138">
+      <c r="AT47" s="137">
         <v>2</v>
       </c>
-      <c r="AU47" s="138">
+      <c r="AU47" s="137">
         <v>2</v>
       </c>
-      <c r="AV47" s="139">
+      <c r="AV47" s="138">
         <v>2</v>
       </c>
       <c r="AW47" s="85"/>
@@ -7088,7 +7087,7 @@
       <c r="AY47" s="16"/>
       <c r="AZ47" s="17"/>
       <c r="BA47" s="23"/>
-      <c r="BB47" s="121"/>
+      <c r="BB47" s="120"/>
       <c r="BC47" s="24"/>
       <c r="BD47" s="25"/>
       <c r="BE47" s="16"/>
@@ -7101,7 +7100,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="198"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7149,16 +7148,16 @@
       <c r="AP48" s="91"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="17"/>
-      <c r="AS48" s="146">
+      <c r="AS48" s="145">
         <v>2</v>
       </c>
-      <c r="AT48" s="140">
+      <c r="AT48" s="139">
         <v>0.25</v>
       </c>
-      <c r="AU48" s="140">
+      <c r="AU48" s="139">
         <v>2</v>
       </c>
-      <c r="AV48" s="163">
+      <c r="AV48" s="162">
         <v>1</v>
       </c>
       <c r="AW48" s="85"/>
@@ -7166,7 +7165,7 @@
       <c r="AY48" s="16"/>
       <c r="AZ48" s="17"/>
       <c r="BA48" s="23"/>
-      <c r="BB48" s="121"/>
+      <c r="BB48" s="120"/>
       <c r="BC48" s="24"/>
       <c r="BD48" s="25"/>
       <c r="BE48" s="72"/>
@@ -7179,7 +7178,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="199" t="s">
+      <c r="B49" s="198" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7229,24 +7228,24 @@
       <c r="AP49" s="46"/>
       <c r="AQ49" s="45"/>
       <c r="AR49" s="48"/>
-      <c r="AS49" s="108"/>
+      <c r="AS49" s="107"/>
       <c r="AT49" s="94"/>
       <c r="AU49" s="94"/>
       <c r="AV49" s="100"/>
       <c r="AW49" s="39"/>
       <c r="AX49" s="40"/>
-      <c r="AY49" s="145">
+      <c r="AY49" s="144">
         <v>2</v>
       </c>
-      <c r="AZ49" s="150">
+      <c r="AZ49" s="149">
         <v>2</v>
       </c>
       <c r="BA49" s="39"/>
-      <c r="BB49" s="120"/>
+      <c r="BB49" s="119"/>
       <c r="BC49" s="40"/>
       <c r="BD49" s="52"/>
-      <c r="BE49" s="108"/>
-      <c r="BF49" s="134"/>
+      <c r="BE49" s="107"/>
+      <c r="BF49" s="133"/>
       <c r="BG49" s="45"/>
       <c r="BH49" s="48"/>
       <c r="BI49" s="49"/>
@@ -7255,13 +7254,13 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="200"/>
+      <c r="B50" s="199"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="89">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7.75</v>
       </c>
       <c r="E50" s="74"/>
       <c r="F50" s="73"/>
@@ -7303,22 +7302,26 @@
       <c r="AP50" s="35"/>
       <c r="AQ50" s="18"/>
       <c r="AR50" s="19"/>
-      <c r="AS50" s="106"/>
+      <c r="AS50" s="105"/>
       <c r="AT50" s="101"/>
       <c r="AU50" s="101"/>
-      <c r="AV50" s="174">
+      <c r="AV50" s="173">
         <v>2</v>
       </c>
       <c r="AW50" s="29"/>
       <c r="AX50" s="30"/>
-      <c r="AY50" s="18"/>
-      <c r="AZ50" s="102"/>
+      <c r="AY50" s="141">
+        <v>2</v>
+      </c>
+      <c r="AZ50" s="173">
+        <v>3.75</v>
+      </c>
       <c r="BA50" s="29"/>
-      <c r="BB50" s="119"/>
+      <c r="BB50" s="118"/>
       <c r="BC50" s="30"/>
       <c r="BD50" s="31"/>
-      <c r="BE50" s="106"/>
-      <c r="BF50" s="126"/>
+      <c r="BE50" s="105"/>
+      <c r="BF50" s="125"/>
       <c r="BG50" s="18"/>
       <c r="BH50" s="19"/>
       <c r="BI50" s="53"/>
@@ -7327,7 +7330,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="199" t="s">
+      <c r="B51" s="198" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7386,13 +7389,13 @@
       <c r="AY51" s="45"/>
       <c r="AZ51" s="48"/>
       <c r="BA51" s="39"/>
-      <c r="BB51" s="120"/>
+      <c r="BB51" s="119"/>
       <c r="BC51" s="40"/>
       <c r="BD51" s="52"/>
-      <c r="BE51" s="144">
+      <c r="BE51" s="143">
         <v>2</v>
       </c>
-      <c r="BF51" s="151">
+      <c r="BF51" s="150">
         <v>2</v>
       </c>
       <c r="BG51" s="45"/>
@@ -7403,7 +7406,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="200"/>
+      <c r="B52" s="199"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7460,7 +7463,7 @@
       <c r="AY52" s="18"/>
       <c r="AZ52" s="19"/>
       <c r="BA52" s="29"/>
-      <c r="BB52" s="119"/>
+      <c r="BB52" s="118"/>
       <c r="BC52" s="30"/>
       <c r="BD52" s="31"/>
       <c r="BE52" s="53"/>
@@ -7473,7 +7476,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="199" t="s">
+      <c r="B53" s="198" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7532,24 +7535,24 @@
       <c r="AY53" s="45"/>
       <c r="AZ53" s="48"/>
       <c r="BA53" s="39"/>
-      <c r="BB53" s="120"/>
+      <c r="BB53" s="119"/>
       <c r="BC53" s="40"/>
       <c r="BD53" s="52"/>
       <c r="BE53" s="49"/>
       <c r="BF53" s="46"/>
       <c r="BG53" s="45"/>
       <c r="BH53" s="48"/>
-      <c r="BI53" s="144">
+      <c r="BI53" s="143">
         <v>2</v>
       </c>
-      <c r="BJ53" s="151">
+      <c r="BJ53" s="150">
         <v>2</v>
       </c>
       <c r="BK53" s="40"/>
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="200"/>
+      <c r="B54" s="199"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7609,7 @@
       <c r="AY54" s="18"/>
       <c r="AZ54" s="19"/>
       <c r="BA54" s="29"/>
-      <c r="BB54" s="119"/>
+      <c r="BB54" s="118"/>
       <c r="BC54" s="30"/>
       <c r="BD54" s="31"/>
       <c r="BE54" s="53"/>
@@ -7619,7 +7622,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="199" t="s">
+      <c r="B55" s="198" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7629,115 +7632,115 @@
         <f>SUM(E55:BL55)</f>
         <v>8.75</v>
       </c>
-      <c r="E55" s="136">
+      <c r="E55" s="135">
         <v>2</v>
       </c>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="153">
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="152">
         <v>0.25</v>
       </c>
-      <c r="I55" s="154"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="153">
+      <c r="I55" s="153"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="152">
         <v>0.25</v>
       </c>
-      <c r="M55" s="154"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="157"/>
-      <c r="Q55" s="158"/>
-      <c r="R55" s="159"/>
-      <c r="S55" s="156"/>
-      <c r="T55" s="153">
+      <c r="M55" s="153"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="156"/>
+      <c r="Q55" s="157"/>
+      <c r="R55" s="158"/>
+      <c r="S55" s="155"/>
+      <c r="T55" s="152">
         <v>0.25</v>
       </c>
-      <c r="U55" s="158"/>
-      <c r="V55" s="159"/>
-      <c r="W55" s="156"/>
-      <c r="X55" s="153">
+      <c r="U55" s="157"/>
+      <c r="V55" s="158"/>
+      <c r="W55" s="155"/>
+      <c r="X55" s="152">
         <v>0.25</v>
       </c>
-      <c r="Y55" s="158"/>
-      <c r="Z55" s="156"/>
-      <c r="AA55" s="156"/>
-      <c r="AB55" s="153">
+      <c r="Y55" s="157"/>
+      <c r="Z55" s="155"/>
+      <c r="AA55" s="155"/>
+      <c r="AB55" s="152">
         <v>0.25</v>
       </c>
-      <c r="AC55" s="154"/>
-      <c r="AD55" s="155"/>
-      <c r="AE55" s="156"/>
-      <c r="AF55" s="153">
+      <c r="AC55" s="153"/>
+      <c r="AD55" s="154"/>
+      <c r="AE55" s="155"/>
+      <c r="AF55" s="152">
         <v>0.25</v>
       </c>
-      <c r="AG55" s="154"/>
-      <c r="AH55" s="155"/>
-      <c r="AI55" s="155"/>
-      <c r="AJ55" s="157"/>
-      <c r="AK55" s="158"/>
-      <c r="AL55" s="159"/>
-      <c r="AM55" s="156"/>
-      <c r="AN55" s="153">
+      <c r="AG55" s="153"/>
+      <c r="AH55" s="154"/>
+      <c r="AI55" s="154"/>
+      <c r="AJ55" s="156"/>
+      <c r="AK55" s="157"/>
+      <c r="AL55" s="158"/>
+      <c r="AM55" s="155"/>
+      <c r="AN55" s="152">
         <v>0.25</v>
       </c>
-      <c r="AO55" s="158"/>
-      <c r="AP55" s="159"/>
-      <c r="AQ55" s="156"/>
-      <c r="AR55" s="153">
+      <c r="AO55" s="157"/>
+      <c r="AP55" s="158"/>
+      <c r="AQ55" s="155"/>
+      <c r="AR55" s="152">
         <v>0.25</v>
       </c>
-      <c r="AS55" s="158"/>
-      <c r="AT55" s="156"/>
-      <c r="AU55" s="156"/>
-      <c r="AV55" s="153">
+      <c r="AS55" s="157"/>
+      <c r="AT55" s="155"/>
+      <c r="AU55" s="155"/>
+      <c r="AV55" s="152">
         <v>0.25</v>
       </c>
-      <c r="AW55" s="154"/>
-      <c r="AX55" s="155"/>
-      <c r="AY55" s="156"/>
-      <c r="AZ55" s="153">
+      <c r="AW55" s="153"/>
+      <c r="AX55" s="154"/>
+      <c r="AY55" s="155"/>
+      <c r="AZ55" s="152">
         <v>0.25</v>
       </c>
-      <c r="BA55" s="154"/>
-      <c r="BB55" s="160"/>
-      <c r="BC55" s="155"/>
-      <c r="BD55" s="157"/>
-      <c r="BE55" s="158"/>
-      <c r="BF55" s="159"/>
-      <c r="BG55" s="161">
+      <c r="BA55" s="153"/>
+      <c r="BB55" s="159"/>
+      <c r="BC55" s="154"/>
+      <c r="BD55" s="156"/>
+      <c r="BE55" s="157"/>
+      <c r="BF55" s="158"/>
+      <c r="BG55" s="160">
         <v>2</v>
       </c>
-      <c r="BH55" s="153">
+      <c r="BH55" s="152">
         <v>2.25</v>
       </c>
-      <c r="BI55" s="158"/>
-      <c r="BJ55" s="162"/>
+      <c r="BI55" s="157"/>
+      <c r="BJ55" s="161"/>
       <c r="BK55" s="40"/>
-      <c r="BL55" s="110"/>
+      <c r="BL55" s="109"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="200"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E56" s="137">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E56" s="136">
         <v>1.5</v>
       </c>
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
-      <c r="H56" s="164">
-        <v>0.25</v>
+      <c r="H56" s="163">
+        <v>0.3</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="30"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="164">
-        <v>0.25</v>
+      <c r="L56" s="163">
+        <v>0.3</v>
       </c>
       <c r="M56" s="26"/>
       <c r="N56" s="27"/>
@@ -7746,27 +7749,27 @@
       <c r="Q56" s="53"/>
       <c r="R56" s="35"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="164">
+      <c r="T56" s="163">
         <v>1</v>
       </c>
       <c r="U56" s="53"/>
       <c r="V56" s="35"/>
       <c r="W56" s="18"/>
-      <c r="X56" s="164">
-        <v>1.25</v>
-      </c>
-      <c r="Y56" s="107"/>
-      <c r="Z56" s="178">
+      <c r="X56" s="163">
+        <v>1.3</v>
+      </c>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="177">
         <v>0.5</v>
       </c>
-      <c r="AA56" s="107"/>
-      <c r="AB56" s="164">
-        <v>0.25</v>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="163">
+        <v>0.3</v>
       </c>
       <c r="AC56" s="29"/>
       <c r="AD56" s="30"/>
-      <c r="AE56" s="107"/>
-      <c r="AF56" s="164">
+      <c r="AE56" s="106"/>
+      <c r="AF56" s="163">
         <v>0.5</v>
       </c>
       <c r="AG56" s="26"/>
@@ -7776,44 +7779,46 @@
       <c r="AK56" s="53"/>
       <c r="AL56" s="35"/>
       <c r="AM56" s="18"/>
-      <c r="AN56" s="164">
-        <v>0.25</v>
-      </c>
-      <c r="AO56" s="109"/>
-      <c r="AP56" s="179">
+      <c r="AN56" s="163">
+        <v>0.3</v>
+      </c>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="178">
         <v>0.5</v>
       </c>
-      <c r="AQ56" s="107"/>
-      <c r="AR56" s="164">
+      <c r="AQ56" s="106"/>
+      <c r="AR56" s="163">
         <v>0.7</v>
       </c>
-      <c r="AS56" s="109"/>
-      <c r="AT56" s="178">
+      <c r="AS56" s="108"/>
+      <c r="AT56" s="177">
         <v>0.75</v>
       </c>
-      <c r="AU56" s="107"/>
-      <c r="AV56" s="178">
-        <v>1.25</v>
+      <c r="AU56" s="106"/>
+      <c r="AV56" s="177">
+        <v>1.3</v>
       </c>
       <c r="AW56" s="29"/>
       <c r="AX56" s="30"/>
-      <c r="AY56" s="107"/>
-      <c r="AZ56" s="19"/>
+      <c r="AY56" s="106"/>
+      <c r="AZ56" s="163">
+        <v>0.3</v>
+      </c>
       <c r="BA56" s="26"/>
-      <c r="BB56" s="122"/>
+      <c r="BB56" s="121"/>
       <c r="BC56" s="27"/>
       <c r="BD56" s="28"/>
-      <c r="BE56" s="109"/>
-      <c r="BF56" s="131"/>
+      <c r="BE56" s="108"/>
+      <c r="BF56" s="130"/>
       <c r="BG56" s="18"/>
       <c r="BH56" s="19"/>
-      <c r="BI56" s="109"/>
+      <c r="BI56" s="108"/>
       <c r="BJ56" s="35"/>
       <c r="BK56" s="30"/>
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="201" t="s">
+      <c r="B57" s="219" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7880,7 +7885,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="202"/>
+      <c r="B58" s="220"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7945,14 +7950,14 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="191" t="s">
+      <c r="B59" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="192"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="172"/>
+      <c r="C59" s="214"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="171"/>
       <c r="H59" s="79"/>
       <c r="I59" s="20"/>
       <c r="J59" s="21"/>
@@ -7963,11 +7968,11 @@
       <c r="O59" s="40"/>
       <c r="P59" s="52"/>
       <c r="Q59" s="81"/>
-      <c r="R59" s="123"/>
+      <c r="R59" s="122"/>
       <c r="S59" s="82"/>
       <c r="T59" s="83"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="127"/>
+      <c r="V59" s="126"/>
       <c r="W59" s="14"/>
       <c r="X59" s="15"/>
       <c r="Y59" s="33"/>
@@ -7983,11 +7988,11 @@
       <c r="AI59" s="40"/>
       <c r="AJ59" s="52"/>
       <c r="AK59" s="33"/>
-      <c r="AL59" s="127"/>
+      <c r="AL59" s="126"/>
       <c r="AM59" s="14"/>
       <c r="AN59" s="15"/>
       <c r="AO59" s="33"/>
-      <c r="AP59" s="127"/>
+      <c r="AP59" s="126"/>
       <c r="AQ59" s="14"/>
       <c r="AR59" s="15"/>
       <c r="AS59" s="33"/>
@@ -7999,7 +8004,7 @@
       <c r="AY59" s="82"/>
       <c r="AZ59" s="83"/>
       <c r="BA59" s="39"/>
-      <c r="BB59" s="120"/>
+      <c r="BB59" s="119"/>
       <c r="BC59" s="40"/>
       <c r="BD59" s="52"/>
       <c r="BE59" s="49"/>
@@ -8008,16 +8013,16 @@
       <c r="BH59" s="48"/>
       <c r="BI59" s="33"/>
       <c r="BJ59" s="14"/>
-      <c r="BK59" s="111"/>
-      <c r="BL59" s="112"/>
+      <c r="BK59" s="110"/>
+      <c r="BL59" s="111"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="194"/>
-      <c r="C60" s="195"/>
-      <c r="D60" s="196"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="173"/>
+      <c r="B60" s="216"/>
+      <c r="C60" s="217"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="172"/>
       <c r="H60" s="75"/>
       <c r="I60" s="29"/>
       <c r="J60" s="30"/>
@@ -8028,7 +8033,7 @@
       <c r="O60" s="30"/>
       <c r="P60" s="31"/>
       <c r="Q60" s="74"/>
-      <c r="R60" s="124"/>
+      <c r="R60" s="123"/>
       <c r="S60" s="18"/>
       <c r="T60" s="19"/>
       <c r="U60" s="53"/>
@@ -8064,7 +8069,7 @@
       <c r="AY60" s="18"/>
       <c r="AZ60" s="19"/>
       <c r="BA60" s="29"/>
-      <c r="BB60" s="119"/>
+      <c r="BB60" s="118"/>
       <c r="BC60" s="30"/>
       <c r="BD60" s="31"/>
       <c r="BE60" s="53"/>
@@ -8077,18 +8082,18 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="191" t="s">
+      <c r="B61" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="192"/>
-      <c r="D61" s="193"/>
+      <c r="C61" s="214"/>
+      <c r="D61" s="215"/>
       <c r="E61" s="80"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
       <c r="I61" s="39"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="172"/>
+      <c r="K61" s="171"/>
       <c r="L61" s="38"/>
       <c r="M61" s="39"/>
       <c r="N61" s="40"/>
@@ -8131,7 +8136,7 @@
       <c r="AY61" s="37"/>
       <c r="AZ61" s="38"/>
       <c r="BA61" s="39"/>
-      <c r="BB61" s="120"/>
+      <c r="BB61" s="119"/>
       <c r="BC61" s="40"/>
       <c r="BD61" s="52"/>
       <c r="BE61" s="49"/>
@@ -8141,19 +8146,19 @@
       <c r="BI61" s="49"/>
       <c r="BJ61" s="45"/>
       <c r="BK61" s="41"/>
-      <c r="BL61" s="113"/>
+      <c r="BL61" s="112"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="194"/>
-      <c r="C62" s="195"/>
-      <c r="D62" s="196"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="217"/>
+      <c r="D62" s="218"/>
       <c r="E62" s="74"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="164"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="163"/>
       <c r="I62" s="29"/>
       <c r="J62" s="30"/>
-      <c r="K62" s="173"/>
+      <c r="K62" s="172"/>
       <c r="L62" s="19"/>
       <c r="M62" s="29"/>
       <c r="N62" s="30"/>
@@ -8196,7 +8201,7 @@
       <c r="AY62" s="18"/>
       <c r="AZ62" s="19"/>
       <c r="BA62" s="29"/>
-      <c r="BB62" s="119"/>
+      <c r="BB62" s="118"/>
       <c r="BC62" s="30"/>
       <c r="BD62" s="31"/>
       <c r="BE62" s="53"/>
@@ -8209,11 +8214,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="192"/>
-      <c r="D63" s="193"/>
+      <c r="C63" s="214"/>
+      <c r="D63" s="215"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8221,7 +8226,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
       <c r="K63" s="45"/>
-      <c r="L63" s="172"/>
+      <c r="L63" s="171"/>
       <c r="M63" s="39"/>
       <c r="N63" s="40"/>
       <c r="O63" s="40"/>
@@ -8263,7 +8268,7 @@
       <c r="AY63" s="37"/>
       <c r="AZ63" s="38"/>
       <c r="BA63" s="39"/>
-      <c r="BB63" s="120"/>
+      <c r="BB63" s="119"/>
       <c r="BC63" s="40"/>
       <c r="BD63" s="52"/>
       <c r="BE63" s="49"/>
@@ -8273,12 +8278,12 @@
       <c r="BI63" s="49"/>
       <c r="BJ63" s="45"/>
       <c r="BK63" s="41"/>
-      <c r="BL63" s="113"/>
+      <c r="BL63" s="112"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="194"/>
-      <c r="C64" s="195"/>
-      <c r="D64" s="196"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="217"/>
+      <c r="D64" s="218"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8286,7 +8291,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="30"/>
       <c r="K64" s="18"/>
-      <c r="L64" s="175"/>
+      <c r="L64" s="174"/>
       <c r="M64" s="29"/>
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
@@ -8328,7 +8333,7 @@
       <c r="AY64" s="18"/>
       <c r="AZ64" s="19"/>
       <c r="BA64" s="29"/>
-      <c r="BB64" s="119"/>
+      <c r="BB64" s="118"/>
       <c r="BC64" s="30"/>
       <c r="BD64" s="31"/>
       <c r="BE64" s="53"/>
@@ -8341,11 +8346,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="191" t="s">
+      <c r="B65" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="192"/>
-      <c r="D65" s="193"/>
+      <c r="C65" s="214"/>
+      <c r="D65" s="215"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8358,44 +8363,44 @@
       <c r="N65" s="40"/>
       <c r="O65" s="40"/>
       <c r="P65" s="52"/>
-      <c r="Q65" s="144"/>
-      <c r="R65" s="151"/>
-      <c r="S65" s="165"/>
-      <c r="T65" s="166"/>
-      <c r="U65" s="144"/>
-      <c r="V65" s="151"/>
-      <c r="W65" s="145"/>
-      <c r="X65" s="147"/>
-      <c r="Y65" s="151"/>
-      <c r="Z65" s="145"/>
-      <c r="AA65" s="145"/>
-      <c r="AB65" s="167"/>
+      <c r="Q65" s="143"/>
+      <c r="R65" s="150"/>
+      <c r="S65" s="164"/>
+      <c r="T65" s="165"/>
+      <c r="U65" s="143"/>
+      <c r="V65" s="150"/>
+      <c r="W65" s="144"/>
+      <c r="X65" s="146"/>
+      <c r="Y65" s="150"/>
+      <c r="Z65" s="144"/>
+      <c r="AA65" s="144"/>
+      <c r="AB65" s="166"/>
       <c r="AC65" s="39"/>
       <c r="AD65" s="40"/>
-      <c r="AE65" s="165"/>
-      <c r="AF65" s="166"/>
+      <c r="AE65" s="164"/>
+      <c r="AF65" s="165"/>
       <c r="AG65" s="39"/>
       <c r="AH65" s="40"/>
       <c r="AI65" s="40"/>
       <c r="AJ65" s="52"/>
-      <c r="AK65" s="144"/>
-      <c r="AL65" s="151"/>
-      <c r="AM65" s="145"/>
-      <c r="AN65" s="147"/>
-      <c r="AO65" s="144"/>
-      <c r="AP65" s="151"/>
-      <c r="AQ65" s="145"/>
-      <c r="AR65" s="147"/>
-      <c r="AS65" s="144"/>
-      <c r="AT65" s="145"/>
-      <c r="AU65" s="145"/>
-      <c r="AV65" s="171"/>
+      <c r="AK65" s="143"/>
+      <c r="AL65" s="150"/>
+      <c r="AM65" s="144"/>
+      <c r="AN65" s="146"/>
+      <c r="AO65" s="143"/>
+      <c r="AP65" s="150"/>
+      <c r="AQ65" s="144"/>
+      <c r="AR65" s="146"/>
+      <c r="AS65" s="143"/>
+      <c r="AT65" s="144"/>
+      <c r="AU65" s="144"/>
+      <c r="AV65" s="170"/>
       <c r="AW65" s="39"/>
       <c r="AX65" s="40"/>
       <c r="AY65" s="37"/>
       <c r="AZ65" s="99"/>
       <c r="BA65" s="39"/>
-      <c r="BB65" s="120"/>
+      <c r="BB65" s="119"/>
       <c r="BC65" s="40"/>
       <c r="BD65" s="52"/>
       <c r="BE65" s="49"/>
@@ -8405,12 +8410,12 @@
       <c r="BI65" s="49"/>
       <c r="BJ65" s="45"/>
       <c r="BK65" s="41"/>
-      <c r="BL65" s="113"/>
+      <c r="BL65" s="112"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="194"/>
-      <c r="C66" s="195"/>
-      <c r="D66" s="196"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="218"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8423,44 +8428,44 @@
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
       <c r="P66" s="31"/>
-      <c r="Q66" s="137"/>
-      <c r="R66" s="177"/>
-      <c r="S66" s="142"/>
-      <c r="T66" s="164"/>
-      <c r="U66" s="137"/>
-      <c r="V66" s="177"/>
-      <c r="W66" s="142"/>
-      <c r="X66" s="164"/>
-      <c r="Y66" s="177"/>
-      <c r="Z66" s="142"/>
-      <c r="AA66" s="142"/>
-      <c r="AB66" s="221"/>
+      <c r="Q66" s="136"/>
+      <c r="R66" s="176"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="163"/>
+      <c r="U66" s="136"/>
+      <c r="V66" s="176"/>
+      <c r="W66" s="141"/>
+      <c r="X66" s="163"/>
+      <c r="Y66" s="176"/>
+      <c r="Z66" s="141"/>
+      <c r="AA66" s="141"/>
+      <c r="AB66" s="179"/>
       <c r="AC66" s="29"/>
       <c r="AD66" s="30"/>
-      <c r="AE66" s="142"/>
-      <c r="AF66" s="164"/>
+      <c r="AE66" s="141"/>
+      <c r="AF66" s="163"/>
       <c r="AG66" s="29"/>
       <c r="AH66" s="30"/>
       <c r="AI66" s="30"/>
       <c r="AJ66" s="31"/>
-      <c r="AK66" s="137"/>
-      <c r="AL66" s="177"/>
-      <c r="AM66" s="142"/>
-      <c r="AN66" s="164"/>
-      <c r="AO66" s="137"/>
-      <c r="AP66" s="177"/>
-      <c r="AQ66" s="142"/>
-      <c r="AR66" s="164"/>
-      <c r="AS66" s="137"/>
-      <c r="AT66" s="142"/>
-      <c r="AU66" s="142"/>
-      <c r="AV66" s="175"/>
+      <c r="AK66" s="136"/>
+      <c r="AL66" s="176"/>
+      <c r="AM66" s="141"/>
+      <c r="AN66" s="163"/>
+      <c r="AO66" s="136"/>
+      <c r="AP66" s="176"/>
+      <c r="AQ66" s="141"/>
+      <c r="AR66" s="163"/>
+      <c r="AS66" s="136"/>
+      <c r="AT66" s="141"/>
+      <c r="AU66" s="141"/>
+      <c r="AV66" s="174"/>
       <c r="AW66" s="29"/>
       <c r="AX66" s="30"/>
       <c r="AY66" s="18"/>
       <c r="AZ66" s="19"/>
       <c r="BA66" s="29"/>
-      <c r="BB66" s="119"/>
+      <c r="BB66" s="118"/>
       <c r="BC66" s="30"/>
       <c r="BD66" s="31"/>
       <c r="BE66" s="53"/>
@@ -8473,11 +8478,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="191" t="s">
+      <c r="B67" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="192"/>
-      <c r="D67" s="193"/>
+      <c r="C67" s="214"/>
+      <c r="D67" s="215"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8491,7 +8496,7 @@
       <c r="O67" s="40"/>
       <c r="P67" s="52"/>
       <c r="Q67" s="96"/>
-      <c r="R67" s="128"/>
+      <c r="R67" s="127"/>
       <c r="S67" s="37"/>
       <c r="T67" s="38"/>
       <c r="U67" s="49"/>
@@ -8524,25 +8529,25 @@
       <c r="AV67" s="48"/>
       <c r="AW67" s="50"/>
       <c r="AX67" s="40"/>
-      <c r="AY67" s="165"/>
-      <c r="AZ67" s="170"/>
+      <c r="AY67" s="164"/>
+      <c r="AZ67" s="169"/>
       <c r="BA67" s="39"/>
-      <c r="BB67" s="120"/>
+      <c r="BB67" s="119"/>
       <c r="BC67" s="40"/>
       <c r="BD67" s="52"/>
       <c r="BE67" s="49"/>
       <c r="BF67" s="46"/>
       <c r="BG67" s="45"/>
       <c r="BH67" s="48"/>
-      <c r="BI67" s="104"/>
+      <c r="BI67" s="103"/>
       <c r="BJ67" s="45"/>
       <c r="BK67" s="41"/>
-      <c r="BL67" s="113"/>
+      <c r="BL67" s="112"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="194"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="196"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="217"/>
+      <c r="D68" s="218"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8556,7 +8561,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="31"/>
       <c r="Q68" s="74"/>
-      <c r="R68" s="124"/>
+      <c r="R68" s="123"/>
       <c r="S68" s="18"/>
       <c r="T68" s="19"/>
       <c r="U68" s="53"/>
@@ -8592,7 +8597,7 @@
       <c r="AY68" s="18"/>
       <c r="AZ68" s="19"/>
       <c r="BA68" s="29"/>
-      <c r="BB68" s="119"/>
+      <c r="BB68" s="118"/>
       <c r="BC68" s="30"/>
       <c r="BD68" s="31"/>
       <c r="BE68" s="53"/>
@@ -8605,11 +8610,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="191" t="s">
+      <c r="B69" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="192"/>
-      <c r="D69" s="193"/>
+      <c r="C69" s="214"/>
+      <c r="D69" s="215"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8623,7 +8628,7 @@
       <c r="O69" s="40"/>
       <c r="P69" s="52"/>
       <c r="Q69" s="96"/>
-      <c r="R69" s="128"/>
+      <c r="R69" s="127"/>
       <c r="S69" s="37"/>
       <c r="T69" s="38"/>
       <c r="U69" s="49"/>
@@ -8659,22 +8664,22 @@
       <c r="AY69" s="37"/>
       <c r="AZ69" s="38"/>
       <c r="BA69" s="39"/>
-      <c r="BB69" s="120"/>
+      <c r="BB69" s="119"/>
       <c r="BC69" s="40"/>
       <c r="BD69" s="52"/>
-      <c r="BE69" s="144"/>
-      <c r="BF69" s="169"/>
+      <c r="BE69" s="143"/>
+      <c r="BF69" s="168"/>
       <c r="BG69" s="45"/>
       <c r="BH69" s="48"/>
-      <c r="BI69" s="104"/>
+      <c r="BI69" s="103"/>
       <c r="BJ69" s="37"/>
       <c r="BK69" s="41"/>
-      <c r="BL69" s="113"/>
+      <c r="BL69" s="112"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="194"/>
-      <c r="C70" s="195"/>
-      <c r="D70" s="196"/>
+      <c r="B70" s="216"/>
+      <c r="C70" s="217"/>
+      <c r="D70" s="218"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8688,7 +8693,7 @@
       <c r="O70" s="30"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="74"/>
-      <c r="R70" s="124"/>
+      <c r="R70" s="123"/>
       <c r="S70" s="18"/>
       <c r="T70" s="19"/>
       <c r="U70" s="53"/>
@@ -8724,12 +8729,12 @@
       <c r="AY70" s="18"/>
       <c r="AZ70" s="19"/>
       <c r="BA70" s="29"/>
-      <c r="BB70" s="119"/>
+      <c r="BB70" s="118"/>
       <c r="BC70" s="30"/>
       <c r="BD70" s="31"/>
       <c r="BE70" s="53"/>
       <c r="BF70" s="35"/>
-      <c r="BG70" s="103"/>
+      <c r="BG70" s="102"/>
       <c r="BH70" s="19"/>
       <c r="BI70" s="53"/>
       <c r="BJ70" s="18"/>
@@ -8737,11 +8742,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="191" t="s">
+      <c r="B71" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="192"/>
-      <c r="D71" s="193"/>
+      <c r="C71" s="214"/>
+      <c r="D71" s="215"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8755,7 +8760,7 @@
       <c r="O71" s="40"/>
       <c r="P71" s="52"/>
       <c r="Q71" s="80"/>
-      <c r="R71" s="128"/>
+      <c r="R71" s="127"/>
       <c r="S71" s="37"/>
       <c r="T71" s="38"/>
       <c r="U71" s="49"/>
@@ -8791,22 +8796,22 @@
       <c r="AY71" s="37"/>
       <c r="AZ71" s="38"/>
       <c r="BA71" s="39"/>
-      <c r="BB71" s="120"/>
+      <c r="BB71" s="119"/>
       <c r="BC71" s="40"/>
       <c r="BD71" s="52"/>
       <c r="BE71" s="49"/>
       <c r="BF71" s="46"/>
-      <c r="BG71" s="145"/>
-      <c r="BH71" s="147"/>
-      <c r="BI71" s="144"/>
-      <c r="BJ71" s="168"/>
+      <c r="BG71" s="144"/>
+      <c r="BH71" s="146"/>
+      <c r="BI71" s="143"/>
+      <c r="BJ71" s="167"/>
       <c r="BK71" s="41"/>
-      <c r="BL71" s="113"/>
+      <c r="BL71" s="112"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="194"/>
-      <c r="C72" s="195"/>
-      <c r="D72" s="196"/>
+      <c r="B72" s="216"/>
+      <c r="C72" s="217"/>
+      <c r="D72" s="218"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8820,7 +8825,7 @@
       <c r="O72" s="30"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="74"/>
-      <c r="R72" s="124"/>
+      <c r="R72" s="123"/>
       <c r="S72" s="18"/>
       <c r="T72" s="19"/>
       <c r="U72" s="53"/>
@@ -8856,7 +8861,7 @@
       <c r="AY72" s="18"/>
       <c r="AZ72" s="19"/>
       <c r="BA72" s="29"/>
-      <c r="BB72" s="119"/>
+      <c r="BB72" s="118"/>
       <c r="BC72" s="30"/>
       <c r="BD72" s="31"/>
       <c r="BE72" s="53"/>
@@ -8875,11 +8880,11 @@
       <c r="G73" s="95"/>
       <c r="H73" s="95"/>
       <c r="AZ73" s="51"/>
-      <c r="BH73" s="114"/>
+      <c r="BH73" s="113"/>
       <c r="BI73" s="13"/>
       <c r="BJ73" s="13"/>
       <c r="BK73" s="13"/>
-      <c r="BL73" s="116"/>
+      <c r="BL73" s="115"/>
     </row>
     <row r="74" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
@@ -8887,55 +8892,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="217" t="s">
+      <c r="E74" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
+      <c r="F74" s="194"/>
+      <c r="G74" s="194"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="217" t="s">
+      <c r="I74" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="218"/>
-      <c r="K74" s="218"/>
+      <c r="J74" s="194"/>
+      <c r="K74" s="194"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="219" t="s">
+      <c r="M74" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="220"/>
-      <c r="O74" s="220"/>
+      <c r="N74" s="196"/>
+      <c r="O74" s="196"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="214" t="s">
+      <c r="Q74" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="215"/>
-      <c r="S74" s="215"/>
-      <c r="T74" s="215"/>
+      <c r="R74" s="189"/>
+      <c r="S74" s="189"/>
+      <c r="T74" s="189"/>
       <c r="U74" s="67"/>
-      <c r="V74" s="135"/>
-      <c r="W74" s="215" t="s">
+      <c r="V74" s="134"/>
+      <c r="W74" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="215"/>
-      <c r="Y74" s="215"/>
+      <c r="X74" s="189"/>
+      <c r="Y74" s="189"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="180" t="s">
+      <c r="AA74" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="AB74" s="181"/>
-      <c r="AC74" s="181"/>
-      <c r="AD74" s="181"/>
-      <c r="AE74" s="181"/>
-      <c r="AF74" s="181"/>
-      <c r="AG74" s="216"/>
-      <c r="AH74" s="180" t="s">
+      <c r="AB74" s="191"/>
+      <c r="AC74" s="191"/>
+      <c r="AD74" s="191"/>
+      <c r="AE74" s="191"/>
+      <c r="AF74" s="191"/>
+      <c r="AG74" s="192"/>
+      <c r="AH74" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AI74" s="181"/>
-      <c r="AJ74" s="181"/>
-      <c r="AK74" s="181"/>
-      <c r="AL74" s="181"/>
-      <c r="AM74" s="181"/>
+      <c r="AI74" s="191"/>
+      <c r="AJ74" s="191"/>
+      <c r="AK74" s="191"/>
+      <c r="AL74" s="191"/>
+      <c r="AM74" s="191"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8957,13 +8962,60 @@
       <c r="BF74" s="13"/>
       <c r="BG74" s="13"/>
       <c r="BH74" s="13"/>
-      <c r="BI74" s="115"/>
-      <c r="BJ74" s="115"/>
-      <c r="BK74" s="115"/>
-      <c r="BL74" s="117"/>
+      <c r="BI74" s="114"/>
+      <c r="BJ74" s="114"/>
+      <c r="BK74" s="114"/>
+      <c r="BL74" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="BI3:BL4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="E2:T2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="U3:X4"/>
@@ -8980,53 +9032,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="BI3:BL4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9334,6 +9339,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9447,33 +9467,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9494,9 +9491,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212557A3-9101-476F-B572-CE6DC4B8C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C48218-2024-49C5-B657-339E4119590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="-24000" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14550" yWindow="-24000" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +292,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -924,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1055,7 +1062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1086,7 +1092,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1105,11 +1110,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1129,42 +1134,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,8 +1143,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1204,30 +1212,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3594,8 +3602,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AQ44" sqref="AQ44"/>
+    <sheetView tabSelected="1" topLeftCell="AG30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BN53" sqref="BN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,246 +3646,246 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="202"/>
-      <c r="AO2" s="200" t="s">
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="187"/>
+      <c r="AH2" s="187"/>
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="187"/>
+      <c r="AK2" s="187"/>
+      <c r="AL2" s="187"/>
+      <c r="AM2" s="187"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="201"/>
-      <c r="BC2" s="201"/>
-      <c r="BD2" s="201"/>
-      <c r="BE2" s="201"/>
-      <c r="BF2" s="201"/>
-      <c r="BG2" s="201"/>
-      <c r="BH2" s="202"/>
-      <c r="BI2" s="200" t="s">
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="187"/>
+      <c r="AR2" s="187"/>
+      <c r="AS2" s="187"/>
+      <c r="AT2" s="187"/>
+      <c r="AU2" s="187"/>
+      <c r="AV2" s="187"/>
+      <c r="AW2" s="187"/>
+      <c r="AX2" s="187"/>
+      <c r="AY2" s="187"/>
+      <c r="AZ2" s="187"/>
+      <c r="BA2" s="187"/>
+      <c r="BB2" s="187"/>
+      <c r="BC2" s="187"/>
+      <c r="BD2" s="187"/>
+      <c r="BE2" s="187"/>
+      <c r="BF2" s="187"/>
+      <c r="BG2" s="187"/>
+      <c r="BH2" s="188"/>
+      <c r="BI2" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="BJ2" s="201"/>
-      <c r="BK2" s="201"/>
-      <c r="BL2" s="202"/>
+      <c r="BJ2" s="187"/>
+      <c r="BK2" s="187"/>
+      <c r="BL2" s="188"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="211" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="182" t="s">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="182" t="s">
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="182" t="s">
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="182" t="s">
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="182" t="s">
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="182" t="s">
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="182" t="s">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="183"/>
-      <c r="AJ3" s="184"/>
-      <c r="AK3" s="182" t="s">
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="184"/>
-      <c r="AO3" s="182" t="s">
+      <c r="AL3" s="181"/>
+      <c r="AM3" s="181"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="183"/>
-      <c r="AR3" s="184"/>
-      <c r="AS3" s="182" t="s">
+      <c r="AP3" s="181"/>
+      <c r="AQ3" s="181"/>
+      <c r="AR3" s="182"/>
+      <c r="AS3" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="AT3" s="183"/>
-      <c r="AU3" s="183"/>
-      <c r="AV3" s="184"/>
-      <c r="AW3" s="182" t="s">
+      <c r="AT3" s="181"/>
+      <c r="AU3" s="181"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="183"/>
-      <c r="AY3" s="183"/>
-      <c r="AZ3" s="184"/>
-      <c r="BA3" s="182" t="s">
+      <c r="AX3" s="181"/>
+      <c r="AY3" s="181"/>
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="BB3" s="183"/>
-      <c r="BC3" s="183"/>
-      <c r="BD3" s="184"/>
-      <c r="BE3" s="182" t="s">
+      <c r="BB3" s="181"/>
+      <c r="BC3" s="181"/>
+      <c r="BD3" s="182"/>
+      <c r="BE3" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="BF3" s="183"/>
-      <c r="BG3" s="183"/>
-      <c r="BH3" s="184"/>
-      <c r="BI3" s="182" t="s">
+      <c r="BF3" s="181"/>
+      <c r="BG3" s="181"/>
+      <c r="BH3" s="182"/>
+      <c r="BI3" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="BJ3" s="183"/>
-      <c r="BK3" s="183"/>
-      <c r="BL3" s="184"/>
+      <c r="BJ3" s="181"/>
+      <c r="BK3" s="181"/>
+      <c r="BL3" s="182"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="209"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="185"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="187"/>
-      <c r="Y4" s="185"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="187"/>
-      <c r="AC4" s="185"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="187"/>
-      <c r="AG4" s="185"/>
-      <c r="AH4" s="186"/>
-      <c r="AI4" s="186"/>
-      <c r="AJ4" s="187"/>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="186"/>
-      <c r="AM4" s="186"/>
-      <c r="AN4" s="187"/>
-      <c r="AO4" s="185"/>
-      <c r="AP4" s="186"/>
-      <c r="AQ4" s="186"/>
-      <c r="AR4" s="187"/>
-      <c r="AS4" s="185"/>
-      <c r="AT4" s="186"/>
-      <c r="AU4" s="186"/>
-      <c r="AV4" s="187"/>
-      <c r="AW4" s="185"/>
-      <c r="AX4" s="186"/>
-      <c r="AY4" s="186"/>
-      <c r="AZ4" s="187"/>
-      <c r="BA4" s="185"/>
-      <c r="BB4" s="186"/>
-      <c r="BC4" s="186"/>
-      <c r="BD4" s="187"/>
-      <c r="BE4" s="185"/>
-      <c r="BF4" s="186"/>
-      <c r="BG4" s="186"/>
-      <c r="BH4" s="187"/>
-      <c r="BI4" s="185"/>
-      <c r="BJ4" s="186"/>
-      <c r="BK4" s="186"/>
-      <c r="BL4" s="187"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="185"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="183"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="185"/>
+      <c r="AK4" s="183"/>
+      <c r="AL4" s="184"/>
+      <c r="AM4" s="184"/>
+      <c r="AN4" s="185"/>
+      <c r="AO4" s="183"/>
+      <c r="AP4" s="184"/>
+      <c r="AQ4" s="184"/>
+      <c r="AR4" s="185"/>
+      <c r="AS4" s="183"/>
+      <c r="AT4" s="184"/>
+      <c r="AU4" s="184"/>
+      <c r="AV4" s="185"/>
+      <c r="AW4" s="183"/>
+      <c r="AX4" s="184"/>
+      <c r="AY4" s="184"/>
+      <c r="AZ4" s="185"/>
+      <c r="BA4" s="183"/>
+      <c r="BB4" s="184"/>
+      <c r="BC4" s="184"/>
+      <c r="BD4" s="185"/>
+      <c r="BE4" s="183"/>
+      <c r="BF4" s="184"/>
+      <c r="BG4" s="184"/>
+      <c r="BH4" s="185"/>
+      <c r="BI4" s="183"/>
+      <c r="BJ4" s="184"/>
+      <c r="BK4" s="184"/>
+      <c r="BL4" s="185"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3949,7 +3957,7 @@
       <c r="BL5" s="22"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="203"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4027,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="195" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4030,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="137">
+      <c r="F7" s="136">
         <v>1</v>
       </c>
       <c r="G7" s="16"/>
@@ -4093,7 +4101,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="181"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="32"/>
-      <c r="F8" s="139">
+      <c r="F8" s="138">
         <v>1</v>
       </c>
       <c r="G8" s="16"/>
@@ -4174,7 +4182,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="195" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4185,7 +4193,7 @@
         <v>0.25</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="137">
+      <c r="F9" s="136">
         <v>0.25</v>
       </c>
       <c r="G9" s="102"/>
@@ -4248,7 +4256,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="181"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4256,7 +4264,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="144">
         <v>0.5</v>
       </c>
       <c r="F10" s="16"/>
@@ -4328,7 +4336,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="195" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4339,14 +4347,14 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="32"/>
-      <c r="F11" s="137">
+      <c r="F11" s="136">
         <v>0.5</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="85"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="142"/>
+      <c r="K11" s="141"/>
       <c r="L11" s="70"/>
       <c r="M11" s="23"/>
       <c r="N11" s="24"/>
@@ -4402,7 +4410,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="197"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4411,7 +4419,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="141">
+      <c r="F12" s="140">
         <v>0.5</v>
       </c>
       <c r="G12" s="18"/>
@@ -4465,7 +4473,7 @@
       <c r="BC12" s="30"/>
       <c r="BD12" s="31"/>
       <c r="BE12" s="9"/>
-      <c r="BF12" s="131"/>
+      <c r="BF12" s="130"/>
       <c r="BG12" s="18"/>
       <c r="BH12" s="19"/>
       <c r="BI12" s="74"/>
@@ -4474,7 +4482,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="197" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4537,7 +4545,7 @@
       <c r="BC13" s="40"/>
       <c r="BD13" s="52"/>
       <c r="BE13" s="42"/>
-      <c r="BF13" s="132"/>
+      <c r="BF13" s="131"/>
       <c r="BG13" s="45"/>
       <c r="BH13" s="48"/>
       <c r="BI13" s="80"/>
@@ -4546,7 +4554,7 @@
       <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B14" s="203"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4616,7 +4624,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="195" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4627,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="140">
+      <c r="F15" s="139">
         <v>0.5</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="136">
         <v>0.5</v>
       </c>
       <c r="H15" s="17"/>
@@ -4692,7 +4700,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="181"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4701,10 +4709,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="139">
+      <c r="F16" s="138">
         <v>0.5</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="138">
         <v>0.5</v>
       </c>
       <c r="H16" s="17"/>
@@ -4766,7 +4774,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="195" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4778,10 +4786,10 @@
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="137">
+      <c r="G17" s="136">
         <v>1</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="137">
         <v>0.5</v>
       </c>
       <c r="I17" s="85"/>
@@ -4842,7 +4850,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="181"/>
+      <c r="B18" s="196"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4852,10 +4860,10 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="139">
+      <c r="G18" s="138">
         <v>1</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H18" s="160">
         <v>0.25</v>
       </c>
       <c r="I18" s="85"/>
@@ -4916,7 +4924,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="195" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4928,7 +4936,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="137">
+      <c r="G19" s="136">
         <v>0.5</v>
       </c>
       <c r="H19" s="104"/>
@@ -4990,7 +4998,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="181"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5000,7 +5008,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="139">
+      <c r="G20" s="138">
         <v>0.75</v>
       </c>
       <c r="H20" s="17"/>
@@ -5062,7 +5070,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="195" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5075,7 +5083,7 @@
       <c r="E21" s="71"/>
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
-      <c r="H21" s="138">
+      <c r="H21" s="137">
         <v>1.5</v>
       </c>
       <c r="I21" s="85"/>
@@ -5136,7 +5144,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="181"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5147,7 +5155,7 @@
       <c r="E22" s="71"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="162">
+      <c r="H22" s="160">
         <v>1.5</v>
       </c>
       <c r="I22" s="85"/>
@@ -5208,7 +5216,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="195" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5224,7 +5232,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="85"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="137">
+      <c r="K23" s="136">
         <v>2</v>
       </c>
       <c r="L23" s="17"/>
@@ -5282,7 +5290,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="197"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5296,7 +5304,7 @@
       <c r="H24" s="75"/>
       <c r="I24" s="29"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="141">
+      <c r="K24" s="140">
         <v>2</v>
       </c>
       <c r="L24" s="19"/>
@@ -5345,7 +5353,7 @@
       <c r="BC24" s="30"/>
       <c r="BD24" s="31"/>
       <c r="BE24" s="9"/>
-      <c r="BF24" s="131"/>
+      <c r="BF24" s="130"/>
       <c r="BG24" s="73"/>
       <c r="BH24" s="75"/>
       <c r="BI24" s="74"/>
@@ -5354,7 +5362,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="197" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5371,7 +5379,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
       <c r="K25" s="45"/>
-      <c r="L25" s="146">
+      <c r="L25" s="145">
         <v>2</v>
       </c>
       <c r="M25" s="39"/>
@@ -5419,7 +5427,7 @@
       <c r="BC25" s="40"/>
       <c r="BD25" s="52"/>
       <c r="BE25" s="42"/>
-      <c r="BF25" s="132"/>
+      <c r="BF25" s="131"/>
       <c r="BG25" s="78"/>
       <c r="BH25" s="79"/>
       <c r="BI25" s="80"/>
@@ -5428,7 +5436,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="199"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5443,7 +5451,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="30"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="173">
+      <c r="L26" s="171">
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
@@ -5500,7 +5508,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="198" t="s">
+      <c r="B27" s="197" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5572,7 +5580,7 @@
       <c r="BL27" s="22"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B28" s="203"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5650,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="195" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5664,10 +5672,10 @@
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="147">
+      <c r="Q29" s="146">
         <v>2</v>
       </c>
-      <c r="R29" s="137">
+      <c r="R29" s="136">
         <v>2</v>
       </c>
       <c r="S29" s="69"/>
@@ -5718,7 +5726,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="181"/>
+      <c r="B30" s="196"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5738,10 +5746,10 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="145">
+      <c r="Q30" s="144">
         <v>2</v>
       </c>
-      <c r="R30" s="139">
+      <c r="R30" s="138">
         <v>1</v>
       </c>
       <c r="S30" s="69"/>
@@ -5792,7 +5800,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="195" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5816,10 +5824,10 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="71"/>
       <c r="R31" s="69"/>
-      <c r="S31" s="137">
+      <c r="S31" s="136">
         <v>2</v>
       </c>
-      <c r="T31" s="138">
+      <c r="T31" s="137">
         <v>2</v>
       </c>
       <c r="U31" s="32"/>
@@ -5868,7 +5876,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="181"/>
+      <c r="B32" s="196"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5889,13 +5897,13 @@
       <c r="O32" s="24"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="71"/>
-      <c r="R32" s="139">
+      <c r="R32" s="138">
         <v>1</v>
       </c>
-      <c r="S32" s="139">
+      <c r="S32" s="138">
         <v>2</v>
       </c>
-      <c r="T32" s="162">
+      <c r="T32" s="160">
         <v>1</v>
       </c>
       <c r="U32" s="32"/>
@@ -5944,7 +5952,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="195" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5970,10 +5978,10 @@
       <c r="R33" s="69"/>
       <c r="S33" s="69"/>
       <c r="T33" s="70"/>
-      <c r="U33" s="147">
+      <c r="U33" s="146">
         <v>2</v>
       </c>
-      <c r="V33" s="148">
+      <c r="V33" s="147">
         <v>2</v>
       </c>
       <c r="W33" s="16"/>
@@ -6020,7 +6028,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="181"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6044,16 +6052,16 @@
       <c r="R34" s="69"/>
       <c r="S34" s="69"/>
       <c r="T34" s="70"/>
-      <c r="U34" s="145">
+      <c r="U34" s="144">
         <v>2</v>
       </c>
-      <c r="V34" s="175">
+      <c r="V34" s="173">
         <v>1</v>
       </c>
-      <c r="W34" s="139">
+      <c r="W34" s="138">
         <v>0.5</v>
       </c>
-      <c r="X34" s="162">
+      <c r="X34" s="160">
         <v>0.75</v>
       </c>
       <c r="Y34" s="16"/>
@@ -6098,7 +6106,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="195" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6126,7 +6134,7 @@
       <c r="T35" s="70"/>
       <c r="U35" s="32"/>
       <c r="V35" s="91"/>
-      <c r="W35" s="137">
+      <c r="W35" s="136">
         <v>2</v>
       </c>
       <c r="X35" s="17"/>
@@ -6172,7 +6180,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="181"/>
+      <c r="B36" s="196"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6197,10 +6205,10 @@
       <c r="S36" s="69"/>
       <c r="T36" s="70"/>
       <c r="U36" s="32"/>
-      <c r="V36" s="175">
+      <c r="V36" s="173">
         <v>1</v>
       </c>
-      <c r="W36" s="139">
+      <c r="W36" s="138">
         <v>1.5</v>
       </c>
       <c r="X36" s="17"/>
@@ -6246,7 +6254,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="195" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6275,7 +6283,7 @@
       <c r="U37" s="32"/>
       <c r="V37" s="91"/>
       <c r="W37" s="16"/>
-      <c r="X37" s="138">
+      <c r="X37" s="137">
         <v>2</v>
       </c>
       <c r="Y37" s="32"/>
@@ -6320,7 +6328,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="181"/>
+      <c r="B38" s="196"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6347,7 +6355,7 @@
       <c r="U38" s="32"/>
       <c r="V38" s="91"/>
       <c r="W38" s="16"/>
-      <c r="X38" s="162">
+      <c r="X38" s="160">
         <v>0.5</v>
       </c>
       <c r="Y38" s="32"/>
@@ -6392,7 +6400,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="195" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6422,16 +6430,16 @@
       <c r="V39" s="91"/>
       <c r="W39" s="16"/>
       <c r="X39" s="17"/>
-      <c r="Y39" s="147">
+      <c r="Y39" s="146">
         <v>2</v>
       </c>
-      <c r="Z39" s="137">
+      <c r="Z39" s="136">
         <v>2</v>
       </c>
-      <c r="AA39" s="137">
+      <c r="AA39" s="136">
         <v>2</v>
       </c>
-      <c r="AB39" s="138">
+      <c r="AB39" s="137">
         <v>2</v>
       </c>
       <c r="AC39" s="85"/>
@@ -6472,7 +6480,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="181"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6500,10 +6508,10 @@
       <c r="V40" s="91"/>
       <c r="W40" s="16"/>
       <c r="X40" s="17"/>
-      <c r="Y40" s="145">
+      <c r="Y40" s="144">
         <v>2</v>
       </c>
-      <c r="Z40" s="139">
+      <c r="Z40" s="138">
         <v>1</v>
       </c>
       <c r="AA40" s="16"/>
@@ -6546,7 +6554,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="195" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6582,20 +6590,20 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="85"/>
       <c r="AD41" s="24"/>
-      <c r="AE41" s="137">
+      <c r="AE41" s="136">
         <v>2</v>
       </c>
-      <c r="AF41" s="138">
+      <c r="AF41" s="137">
         <v>2</v>
       </c>
       <c r="AG41" s="23"/>
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="147">
+      <c r="AK41" s="146">
         <v>2</v>
       </c>
-      <c r="AL41" s="137">
+      <c r="AL41" s="136">
         <v>2</v>
       </c>
       <c r="AM41" s="69"/>
@@ -6626,7 +6634,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="181"/>
+      <c r="B42" s="196"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6655,31 +6663,31 @@
       <c r="W42" s="16"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="32"/>
-      <c r="Z42" s="139">
+      <c r="Z42" s="138">
         <v>0.5</v>
       </c>
-      <c r="AA42" s="139">
+      <c r="AA42" s="138">
         <v>2</v>
       </c>
-      <c r="AB42" s="162">
+      <c r="AB42" s="160">
         <v>2</v>
       </c>
       <c r="AC42" s="85"/>
       <c r="AD42" s="24"/>
-      <c r="AE42" s="139">
+      <c r="AE42" s="138">
         <v>2</v>
       </c>
-      <c r="AF42" s="162">
+      <c r="AF42" s="160">
         <v>1.5</v>
       </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="24"/>
       <c r="AI42" s="24"/>
       <c r="AJ42" s="25"/>
-      <c r="AK42" s="145">
+      <c r="AK42" s="144">
         <v>2</v>
       </c>
-      <c r="AL42" s="139">
+      <c r="AL42" s="138">
         <v>0.5</v>
       </c>
       <c r="AM42" s="69"/>
@@ -6710,7 +6718,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="195" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6754,16 +6762,16 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="71"/>
       <c r="AL43" s="69"/>
-      <c r="AM43" s="137">
+      <c r="AM43" s="136">
         <v>2</v>
       </c>
-      <c r="AN43" s="138">
+      <c r="AN43" s="137">
         <v>2</v>
       </c>
-      <c r="AO43" s="147">
+      <c r="AO43" s="146">
         <v>2</v>
       </c>
-      <c r="AP43" s="148">
+      <c r="AP43" s="147">
         <v>2</v>
       </c>
       <c r="AQ43" s="16"/>
@@ -6790,7 +6798,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="181"/>
+      <c r="B44" s="196"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6831,19 +6839,19 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="25"/>
       <c r="AK44" s="71"/>
-      <c r="AL44" s="139">
+      <c r="AL44" s="138">
         <v>1.5</v>
       </c>
-      <c r="AM44" s="139">
+      <c r="AM44" s="138">
         <v>2</v>
       </c>
-      <c r="AN44" s="162">
+      <c r="AN44" s="160">
         <v>2</v>
       </c>
-      <c r="AO44" s="145">
+      <c r="AO44" s="144">
         <v>2</v>
       </c>
-      <c r="AP44" s="175">
+      <c r="AP44" s="173">
         <v>1.5</v>
       </c>
       <c r="AQ44" s="16"/>
@@ -6870,7 +6878,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="180" t="s">
+      <c r="B45" s="195" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6918,10 +6926,10 @@
       <c r="AN45" s="70"/>
       <c r="AO45" s="32"/>
       <c r="AP45" s="91"/>
-      <c r="AQ45" s="137">
+      <c r="AQ45" s="136">
         <v>2</v>
       </c>
-      <c r="AR45" s="138">
+      <c r="AR45" s="137">
         <v>2</v>
       </c>
       <c r="AS45" s="71"/>
@@ -6946,7 +6954,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="181"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6992,10 +7000,10 @@
       <c r="AN46" s="70"/>
       <c r="AO46" s="32"/>
       <c r="AP46" s="91"/>
-      <c r="AQ46" s="139">
+      <c r="AQ46" s="138">
         <v>2</v>
       </c>
-      <c r="AR46" s="162">
+      <c r="AR46" s="160">
         <v>2.25</v>
       </c>
       <c r="AS46" s="71"/>
@@ -7020,7 +7028,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="195" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7070,16 +7078,16 @@
       <c r="AP47" s="91"/>
       <c r="AQ47" s="102"/>
       <c r="AR47" s="17"/>
-      <c r="AS47" s="147">
+      <c r="AS47" s="146">
         <v>2</v>
       </c>
-      <c r="AT47" s="137">
+      <c r="AT47" s="136">
         <v>2</v>
       </c>
-      <c r="AU47" s="137">
+      <c r="AU47" s="136">
         <v>2</v>
       </c>
-      <c r="AV47" s="138">
+      <c r="AV47" s="137">
         <v>2</v>
       </c>
       <c r="AW47" s="85"/>
@@ -7100,7 +7108,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="181"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7148,16 +7156,16 @@
       <c r="AP48" s="91"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="17"/>
-      <c r="AS48" s="145">
+      <c r="AS48" s="144">
         <v>2</v>
       </c>
-      <c r="AT48" s="139">
+      <c r="AT48" s="138">
         <v>0.25</v>
       </c>
-      <c r="AU48" s="139">
+      <c r="AU48" s="138">
         <v>2</v>
       </c>
-      <c r="AV48" s="162">
+      <c r="AV48" s="160">
         <v>1</v>
       </c>
       <c r="AW48" s="85"/>
@@ -7178,7 +7186,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="198" t="s">
+      <c r="B49" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7234,10 +7242,10 @@
       <c r="AV49" s="100"/>
       <c r="AW49" s="39"/>
       <c r="AX49" s="40"/>
-      <c r="AY49" s="144">
+      <c r="AY49" s="143">
         <v>2</v>
       </c>
-      <c r="AZ49" s="149">
+      <c r="AZ49" s="148">
         <v>2</v>
       </c>
       <c r="BA49" s="39"/>
@@ -7245,7 +7253,7 @@
       <c r="BC49" s="40"/>
       <c r="BD49" s="52"/>
       <c r="BE49" s="107"/>
-      <c r="BF49" s="133"/>
+      <c r="BF49" s="132"/>
       <c r="BG49" s="45"/>
       <c r="BH49" s="48"/>
       <c r="BI49" s="49"/>
@@ -7254,13 +7262,13 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="199"/>
+      <c r="B50" s="198"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="89">
         <f t="shared" si="2"/>
-        <v>7.75</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E50" s="74"/>
       <c r="F50" s="73"/>
@@ -7305,22 +7313,24 @@
       <c r="AS50" s="105"/>
       <c r="AT50" s="101"/>
       <c r="AU50" s="101"/>
-      <c r="AV50" s="173">
+      <c r="AV50" s="171">
         <v>2</v>
       </c>
       <c r="AW50" s="29"/>
       <c r="AX50" s="30"/>
-      <c r="AY50" s="141">
+      <c r="AY50" s="140">
         <v>2</v>
       </c>
-      <c r="AZ50" s="173">
+      <c r="AZ50" s="171">
         <v>3.75</v>
       </c>
       <c r="BA50" s="29"/>
       <c r="BB50" s="118"/>
       <c r="BC50" s="30"/>
       <c r="BD50" s="31"/>
-      <c r="BE50" s="105"/>
+      <c r="BE50" s="221">
+        <v>0.3</v>
+      </c>
       <c r="BF50" s="125"/>
       <c r="BG50" s="18"/>
       <c r="BH50" s="19"/>
@@ -7330,7 +7340,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="198" t="s">
+      <c r="B51" s="197" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7392,10 +7402,10 @@
       <c r="BB51" s="119"/>
       <c r="BC51" s="40"/>
       <c r="BD51" s="52"/>
-      <c r="BE51" s="143">
+      <c r="BE51" s="142">
         <v>2</v>
       </c>
-      <c r="BF51" s="150">
+      <c r="BF51" s="149">
         <v>2</v>
       </c>
       <c r="BG51" s="45"/>
@@ -7406,13 +7416,13 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="199"/>
+      <c r="B52" s="198"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="74"/>
       <c r="F52" s="73"/>
@@ -7466,7 +7476,9 @@
       <c r="BB52" s="118"/>
       <c r="BC52" s="30"/>
       <c r="BD52" s="31"/>
-      <c r="BE52" s="53"/>
+      <c r="BE52" s="135">
+        <v>2</v>
+      </c>
       <c r="BF52" s="35"/>
       <c r="BG52" s="18"/>
       <c r="BH52" s="19"/>
@@ -7476,7 +7488,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="198" t="s">
+      <c r="B53" s="197" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7542,17 +7554,17 @@
       <c r="BF53" s="46"/>
       <c r="BG53" s="45"/>
       <c r="BH53" s="48"/>
-      <c r="BI53" s="143">
+      <c r="BI53" s="142">
         <v>2</v>
       </c>
-      <c r="BJ53" s="150">
+      <c r="BJ53" s="149">
         <v>2</v>
       </c>
       <c r="BK53" s="40"/>
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="199"/>
+      <c r="B54" s="198"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +7634,7 @@
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="197" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7632,114 +7644,114 @@
         <f>SUM(E55:BL55)</f>
         <v>8.75</v>
       </c>
-      <c r="E55" s="135">
+      <c r="E55" s="134">
         <v>2</v>
       </c>
-      <c r="F55" s="151"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="152">
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="151">
         <v>0.25</v>
       </c>
-      <c r="I55" s="153"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="155"/>
-      <c r="L55" s="152">
+      <c r="I55" s="152"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="151">
         <v>0.25</v>
       </c>
-      <c r="M55" s="153"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="157"/>
-      <c r="R55" s="158"/>
-      <c r="S55" s="155"/>
-      <c r="T55" s="152">
+      <c r="M55" s="152"/>
+      <c r="N55" s="153"/>
+      <c r="O55" s="153"/>
+      <c r="P55" s="155"/>
+      <c r="Q55" s="156"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="151">
         <v>0.25</v>
       </c>
-      <c r="U55" s="157"/>
-      <c r="V55" s="158"/>
-      <c r="W55" s="155"/>
-      <c r="X55" s="152">
+      <c r="U55" s="156"/>
+      <c r="V55" s="157"/>
+      <c r="W55" s="154"/>
+      <c r="X55" s="151">
         <v>0.25</v>
       </c>
-      <c r="Y55" s="157"/>
-      <c r="Z55" s="155"/>
-      <c r="AA55" s="155"/>
-      <c r="AB55" s="152">
+      <c r="Y55" s="156"/>
+      <c r="Z55" s="154"/>
+      <c r="AA55" s="154"/>
+      <c r="AB55" s="151">
         <v>0.25</v>
       </c>
-      <c r="AC55" s="153"/>
-      <c r="AD55" s="154"/>
-      <c r="AE55" s="155"/>
-      <c r="AF55" s="152">
+      <c r="AC55" s="152"/>
+      <c r="AD55" s="153"/>
+      <c r="AE55" s="154"/>
+      <c r="AF55" s="151">
         <v>0.25</v>
       </c>
-      <c r="AG55" s="153"/>
-      <c r="AH55" s="154"/>
-      <c r="AI55" s="154"/>
-      <c r="AJ55" s="156"/>
-      <c r="AK55" s="157"/>
-      <c r="AL55" s="158"/>
-      <c r="AM55" s="155"/>
-      <c r="AN55" s="152">
+      <c r="AG55" s="152"/>
+      <c r="AH55" s="153"/>
+      <c r="AI55" s="153"/>
+      <c r="AJ55" s="155"/>
+      <c r="AK55" s="156"/>
+      <c r="AL55" s="157"/>
+      <c r="AM55" s="154"/>
+      <c r="AN55" s="151">
         <v>0.25</v>
       </c>
-      <c r="AO55" s="157"/>
-      <c r="AP55" s="158"/>
-      <c r="AQ55" s="155"/>
-      <c r="AR55" s="152">
+      <c r="AO55" s="156"/>
+      <c r="AP55" s="157"/>
+      <c r="AQ55" s="154"/>
+      <c r="AR55" s="151">
         <v>0.25</v>
       </c>
-      <c r="AS55" s="157"/>
-      <c r="AT55" s="155"/>
-      <c r="AU55" s="155"/>
-      <c r="AV55" s="152">
+      <c r="AS55" s="156"/>
+      <c r="AT55" s="154"/>
+      <c r="AU55" s="154"/>
+      <c r="AV55" s="151">
         <v>0.25</v>
       </c>
-      <c r="AW55" s="153"/>
-      <c r="AX55" s="154"/>
-      <c r="AY55" s="155"/>
-      <c r="AZ55" s="152">
+      <c r="AW55" s="152"/>
+      <c r="AX55" s="153"/>
+      <c r="AY55" s="154"/>
+      <c r="AZ55" s="151">
         <v>0.25</v>
       </c>
-      <c r="BA55" s="153"/>
-      <c r="BB55" s="159"/>
-      <c r="BC55" s="154"/>
-      <c r="BD55" s="156"/>
-      <c r="BE55" s="157"/>
-      <c r="BF55" s="158"/>
-      <c r="BG55" s="160">
+      <c r="BA55" s="152"/>
+      <c r="BB55" s="158"/>
+      <c r="BC55" s="153"/>
+      <c r="BD55" s="155"/>
+      <c r="BE55" s="156"/>
+      <c r="BF55" s="157"/>
+      <c r="BG55" s="159">
         <v>2</v>
       </c>
-      <c r="BH55" s="152">
+      <c r="BH55" s="151">
         <v>2.25</v>
       </c>
-      <c r="BI55" s="157"/>
-      <c r="BJ55" s="161"/>
+      <c r="BI55" s="49"/>
+      <c r="BJ55" s="46"/>
       <c r="BK55" s="40"/>
       <c r="BL55" s="109"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="199"/>
+      <c r="B56" s="198"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="E56" s="136">
+        <v>16.05</v>
+      </c>
+      <c r="E56" s="135">
         <v>1.5</v>
       </c>
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
-      <c r="H56" s="163">
+      <c r="H56" s="161">
         <v>0.3</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="30"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="163">
+      <c r="L56" s="161">
         <v>0.3</v>
       </c>
       <c r="M56" s="26"/>
@@ -7749,27 +7761,27 @@
       <c r="Q56" s="53"/>
       <c r="R56" s="35"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="163">
+      <c r="T56" s="161">
         <v>1</v>
       </c>
       <c r="U56" s="53"/>
       <c r="V56" s="35"/>
       <c r="W56" s="18"/>
-      <c r="X56" s="163">
+      <c r="X56" s="161">
         <v>1.3</v>
       </c>
       <c r="Y56" s="106"/>
-      <c r="Z56" s="177">
+      <c r="Z56" s="175">
         <v>0.5</v>
       </c>
       <c r="AA56" s="106"/>
-      <c r="AB56" s="163">
+      <c r="AB56" s="161">
         <v>0.3</v>
       </c>
       <c r="AC56" s="29"/>
       <c r="AD56" s="30"/>
       <c r="AE56" s="106"/>
-      <c r="AF56" s="163">
+      <c r="AF56" s="161">
         <v>0.5</v>
       </c>
       <c r="AG56" s="26"/>
@@ -7779,29 +7791,29 @@
       <c r="AK56" s="53"/>
       <c r="AL56" s="35"/>
       <c r="AM56" s="18"/>
-      <c r="AN56" s="163">
+      <c r="AN56" s="161">
         <v>0.3</v>
       </c>
       <c r="AO56" s="108"/>
-      <c r="AP56" s="178">
+      <c r="AP56" s="176">
         <v>0.5</v>
       </c>
       <c r="AQ56" s="106"/>
-      <c r="AR56" s="163">
+      <c r="AR56" s="161">
         <v>0.7</v>
       </c>
       <c r="AS56" s="108"/>
-      <c r="AT56" s="177">
+      <c r="AT56" s="175">
         <v>0.75</v>
       </c>
       <c r="AU56" s="106"/>
-      <c r="AV56" s="177">
+      <c r="AV56" s="175">
         <v>1.3</v>
       </c>
       <c r="AW56" s="29"/>
       <c r="AX56" s="30"/>
       <c r="AY56" s="106"/>
-      <c r="AZ56" s="163">
+      <c r="AZ56" s="161">
         <v>0.3</v>
       </c>
       <c r="BA56" s="26"/>
@@ -7809,16 +7821,22 @@
       <c r="BC56" s="27"/>
       <c r="BD56" s="28"/>
       <c r="BE56" s="108"/>
-      <c r="BF56" s="130"/>
-      <c r="BG56" s="18"/>
-      <c r="BH56" s="19"/>
+      <c r="BF56" s="176">
+        <v>2</v>
+      </c>
+      <c r="BG56" s="140">
+        <v>2</v>
+      </c>
+      <c r="BH56" s="161">
+        <v>2.5</v>
+      </c>
       <c r="BI56" s="108"/>
       <c r="BJ56" s="35"/>
       <c r="BK56" s="30"/>
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="219" t="s">
+      <c r="B57" s="199" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7885,7 +7903,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="220"/>
+      <c r="B58" s="200"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7950,14 +7968,14 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="213" t="s">
+      <c r="B59" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="214"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="171"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="191"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="169"/>
       <c r="H59" s="79"/>
       <c r="I59" s="20"/>
       <c r="J59" s="21"/>
@@ -8017,12 +8035,12 @@
       <c r="BL59" s="111"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="216"/>
-      <c r="C60" s="217"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="172"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="193"/>
+      <c r="D60" s="194"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="170"/>
       <c r="H60" s="75"/>
       <c r="I60" s="29"/>
       <c r="J60" s="30"/>
@@ -8082,18 +8100,18 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="213" t="s">
+      <c r="B61" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="214"/>
-      <c r="D61" s="215"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="191"/>
       <c r="E61" s="80"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
       <c r="I61" s="39"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="171"/>
+      <c r="K61" s="169"/>
       <c r="L61" s="38"/>
       <c r="M61" s="39"/>
       <c r="N61" s="40"/>
@@ -8149,16 +8167,16 @@
       <c r="BL61" s="112"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="216"/>
-      <c r="C62" s="217"/>
-      <c r="D62" s="218"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="194"/>
       <c r="E62" s="74"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="163"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="161"/>
       <c r="I62" s="29"/>
       <c r="J62" s="30"/>
-      <c r="K62" s="172"/>
+      <c r="K62" s="170"/>
       <c r="L62" s="19"/>
       <c r="M62" s="29"/>
       <c r="N62" s="30"/>
@@ -8214,11 +8232,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="213" t="s">
+      <c r="B63" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="214"/>
-      <c r="D63" s="215"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="191"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8226,7 +8244,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
       <c r="K63" s="45"/>
-      <c r="L63" s="171"/>
+      <c r="L63" s="169"/>
       <c r="M63" s="39"/>
       <c r="N63" s="40"/>
       <c r="O63" s="40"/>
@@ -8281,9 +8299,9 @@
       <c r="BL63" s="112"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="216"/>
-      <c r="C64" s="217"/>
-      <c r="D64" s="218"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="193"/>
+      <c r="D64" s="194"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8291,7 +8309,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="30"/>
       <c r="K64" s="18"/>
-      <c r="L64" s="174"/>
+      <c r="L64" s="172"/>
       <c r="M64" s="29"/>
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
@@ -8346,11 +8364,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="213" t="s">
+      <c r="B65" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="214"/>
-      <c r="D65" s="215"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="191"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8363,38 +8381,38 @@
       <c r="N65" s="40"/>
       <c r="O65" s="40"/>
       <c r="P65" s="52"/>
-      <c r="Q65" s="143"/>
-      <c r="R65" s="150"/>
-      <c r="S65" s="164"/>
-      <c r="T65" s="165"/>
-      <c r="U65" s="143"/>
-      <c r="V65" s="150"/>
-      <c r="W65" s="144"/>
-      <c r="X65" s="146"/>
-      <c r="Y65" s="150"/>
-      <c r="Z65" s="144"/>
-      <c r="AA65" s="144"/>
-      <c r="AB65" s="166"/>
+      <c r="Q65" s="142"/>
+      <c r="R65" s="149"/>
+      <c r="S65" s="162"/>
+      <c r="T65" s="163"/>
+      <c r="U65" s="142"/>
+      <c r="V65" s="149"/>
+      <c r="W65" s="143"/>
+      <c r="X65" s="145"/>
+      <c r="Y65" s="149"/>
+      <c r="Z65" s="143"/>
+      <c r="AA65" s="143"/>
+      <c r="AB65" s="164"/>
       <c r="AC65" s="39"/>
       <c r="AD65" s="40"/>
-      <c r="AE65" s="164"/>
-      <c r="AF65" s="165"/>
+      <c r="AE65" s="162"/>
+      <c r="AF65" s="163"/>
       <c r="AG65" s="39"/>
       <c r="AH65" s="40"/>
       <c r="AI65" s="40"/>
       <c r="AJ65" s="52"/>
-      <c r="AK65" s="143"/>
-      <c r="AL65" s="150"/>
-      <c r="AM65" s="144"/>
-      <c r="AN65" s="146"/>
-      <c r="AO65" s="143"/>
-      <c r="AP65" s="150"/>
-      <c r="AQ65" s="144"/>
-      <c r="AR65" s="146"/>
-      <c r="AS65" s="143"/>
-      <c r="AT65" s="144"/>
-      <c r="AU65" s="144"/>
-      <c r="AV65" s="170"/>
+      <c r="AK65" s="142"/>
+      <c r="AL65" s="149"/>
+      <c r="AM65" s="143"/>
+      <c r="AN65" s="145"/>
+      <c r="AO65" s="142"/>
+      <c r="AP65" s="149"/>
+      <c r="AQ65" s="143"/>
+      <c r="AR65" s="145"/>
+      <c r="AS65" s="142"/>
+      <c r="AT65" s="143"/>
+      <c r="AU65" s="143"/>
+      <c r="AV65" s="168"/>
       <c r="AW65" s="39"/>
       <c r="AX65" s="40"/>
       <c r="AY65" s="37"/>
@@ -8413,9 +8431,9 @@
       <c r="BL65" s="112"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="216"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="218"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="193"/>
+      <c r="D66" s="194"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8428,38 +8446,38 @@
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
       <c r="P66" s="31"/>
-      <c r="Q66" s="136"/>
-      <c r="R66" s="176"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="163"/>
-      <c r="U66" s="136"/>
-      <c r="V66" s="176"/>
-      <c r="W66" s="141"/>
-      <c r="X66" s="163"/>
-      <c r="Y66" s="176"/>
-      <c r="Z66" s="141"/>
-      <c r="AA66" s="141"/>
-      <c r="AB66" s="179"/>
+      <c r="Q66" s="135"/>
+      <c r="R66" s="174"/>
+      <c r="S66" s="140"/>
+      <c r="T66" s="161"/>
+      <c r="U66" s="135"/>
+      <c r="V66" s="174"/>
+      <c r="W66" s="140"/>
+      <c r="X66" s="161"/>
+      <c r="Y66" s="174"/>
+      <c r="Z66" s="140"/>
+      <c r="AA66" s="140"/>
+      <c r="AB66" s="177"/>
       <c r="AC66" s="29"/>
       <c r="AD66" s="30"/>
-      <c r="AE66" s="141"/>
-      <c r="AF66" s="163"/>
+      <c r="AE66" s="140"/>
+      <c r="AF66" s="161"/>
       <c r="AG66" s="29"/>
       <c r="AH66" s="30"/>
       <c r="AI66" s="30"/>
       <c r="AJ66" s="31"/>
-      <c r="AK66" s="136"/>
-      <c r="AL66" s="176"/>
-      <c r="AM66" s="141"/>
-      <c r="AN66" s="163"/>
-      <c r="AO66" s="136"/>
-      <c r="AP66" s="176"/>
-      <c r="AQ66" s="141"/>
-      <c r="AR66" s="163"/>
-      <c r="AS66" s="136"/>
-      <c r="AT66" s="141"/>
-      <c r="AU66" s="141"/>
-      <c r="AV66" s="174"/>
+      <c r="AK66" s="135"/>
+      <c r="AL66" s="174"/>
+      <c r="AM66" s="140"/>
+      <c r="AN66" s="161"/>
+      <c r="AO66" s="135"/>
+      <c r="AP66" s="174"/>
+      <c r="AQ66" s="140"/>
+      <c r="AR66" s="161"/>
+      <c r="AS66" s="135"/>
+      <c r="AT66" s="140"/>
+      <c r="AU66" s="140"/>
+      <c r="AV66" s="172"/>
       <c r="AW66" s="29"/>
       <c r="AX66" s="30"/>
       <c r="AY66" s="18"/>
@@ -8478,11 +8496,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="213" t="s">
+      <c r="B67" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="214"/>
-      <c r="D67" s="215"/>
+      <c r="C67" s="190"/>
+      <c r="D67" s="191"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8529,8 +8547,8 @@
       <c r="AV67" s="48"/>
       <c r="AW67" s="50"/>
       <c r="AX67" s="40"/>
-      <c r="AY67" s="164"/>
-      <c r="AZ67" s="169"/>
+      <c r="AY67" s="162"/>
+      <c r="AZ67" s="167"/>
       <c r="BA67" s="39"/>
       <c r="BB67" s="119"/>
       <c r="BC67" s="40"/>
@@ -8545,9 +8563,9 @@
       <c r="BL67" s="112"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="216"/>
-      <c r="C68" s="217"/>
-      <c r="D68" s="218"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="193"/>
+      <c r="D68" s="194"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8594,13 +8612,13 @@
       <c r="AV68" s="19"/>
       <c r="AW68" s="29"/>
       <c r="AX68" s="30"/>
-      <c r="AY68" s="18"/>
-      <c r="AZ68" s="19"/>
+      <c r="AY68" s="140"/>
+      <c r="AZ68" s="161"/>
       <c r="BA68" s="29"/>
       <c r="BB68" s="118"/>
       <c r="BC68" s="30"/>
       <c r="BD68" s="31"/>
-      <c r="BE68" s="53"/>
+      <c r="BE68" s="219"/>
       <c r="BF68" s="35"/>
       <c r="BG68" s="18"/>
       <c r="BH68" s="19"/>
@@ -8610,11 +8628,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="213" t="s">
+      <c r="B69" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="214"/>
-      <c r="D69" s="215"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8667,8 +8685,8 @@
       <c r="BB69" s="119"/>
       <c r="BC69" s="40"/>
       <c r="BD69" s="52"/>
-      <c r="BE69" s="143"/>
-      <c r="BF69" s="168"/>
+      <c r="BE69" s="142"/>
+      <c r="BF69" s="166"/>
       <c r="BG69" s="45"/>
       <c r="BH69" s="48"/>
       <c r="BI69" s="103"/>
@@ -8677,9 +8695,9 @@
       <c r="BL69" s="112"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="216"/>
-      <c r="C70" s="217"/>
-      <c r="D70" s="218"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="193"/>
+      <c r="D70" s="194"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8732,8 +8750,8 @@
       <c r="BB70" s="118"/>
       <c r="BC70" s="30"/>
       <c r="BD70" s="31"/>
-      <c r="BE70" s="53"/>
-      <c r="BF70" s="35"/>
+      <c r="BE70" s="135"/>
+      <c r="BF70" s="220"/>
       <c r="BG70" s="102"/>
       <c r="BH70" s="19"/>
       <c r="BI70" s="53"/>
@@ -8742,11 +8760,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="213" t="s">
+      <c r="B71" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="214"/>
-      <c r="D71" s="215"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="191"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8801,17 +8819,17 @@
       <c r="BD71" s="52"/>
       <c r="BE71" s="49"/>
       <c r="BF71" s="46"/>
-      <c r="BG71" s="144"/>
-      <c r="BH71" s="146"/>
-      <c r="BI71" s="143"/>
-      <c r="BJ71" s="167"/>
+      <c r="BG71" s="143"/>
+      <c r="BH71" s="145"/>
+      <c r="BI71" s="142"/>
+      <c r="BJ71" s="165"/>
       <c r="BK71" s="41"/>
       <c r="BL71" s="112"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="216"/>
-      <c r="C72" s="217"/>
-      <c r="D72" s="218"/>
+      <c r="B72" s="192"/>
+      <c r="C72" s="193"/>
+      <c r="D72" s="194"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8892,55 +8910,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="193" t="s">
+      <c r="E74" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="194"/>
-      <c r="G74" s="194"/>
+      <c r="F74" s="216"/>
+      <c r="G74" s="216"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="193" t="s">
+      <c r="I74" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="194"/>
-      <c r="K74" s="194"/>
+      <c r="J74" s="216"/>
+      <c r="K74" s="216"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="195" t="s">
+      <c r="M74" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="196"/>
-      <c r="O74" s="196"/>
+      <c r="N74" s="218"/>
+      <c r="O74" s="218"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="188" t="s">
+      <c r="Q74" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="189"/>
-      <c r="S74" s="189"/>
-      <c r="T74" s="189"/>
+      <c r="R74" s="213"/>
+      <c r="S74" s="213"/>
+      <c r="T74" s="213"/>
       <c r="U74" s="67"/>
-      <c r="V74" s="134"/>
-      <c r="W74" s="189" t="s">
+      <c r="V74" s="133"/>
+      <c r="W74" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="189"/>
-      <c r="Y74" s="189"/>
+      <c r="X74" s="213"/>
+      <c r="Y74" s="213"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="190" t="s">
+      <c r="AA74" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="AB74" s="191"/>
-      <c r="AC74" s="191"/>
-      <c r="AD74" s="191"/>
-      <c r="AE74" s="191"/>
-      <c r="AF74" s="191"/>
-      <c r="AG74" s="192"/>
-      <c r="AH74" s="190" t="s">
+      <c r="AB74" s="179"/>
+      <c r="AC74" s="179"/>
+      <c r="AD74" s="179"/>
+      <c r="AE74" s="179"/>
+      <c r="AF74" s="179"/>
+      <c r="AG74" s="214"/>
+      <c r="AH74" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="AI74" s="191"/>
-      <c r="AJ74" s="191"/>
-      <c r="AK74" s="191"/>
-      <c r="AL74" s="191"/>
-      <c r="AM74" s="191"/>
+      <c r="AI74" s="179"/>
+      <c r="AJ74" s="179"/>
+      <c r="AK74" s="179"/>
+      <c r="AL74" s="179"/>
+      <c r="AM74" s="179"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
@@ -8969,37 +8987,22 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="AW3:AZ4"/>
-    <mergeCell ref="U2:AN2"/>
-    <mergeCell ref="AO2:BH2"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AJ4"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="BE3:BH4"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="BA3:BD4"/>
+    <mergeCell ref="AA74:AG74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="BI2:BL2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -9016,22 +9019,37 @@
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AS3:AV4"/>
     <mergeCell ref="E2:T2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="BA3:BD4"/>
-    <mergeCell ref="AA74:AG74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AW3:AZ4"/>
+    <mergeCell ref="U2:AN2"/>
+    <mergeCell ref="AO2:BH2"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AJ4"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="BE3:BH4"/>
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -9339,21 +9357,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100501A2237DBCF164BB17DE35239A4E5F0" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d252ecba0bbb92ffcd60552382fd808">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -9467,10 +9470,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9491,17 +9517,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749D8D2-B6DE-48D8-9949-E224BC23C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABA825C-886F-4D49-8B18-F074D7C9D027}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Zeitplan_YannickWernle.xlsx
+++ b/docs/Zeitplan_YannickWernle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\IPA\IPA\hpeilo_inventoryscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C48218-2024-49C5-B657-339E4119590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84CFE0-3D3F-461F-94C6-C39F763F9E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14550" yWindow="-24000" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14565" yWindow="-24120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -931,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1110,6 +1117,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,9 +1248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3602,8 +3614,8 @@
   </sheetPr>
   <dimension ref="B1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BN53" sqref="BN53"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BT61" sqref="BT61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,246 +3658,246 @@
   <sheetData>
     <row r="1" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="186" t="s">
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="186" t="s">
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="187"/>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="187"/>
-      <c r="AJ2" s="187"/>
-      <c r="AK2" s="187"/>
-      <c r="AL2" s="187"/>
-      <c r="AM2" s="187"/>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="186" t="s">
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="187"/>
-      <c r="AQ2" s="187"/>
-      <c r="AR2" s="187"/>
-      <c r="AS2" s="187"/>
-      <c r="AT2" s="187"/>
-      <c r="AU2" s="187"/>
-      <c r="AV2" s="187"/>
-      <c r="AW2" s="187"/>
-      <c r="AX2" s="187"/>
-      <c r="AY2" s="187"/>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="187"/>
-      <c r="BH2" s="188"/>
-      <c r="BI2" s="186" t="s">
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="195"/>
+      <c r="BF2" s="195"/>
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="196"/>
+      <c r="BI2" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="BJ2" s="187"/>
-      <c r="BK2" s="187"/>
-      <c r="BL2" s="188"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
+      <c r="BL2" s="196"/>
     </row>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="210" t="s">
+      <c r="C3" s="215"/>
+      <c r="D3" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="180" t="s">
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="180" t="s">
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="180" t="s">
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="180" t="s">
+      <c r="R3" s="189"/>
+      <c r="S3" s="189"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="180" t="s">
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="180" t="s">
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="180" t="s">
+      <c r="AD3" s="189"/>
+      <c r="AE3" s="189"/>
+      <c r="AF3" s="190"/>
+      <c r="AG3" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="180" t="s">
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="189"/>
+      <c r="AJ3" s="190"/>
+      <c r="AK3" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="181"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="180" t="s">
+      <c r="AL3" s="189"/>
+      <c r="AM3" s="189"/>
+      <c r="AN3" s="190"/>
+      <c r="AO3" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="181"/>
-      <c r="AQ3" s="181"/>
-      <c r="AR3" s="182"/>
-      <c r="AS3" s="180" t="s">
+      <c r="AP3" s="189"/>
+      <c r="AQ3" s="189"/>
+      <c r="AR3" s="190"/>
+      <c r="AS3" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="AT3" s="181"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="180" t="s">
+      <c r="AT3" s="189"/>
+      <c r="AU3" s="189"/>
+      <c r="AV3" s="190"/>
+      <c r="AW3" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="182"/>
-      <c r="BA3" s="180" t="s">
+      <c r="AX3" s="189"/>
+      <c r="AY3" s="189"/>
+      <c r="AZ3" s="190"/>
+      <c r="BA3" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="BB3" s="181"/>
-      <c r="BC3" s="181"/>
-      <c r="BD3" s="182"/>
-      <c r="BE3" s="180" t="s">
+      <c r="BB3" s="189"/>
+      <c r="BC3" s="189"/>
+      <c r="BD3" s="190"/>
+      <c r="BE3" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="BF3" s="181"/>
-      <c r="BG3" s="181"/>
-      <c r="BH3" s="182"/>
-      <c r="BI3" s="180" t="s">
+      <c r="BF3" s="189"/>
+      <c r="BG3" s="189"/>
+      <c r="BH3" s="190"/>
+      <c r="BI3" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="BJ3" s="181"/>
-      <c r="BK3" s="181"/>
-      <c r="BL3" s="182"/>
+      <c r="BJ3" s="189"/>
+      <c r="BK3" s="189"/>
+      <c r="BL3" s="190"/>
     </row>
     <row r="4" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="184"/>
-      <c r="X4" s="185"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="185"/>
-      <c r="AC4" s="183"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="184"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="183"/>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="183"/>
-      <c r="AL4" s="184"/>
-      <c r="AM4" s="184"/>
-      <c r="AN4" s="185"/>
-      <c r="AO4" s="183"/>
-      <c r="AP4" s="184"/>
-      <c r="AQ4" s="184"/>
-      <c r="AR4" s="185"/>
-      <c r="AS4" s="183"/>
-      <c r="AT4" s="184"/>
-      <c r="AU4" s="184"/>
-      <c r="AV4" s="185"/>
-      <c r="AW4" s="183"/>
-      <c r="AX4" s="184"/>
-      <c r="AY4" s="184"/>
-      <c r="AZ4" s="185"/>
-      <c r="BA4" s="183"/>
-      <c r="BB4" s="184"/>
-      <c r="BC4" s="184"/>
-      <c r="BD4" s="185"/>
-      <c r="BE4" s="183"/>
-      <c r="BF4" s="184"/>
-      <c r="BG4" s="184"/>
-      <c r="BH4" s="185"/>
-      <c r="BI4" s="183"/>
-      <c r="BJ4" s="184"/>
-      <c r="BK4" s="184"/>
-      <c r="BL4" s="185"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="191"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="191"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
+      <c r="AB4" s="193"/>
+      <c r="AC4" s="191"/>
+      <c r="AD4" s="192"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="193"/>
+      <c r="AG4" s="191"/>
+      <c r="AH4" s="192"/>
+      <c r="AI4" s="192"/>
+      <c r="AJ4" s="193"/>
+      <c r="AK4" s="191"/>
+      <c r="AL4" s="192"/>
+      <c r="AM4" s="192"/>
+      <c r="AN4" s="193"/>
+      <c r="AO4" s="191"/>
+      <c r="AP4" s="192"/>
+      <c r="AQ4" s="192"/>
+      <c r="AR4" s="193"/>
+      <c r="AS4" s="191"/>
+      <c r="AT4" s="192"/>
+      <c r="AU4" s="192"/>
+      <c r="AV4" s="193"/>
+      <c r="AW4" s="191"/>
+      <c r="AX4" s="192"/>
+      <c r="AY4" s="192"/>
+      <c r="AZ4" s="193"/>
+      <c r="BA4" s="191"/>
+      <c r="BB4" s="192"/>
+      <c r="BC4" s="192"/>
+      <c r="BD4" s="193"/>
+      <c r="BE4" s="191"/>
+      <c r="BF4" s="192"/>
+      <c r="BG4" s="192"/>
+      <c r="BH4" s="193"/>
+      <c r="BI4" s="191"/>
+      <c r="BJ4" s="192"/>
+      <c r="BK4" s="192"/>
+      <c r="BL4" s="193"/>
     </row>
     <row r="5" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3957,7 +3969,7 @@
       <c r="BL5" s="22"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="201"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4027,7 +4039,7 @@
       <c r="BL6" s="25"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="203" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4101,7 +4113,7 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B8" s="196"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4182,7 +4194,7 @@
       <c r="BV8" s="90"/>
     </row>
     <row r="9" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="203" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4256,7 +4268,7 @@
       <c r="BL9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B10" s="196"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4336,7 +4348,7 @@
       <c r="BV10" s="92"/>
     </row>
     <row r="11" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="203" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4410,7 +4422,7 @@
       <c r="BL11" s="25"/>
     </row>
     <row r="12" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="202"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4482,7 +4494,7 @@
       <c r="BL12" s="31"/>
     </row>
     <row r="13" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="205" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -4554,7 +4566,7 @@
       <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B14" s="201"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4624,7 +4636,7 @@
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="203" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4700,7 +4712,7 @@
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B16" s="196"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4774,7 +4786,7 @@
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="203" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4850,7 +4862,7 @@
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" s="196"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4924,7 +4936,7 @@
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="203" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4998,7 +5010,7 @@
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" s="196"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -5070,7 +5082,7 @@
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="203" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5144,7 +5156,7 @@
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" s="196"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5216,7 +5228,7 @@
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="203" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5290,7 +5302,7 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="202"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="7" t="s">
         <v>3</v>
       </c>
@@ -5362,7 +5374,7 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="205" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -5436,7 +5448,7 @@
       <c r="BL25" s="52"/>
     </row>
     <row r="26" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="198"/>
+      <c r="B26" s="206"/>
       <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
@@ -5508,7 +5520,7 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" s="197" t="s">
+      <c r="B27" s="205" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -5580,7 +5592,7 @@
       <c r="BL27" s="22"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B28" s="201"/>
+      <c r="B28" s="209"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
@@ -5650,7 +5662,7 @@
       <c r="BL28" s="25"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="203" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5726,7 +5738,7 @@
       <c r="BL29" s="25"/>
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" s="196"/>
+      <c r="B30" s="204"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -5800,7 +5812,7 @@
       <c r="BL30" s="25"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" s="195" t="s">
+      <c r="B31" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5876,7 +5888,7 @@
       <c r="BL31" s="25"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" s="196"/>
+      <c r="B32" s="204"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5952,7 +5964,7 @@
       <c r="BL32" s="25"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" s="195" t="s">
+      <c r="B33" s="203" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6028,7 +6040,7 @@
       <c r="BL33" s="25"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" s="196"/>
+      <c r="B34" s="204"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -6106,7 +6118,7 @@
       <c r="BL34" s="25"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="203" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6180,7 +6192,7 @@
       <c r="BL35" s="25"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" s="196"/>
+      <c r="B36" s="204"/>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
@@ -6254,7 +6266,7 @@
       <c r="BL36" s="25"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="203" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6328,7 +6340,7 @@
       <c r="BL37" s="25"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" s="196"/>
+      <c r="B38" s="204"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
@@ -6400,7 +6412,7 @@
       <c r="BL38" s="25"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" s="195" t="s">
+      <c r="B39" s="203" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6480,7 +6492,7 @@
       <c r="BL39" s="25"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="196"/>
+      <c r="B40" s="204"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -6554,7 +6566,7 @@
       <c r="BL40" s="25"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="203" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6634,7 +6646,7 @@
       <c r="BL41" s="25"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" s="196"/>
+      <c r="B42" s="204"/>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -6718,7 +6730,7 @@
       <c r="BL42" s="25"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="203" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6798,7 +6810,7 @@
       <c r="BL43" s="25"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B44" s="196"/>
+      <c r="B44" s="204"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
@@ -6878,7 +6890,7 @@
       <c r="BL44" s="25"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B45" s="195" t="s">
+      <c r="B45" s="203" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6954,7 +6966,7 @@
       <c r="BL45" s="25"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B46" s="196"/>
+      <c r="B46" s="204"/>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
@@ -7028,7 +7040,7 @@
       <c r="BL46" s="25"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B47" s="195" t="s">
+      <c r="B47" s="203" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7108,7 +7120,7 @@
       <c r="BL47" s="25"/>
     </row>
     <row r="48" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="196"/>
+      <c r="B48" s="204"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7198,7 @@
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="197" t="s">
+      <c r="B49" s="205" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -7262,7 +7274,7 @@
       <c r="BL49" s="52"/>
     </row>
     <row r="50" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="198"/>
+      <c r="B50" s="206"/>
       <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
@@ -7328,7 +7340,7 @@
       <c r="BB50" s="118"/>
       <c r="BC50" s="30"/>
       <c r="BD50" s="31"/>
-      <c r="BE50" s="221">
+      <c r="BE50" s="179">
         <v>0.3</v>
       </c>
       <c r="BF50" s="125"/>
@@ -7340,7 +7352,7 @@
       <c r="BL50" s="31"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="197" t="s">
+      <c r="B51" s="205" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -7416,7 +7428,7 @@
       <c r="BL51" s="52"/>
     </row>
     <row r="52" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="198"/>
+      <c r="B52" s="206"/>
       <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
@@ -7488,7 +7500,7 @@
       <c r="BL52" s="31"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="197" t="s">
+      <c r="B53" s="205" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="43" t="s">
@@ -7564,13 +7576,13 @@
       <c r="BL53" s="52"/>
     </row>
     <row r="54" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="198"/>
+      <c r="B54" s="206"/>
       <c r="C54" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="74"/>
       <c r="F54" s="73"/>
@@ -7629,12 +7641,14 @@
       <c r="BG54" s="18"/>
       <c r="BH54" s="19"/>
       <c r="BI54" s="53"/>
-      <c r="BJ54" s="35"/>
+      <c r="BJ54" s="174">
+        <v>2</v>
+      </c>
       <c r="BK54" s="30"/>
       <c r="BL54" s="31"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="197" t="s">
+      <c r="B55" s="205" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="43" t="s">
@@ -7732,13 +7746,13 @@
       <c r="BL55" s="109"/>
     </row>
     <row r="56" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="198"/>
+      <c r="B56" s="206"/>
       <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="88">
         <f>SUM(E56:BL56)</f>
-        <v>16.05</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="E56" s="135">
         <v>1.5</v>
@@ -7830,13 +7844,17 @@
       <c r="BH56" s="161">
         <v>2.5</v>
       </c>
-      <c r="BI56" s="108"/>
-      <c r="BJ56" s="35"/>
+      <c r="BI56" s="180">
+        <v>2</v>
+      </c>
+      <c r="BJ56" s="174">
+        <v>0.3</v>
+      </c>
       <c r="BK56" s="30"/>
       <c r="BL56" s="31"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B57" s="199" t="s">
+      <c r="B57" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="54"/>
@@ -7903,7 +7921,7 @@
       <c r="BL57" s="57"/>
     </row>
     <row r="58" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="200"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
       <c r="E58" s="63"/>
@@ -7968,11 +7986,11 @@
       <c r="BL58" s="62"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B59" s="189" t="s">
+      <c r="B59" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="190"/>
-      <c r="D59" s="191"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="199"/>
       <c r="E59" s="142"/>
       <c r="F59" s="143"/>
       <c r="G59" s="169"/>
@@ -8035,9 +8053,9 @@
       <c r="BL59" s="111"/>
     </row>
     <row r="60" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="192"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="194"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="201"/>
+      <c r="D60" s="202"/>
       <c r="E60" s="135"/>
       <c r="F60" s="140"/>
       <c r="G60" s="170"/>
@@ -8100,11 +8118,11 @@
       <c r="BL60" s="31"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B61" s="189" t="s">
+      <c r="B61" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="190"/>
-      <c r="D61" s="191"/>
+      <c r="C61" s="198"/>
+      <c r="D61" s="199"/>
       <c r="E61" s="80"/>
       <c r="F61" s="143"/>
       <c r="G61" s="143"/>
@@ -8167,9 +8185,9 @@
       <c r="BL61" s="112"/>
     </row>
     <row r="62" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="192"/>
-      <c r="C62" s="193"/>
-      <c r="D62" s="194"/>
+      <c r="B62" s="200"/>
+      <c r="C62" s="201"/>
+      <c r="D62" s="202"/>
       <c r="E62" s="74"/>
       <c r="F62" s="140"/>
       <c r="G62" s="140"/>
@@ -8232,11 +8250,11 @@
       <c r="BL62" s="31"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B63" s="189" t="s">
+      <c r="B63" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="190"/>
-      <c r="D63" s="191"/>
+      <c r="C63" s="198"/>
+      <c r="D63" s="199"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -8299,9 +8317,9 @@
       <c r="BL63" s="112"/>
     </row>
     <row r="64" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="192"/>
-      <c r="C64" s="193"/>
-      <c r="D64" s="194"/>
+      <c r="B64" s="200"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="202"/>
       <c r="E64" s="74"/>
       <c r="F64" s="73"/>
       <c r="G64" s="73"/>
@@ -8364,11 +8382,11 @@
       <c r="BL64" s="31"/>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B65" s="189" t="s">
+      <c r="B65" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="190"/>
-      <c r="D65" s="191"/>
+      <c r="C65" s="198"/>
+      <c r="D65" s="199"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -8431,9 +8449,9 @@
       <c r="BL65" s="112"/>
     </row>
     <row r="66" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="192"/>
-      <c r="C66" s="193"/>
-      <c r="D66" s="194"/>
+      <c r="B66" s="200"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="202"/>
       <c r="E66" s="74"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -8496,11 +8514,11 @@
       <c r="BL66" s="31"/>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B67" s="189" t="s">
+      <c r="B67" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="190"/>
-      <c r="D67" s="191"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="199"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -8563,9 +8581,9 @@
       <c r="BL67" s="112"/>
     </row>
     <row r="68" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="192"/>
-      <c r="C68" s="193"/>
-      <c r="D68" s="194"/>
+      <c r="B68" s="200"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="202"/>
       <c r="E68" s="74"/>
       <c r="F68" s="73"/>
       <c r="G68" s="73"/>
@@ -8609,7 +8627,7 @@
       <c r="AS68" s="53"/>
       <c r="AT68" s="18"/>
       <c r="AU68" s="18"/>
-      <c r="AV68" s="19"/>
+      <c r="AV68" s="161"/>
       <c r="AW68" s="29"/>
       <c r="AX68" s="30"/>
       <c r="AY68" s="140"/>
@@ -8618,7 +8636,7 @@
       <c r="BB68" s="118"/>
       <c r="BC68" s="30"/>
       <c r="BD68" s="31"/>
-      <c r="BE68" s="219"/>
+      <c r="BE68" s="178"/>
       <c r="BF68" s="35"/>
       <c r="BG68" s="18"/>
       <c r="BH68" s="19"/>
@@ -8628,11 +8646,11 @@
       <c r="BL68" s="31"/>
     </row>
     <row r="69" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B69" s="189" t="s">
+      <c r="B69" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="190"/>
-      <c r="D69" s="191"/>
+      <c r="C69" s="198"/>
+      <c r="D69" s="199"/>
       <c r="E69" s="80"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -8695,9 +8713,9 @@
       <c r="BL69" s="112"/>
     </row>
     <row r="70" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="192"/>
-      <c r="C70" s="193"/>
-      <c r="D70" s="194"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="201"/>
+      <c r="D70" s="202"/>
       <c r="E70" s="74"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -8750,8 +8768,8 @@
       <c r="BB70" s="118"/>
       <c r="BC70" s="30"/>
       <c r="BD70" s="31"/>
-      <c r="BE70" s="135"/>
-      <c r="BF70" s="220"/>
+      <c r="BE70" s="181"/>
+      <c r="BF70" s="123"/>
       <c r="BG70" s="102"/>
       <c r="BH70" s="19"/>
       <c r="BI70" s="53"/>
@@ -8760,11 +8778,11 @@
       <c r="BL70" s="31"/>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B71" s="189" t="s">
+      <c r="B71" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="190"/>
-      <c r="D71" s="191"/>
+      <c r="C71" s="198"/>
+      <c r="D71" s="199"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -8827,9 +8845,9 @@
       <c r="BL71" s="112"/>
     </row>
     <row r="72" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="192"/>
-      <c r="C72" s="193"/>
-      <c r="D72" s="194"/>
+      <c r="B72" s="200"/>
+      <c r="C72" s="201"/>
+      <c r="D72" s="202"/>
       <c r="E72" s="74"/>
       <c r="F72" s="73"/>
       <c r="G72" s="73"/>
@@ -8883,11 +8901,11 @@
       <c r="BC72" s="30"/>
       <c r="BD72" s="31"/>
       <c r="BE72" s="53"/>
-      <c r="BF72" s="35"/>
-      <c r="BG72" s="18"/>
-      <c r="BH72" s="19"/>
-      <c r="BI72" s="53"/>
-      <c r="BJ72" s="18"/>
+      <c r="BF72" s="182"/>
+      <c r="BG72" s="183"/>
+      <c r="BH72" s="184"/>
+      <c r="BI72" s="185"/>
+      <c r="BJ72" s="170"/>
       <c r="BK72" s="30"/>
       <c r="BL72" s="31"/>
     </row>
@@ -8910,55 +8928,55 @@
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="215" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="216"/>
-      <c r="G74" s="216"/>
+      <c r="E74" s="223" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="224"/>
+      <c r="G74" s="224"/>
       <c r="H74" s="64"/>
-      <c r="I74" s="215" t="s">
+      <c r="I74" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="216"/>
-      <c r="K74" s="216"/>
+      <c r="J74" s="224"/>
+      <c r="K74" s="224"/>
       <c r="L74" s="65"/>
-      <c r="M74" s="217" t="s">
+      <c r="M74" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="N74" s="218"/>
-      <c r="O74" s="218"/>
+      <c r="N74" s="226"/>
+      <c r="O74" s="226"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="212" t="s">
+      <c r="Q74" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="R74" s="213"/>
-      <c r="S74" s="213"/>
-      <c r="T74" s="213"/>
+      <c r="R74" s="221"/>
+      <c r="S74" s="221"/>
+      <c r="T74" s="221"/>
       <c r="U74" s="67"/>
       <c r="V74" s="133"/>
-      <c r="W74" s="213" t="s">
+      <c r="W74" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="X74" s="213"/>
-      <c r="Y74" s="213"/>
+      <c r="X74" s="221"/>
+      <c r="Y74" s="221"/>
       <c r="Z74" s="68"/>
-      <c r="AA74" s="178" t="s">
+      <c r="AA74" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="AB74" s="179"/>
-      <c r="AC74" s="179"/>
-      <c r="AD74" s="179"/>
-      <c r="AE74" s="179"/>
-      <c r="AF74" s="179"/>
-      <c r="AG74" s="214"/>
-      <c r="AH74" s="178" t="s">
+      <c r="AB74" s="187"/>
+      <c r="AC74" s="187"/>
+      <c r="AD74" s="187"/>
+      <c r="AE74" s="187"/>
+      <c r="AF74" s="187"/>
+      <c r="AG74" s="222"/>
+      <c r="AH74" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="AI74" s="179"/>
-      <c r="AJ74" s="179"/>
-      <c r="AK74" s="179"/>
-      <c r="AL74" s="179"/>
-      <c r="AM74" s="179"/>
+      <c r="AI74" s="187"/>
+      <c r="AJ74" s="187"/>
+      <c r="AK74" s="187"/>
+      <c r="AL74" s="187"/>
+      <c r="AM74" s="187"/>
       <c r="AN74" s="13"/>
       <c r="AO74" s="13"/>
       <c r="AP74" s="13"/>
